--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1048,8 +1048,11 @@
       <c r="HK1" s="1" t="n">
         <v>10303</v>
       </c>
-      <c r="HL1" t="n">
+      <c r="HL1" s="1" t="n">
         <v>10311</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10331</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1712,8 +1715,11 @@
       <c r="HK2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HL2" s="1" t="n">
         <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2376,8 +2382,11 @@
       <c r="HK3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HL3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3040,7 +3049,10 @@
       <c r="HK4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HL4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3716,10 @@
       <c r="HK5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL5" t="n">
+      <c r="HL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,8 +4383,11 @@
       <c r="HK6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HL6" t="n">
+      <c r="HL6" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5032,8 +5050,11 @@
       <c r="HK7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="HL7" t="n">
+      <c r="HL7" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5696,8 +5717,11 @@
       <c r="HK8" s="1" t="n">
         <v>-50</v>
       </c>
-      <c r="HL8" t="n">
+      <c r="HL8" s="1" t="n">
         <v>-19</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6360,7 +6384,10 @@
       <c r="HK9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL9" t="n">
+      <c r="HL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,8 +7051,11 @@
       <c r="HK10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HL10" t="n">
+      <c r="HL10" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7688,8 +7718,11 @@
       <c r="HK11" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="HL11" t="n">
+      <c r="HL11" s="1" t="n">
         <v>171</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8352,8 +8385,11 @@
       <c r="HK12" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="HL12" t="n">
+      <c r="HL12" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9016,8 +9052,11 @@
       <c r="HK13" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="HL13" t="n">
+      <c r="HL13" s="1" t="n">
         <v>321</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9680,7 +9719,10 @@
       <c r="HK14" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="HL14" t="n">
+      <c r="HL14" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="HM14" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -10344,8 +10386,11 @@
       <c r="HK15" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HL15" t="n">
+      <c r="HL15" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11008,8 +11053,11 @@
       <c r="HK16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HL16" t="n">
+      <c r="HL16" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11672,8 +11720,11 @@
       <c r="HK17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HL17" t="n">
+      <c r="HL17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12336,8 +12387,11 @@
       <c r="HK18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HL18" t="n">
+      <c r="HL18" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13000,8 +13054,11 @@
       <c r="HK19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HL19" t="n">
+      <c r="HL19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13664,8 +13721,11 @@
       <c r="HK20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL20" t="n">
+      <c r="HL20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14328,8 +14388,11 @@
       <c r="HK21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL21" t="n">
+      <c r="HL21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -14992,8 +15055,11 @@
       <c r="HK22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL22" t="n">
+      <c r="HL22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15656,8 +15722,11 @@
       <c r="HK23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL23" t="n">
+      <c r="HL23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16320,8 +16389,11 @@
       <c r="HK24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL24" t="n">
+      <c r="HL24" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -16984,7 +17056,10 @@
       <c r="HK25" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="HL25" t="n">
+      <c r="HL25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -17648,8 +17723,11 @@
       <c r="HK26" s="1" t="n">
         <v>70.75</v>
       </c>
-      <c r="HL26" t="n">
+      <c r="HL26" s="1" t="n">
         <v>45.86</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18312,8 +18390,11 @@
       <c r="HK27" s="1" t="n">
         <v>31.44</v>
       </c>
-      <c r="HL27" t="n">
+      <c r="HL27" s="1" t="n">
         <v>22.93</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -18976,8 +19057,11 @@
       <c r="HK28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL28" t="n">
+      <c r="HL28" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19640,8 +19724,11 @@
       <c r="HK29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HL29" t="n">
+      <c r="HL29" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20304,8 +20391,11 @@
       <c r="HK30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HL30" t="n">
+      <c r="HL30" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -20968,8 +21058,11 @@
       <c r="HK31" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL31" t="n">
+      <c r="HL31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21632,8 +21725,11 @@
       <c r="HK32" s="1" t="n">
         <v>3.56</v>
       </c>
-      <c r="HL32" t="n">
+      <c r="HL32" s="1" t="n">
         <v>3.14</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22296,8 +22392,11 @@
       <c r="HK33" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL33" t="n">
+      <c r="HL33" s="1" t="n">
         <v>6.29</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -22960,8 +23059,11 @@
       <c r="HK34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HL34" t="n">
+      <c r="HL34" s="1" t="n">
         <v>29.5</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23624,8 +23726,11 @@
       <c r="HK35" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="HL35" t="n">
+      <c r="HL35" s="1" t="n">
         <v>15.9</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24288,8 +24393,11 @@
       <c r="HK36" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HL36" t="n">
+      <c r="HL36" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>186.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -24952,8 +25060,11 @@
       <c r="HK37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HL37" t="n">
+      <c r="HL37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25616,8 +25727,11 @@
       <c r="HK38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="HL38" t="n">
+      <c r="HL38" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26280,8 +26394,11 @@
       <c r="HK39" s="1" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="HL39" t="n">
+      <c r="HL39" s="1" t="n">
         <v>79.3</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>68.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -26944,8 +27061,11 @@
       <c r="HK40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL40" t="n">
+      <c r="HL40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HM40" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -27608,8 +27728,11 @@
       <c r="HK41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL41" t="n">
+      <c r="HL41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28272,8 +28395,11 @@
       <c r="HK42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL42" t="n">
+      <c r="HL42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -28936,8 +29062,11 @@
       <c r="HK43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL43" t="n">
+      <c r="HL43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29600,8 +29729,11 @@
       <c r="HK44" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HL44" t="n">
+      <c r="HL44" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30264,8 +30396,11 @@
       <c r="HK45" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="HL45" t="n">
+      <c r="HL45" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -30928,8 +31063,11 @@
       <c r="HK46" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HL46" t="n">
+      <c r="HL46" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31592,8 +31730,11 @@
       <c r="HK47" s="1" t="n">
         <v>66.8</v>
       </c>
-      <c r="HL47" t="n">
+      <c r="HL47" s="1" t="n">
         <v>82.2</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32256,8 +32397,11 @@
       <c r="HK48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HL48" t="n">
+      <c r="HL48" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -32920,8 +33064,11 @@
       <c r="HK49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL49" t="n">
+      <c r="HL49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -33584,8 +33731,11 @@
       <c r="HK50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL50" t="n">
+      <c r="HL50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34248,8 +34398,11 @@
       <c r="HK51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL51" t="n">
+      <c r="HL51" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -34912,8 +35065,11 @@
       <c r="HK52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HL52" t="n">
+      <c r="HL52" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -35576,8 +35732,11 @@
       <c r="HK53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HL53" t="n">
+      <c r="HL53" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36240,7 +36399,10 @@
       <c r="HK54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL54" t="n">
+      <c r="HL54" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM54" t="n">
         <v>9</v>
       </c>
     </row>
@@ -36904,8 +37066,11 @@
       <c r="HK55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL55" t="n">
+      <c r="HL55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -37568,8 +37733,11 @@
       <c r="HK56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HL56" t="n">
+      <c r="HL56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38232,8 +38400,11 @@
       <c r="HK57" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="HL57" t="n">
+      <c r="HL57" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -38896,8 +39067,11 @@
       <c r="HK58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="HL58" t="n">
+      <c r="HL58" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39560,8 +39734,11 @@
       <c r="HK59" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="HL59" t="n">
+      <c r="HL59" s="1" t="n">
         <v>310</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>402</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40224,8 +40401,11 @@
       <c r="HK60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="HL60" t="n">
+      <c r="HL60" s="1" t="n">
         <v>1.82</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -40888,8 +41068,11 @@
       <c r="HK61" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HL61" t="n">
+      <c r="HL61" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41552,8 +41735,11 @@
       <c r="HK62" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HL62" t="n">
+      <c r="HL62" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42216,7 +42402,10 @@
       <c r="HK63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL63" t="n">
+      <c r="HL63" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM63" t="n">
         <v>28</v>
       </c>
     </row>
@@ -42880,8 +43069,11 @@
       <c r="HK64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HL64" t="n">
+      <c r="HL64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43544,8 +43736,11 @@
       <c r="HK65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HL65" t="n">
+      <c r="HL65" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44208,8 +44403,11 @@
       <c r="HK66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HL66" t="n">
+      <c r="HL66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -44872,7 +45070,10 @@
       <c r="HK67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL67" t="n">
+      <c r="HL67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -45536,8 +45737,11 @@
       <c r="HK68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL68" t="n">
+      <c r="HL68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46200,8 +46404,11 @@
       <c r="HK69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL69" t="n">
+      <c r="HL69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -46864,8 +47071,11 @@
       <c r="HK70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HL70" t="n">
+      <c r="HL70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47528,8 +47738,11 @@
       <c r="HK71" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="HL71" t="n">
+      <c r="HL71" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48192,8 +48405,11 @@
       <c r="HK72" s="1" t="n">
         <v>30.91</v>
       </c>
-      <c r="HL72" t="n">
+      <c r="HL72" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>28.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -48856,8 +49072,11 @@
       <c r="HK73" s="1" t="n">
         <v>14.17</v>
       </c>
-      <c r="HL73" t="n">
+      <c r="HL73" s="1" t="n">
         <v>17.22</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>18.27</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49520,8 +49739,11 @@
       <c r="HK74" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HL74" t="n">
+      <c r="HL74" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50184,8 +50406,11 @@
       <c r="HK75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HL75" t="n">
+      <c r="HL75" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -50848,8 +51073,11 @@
       <c r="HK76" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HL76" t="n">
+      <c r="HL76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -51512,8 +51740,11 @@
       <c r="HK77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HL77" t="n">
+      <c r="HL77" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52176,8 +52407,11 @@
       <c r="HK78" s="1" t="n">
         <v>1.88</v>
       </c>
-      <c r="HL78" t="n">
+      <c r="HL78" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -52840,8 +53074,11 @@
       <c r="HK79" s="1" t="n">
         <v>4.09</v>
       </c>
-      <c r="HL79" t="n">
+      <c r="HL79" s="1" t="n">
         <v>3.9</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53504,8 +53741,11 @@
       <c r="HK80" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="HL80" t="n">
+      <c r="HL80" s="1" t="n">
         <v>43.6</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>37.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54168,8 +54408,11 @@
       <c r="HK81" s="1" t="n">
         <v>24.4</v>
       </c>
-      <c r="HL81" t="n">
+      <c r="HL81" s="1" t="n">
         <v>25.6</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -54832,8 +55075,11 @@
       <c r="HK82" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="HL82" t="n">
+      <c r="HL82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55496,8 +55742,11 @@
       <c r="HK83" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="HL83" t="n">
+      <c r="HL83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56160,8 +56409,11 @@
       <c r="HK84" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="HL84" t="n">
+      <c r="HL84" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="HM84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -56824,8 +57076,11 @@
       <c r="HK85" s="1" t="n">
         <v>119.4</v>
       </c>
-      <c r="HL85" t="n">
+      <c r="HL85" s="1" t="n">
         <v>84.7</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -57488,8 +57743,11 @@
       <c r="HK86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL86" t="n">
+      <c r="HL86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58152,8 +58410,11 @@
       <c r="HK87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL87" t="n">
+      <c r="HL87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HM87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -58816,7 +59077,10 @@
       <c r="HK88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL88" t="n">
+      <c r="HL88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -59480,8 +59744,11 @@
       <c r="HK89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL89" t="n">
+      <c r="HL89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60144,8 +60411,11 @@
       <c r="HK90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HL90" t="n">
+      <c r="HL90" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -60808,8 +61078,11 @@
       <c r="HK91" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="HL91" t="n">
+      <c r="HL91" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -61472,8 +61745,11 @@
       <c r="HK92" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="HL92" t="n">
+      <c r="HL92" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62136,8 +62412,11 @@
       <c r="HK93" s="1" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="HL93" t="n">
+      <c r="HL93" s="1" t="n">
         <v>77.7</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -62800,8 +63079,11 @@
       <c r="HK94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HL94" t="n">
+      <c r="HL94" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -63464,8 +63746,11 @@
       <c r="HK95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL95" t="n">
+      <c r="HL95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64128,8 +64413,11 @@
       <c r="HK96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HL96" t="n">
+      <c r="HL96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -64792,8 +65080,11 @@
       <c r="HK97" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HL97" t="n">
+      <c r="HL97" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -65456,8 +65747,11 @@
       <c r="HK98" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HL98" t="n">
+      <c r="HL98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -66120,8 +66414,11 @@
       <c r="HK99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HL99" t="n">
+      <c r="HL99" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -66784,8 +67081,11 @@
       <c r="HK100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL100" t="n">
+      <c r="HL100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -67448,7 +67748,10 @@
       <c r="HK101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL101" t="n">
+      <c r="HL101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -68112,8 +68415,11 @@
       <c r="HK102" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="HL102" t="n">
+      <c r="HL102" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>64.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1051,8 +1051,11 @@
       <c r="HL1" s="1" t="n">
         <v>10311</v>
       </c>
-      <c r="HM1" t="n">
+      <c r="HM1" s="1" t="n">
         <v>10331</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10339</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1718,7 +1721,10 @@
       <c r="HL2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HM2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HN2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2385,8 +2391,11 @@
       <c r="HL3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HM3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3052,8 +3061,11 @@
       <c r="HL4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HM4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3719,8 +3731,11 @@
       <c r="HL5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HM5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4386,8 +4401,11 @@
       <c r="HL6" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HM6" t="n">
+      <c r="HM6" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5053,8 +5071,11 @@
       <c r="HL7" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HM7" t="n">
+      <c r="HM7" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5720,8 +5741,11 @@
       <c r="HL8" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="HM8" t="n">
+      <c r="HM8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>-54</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6387,7 +6411,10 @@
       <c r="HL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM9" t="n">
+      <c r="HM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7054,8 +7081,11 @@
       <c r="HL10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HM10" t="n">
+      <c r="HM10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7721,8 +7751,11 @@
       <c r="HL11" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="HM11" t="n">
+      <c r="HM11" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8388,8 +8421,11 @@
       <c r="HL12" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="HM12" t="n">
+      <c r="HM12" s="1" t="n">
         <v>176</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9055,8 +9091,11 @@
       <c r="HL13" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="HM13" t="n">
+      <c r="HM13" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9722,8 +9761,11 @@
       <c r="HL14" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="HM14" t="n">
+      <c r="HM14" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10389,8 +10431,11 @@
       <c r="HL15" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="HM15" t="n">
+      <c r="HM15" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11056,8 +11101,11 @@
       <c r="HL16" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HM16" t="n">
+      <c r="HM16" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11723,8 +11771,11 @@
       <c r="HL17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM17" t="n">
+      <c r="HM17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12390,8 +12441,11 @@
       <c r="HL18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HM18" t="n">
+      <c r="HM18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13057,8 +13111,11 @@
       <c r="HL19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HM19" t="n">
+      <c r="HM19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13724,8 +13781,11 @@
       <c r="HL20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM20" t="n">
+      <c r="HM20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14391,8 +14451,11 @@
       <c r="HL21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM21" t="n">
+      <c r="HM21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15058,8 +15121,11 @@
       <c r="HL22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HM22" t="n">
+      <c r="HM22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15725,8 +15791,11 @@
       <c r="HL23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM23" t="n">
+      <c r="HM23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16392,8 +16461,11 @@
       <c r="HL24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HM24" t="n">
+      <c r="HM24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17059,8 +17131,11 @@
       <c r="HL25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HM25" t="n">
+      <c r="HM25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17726,8 +17801,11 @@
       <c r="HL26" s="1" t="n">
         <v>45.86</v>
       </c>
-      <c r="HM26" t="n">
+      <c r="HM26" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18393,8 +18471,11 @@
       <c r="HL27" s="1" t="n">
         <v>22.93</v>
       </c>
-      <c r="HM27" t="n">
+      <c r="HM27" s="1" t="n">
         <v>14.5</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19060,8 +19141,11 @@
       <c r="HL28" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HM28" t="n">
+      <c r="HM28" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19727,8 +19811,11 @@
       <c r="HL29" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HM29" t="n">
+      <c r="HM29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20394,8 +20481,11 @@
       <c r="HL30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HM30" t="n">
+      <c r="HM30" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21061,8 +21151,11 @@
       <c r="HL31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HM31" t="n">
+      <c r="HM31" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21728,8 +21821,11 @@
       <c r="HL32" s="1" t="n">
         <v>3.14</v>
       </c>
-      <c r="HM32" t="n">
+      <c r="HM32" s="1" t="n">
         <v>2.46</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22395,8 +22491,11 @@
       <c r="HL33" s="1" t="n">
         <v>6.29</v>
       </c>
-      <c r="HM33" t="n">
+      <c r="HM33" s="1" t="n">
         <v>4.92</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23062,8 +23161,11 @@
       <c r="HL34" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="HM34" t="n">
+      <c r="HM34" s="1" t="n">
         <v>37.5</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23729,8 +23831,11 @@
       <c r="HL35" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="HM35" t="n">
+      <c r="HM35" s="1" t="n">
         <v>20.3</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24396,8 +24501,11 @@
       <c r="HL36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="HM36" t="n">
+      <c r="HM36" s="1" t="n">
         <v>186.5</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25063,8 +25171,11 @@
       <c r="HL37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="HM37" t="n">
+      <c r="HM37" s="1" t="n">
         <v>84.09999999999999</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25730,7 +25841,10 @@
       <c r="HL38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="HM38" t="n">
+      <c r="HM38" s="1" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="HN38" t="n">
         <v>24.33</v>
       </c>
     </row>
@@ -26397,8 +26511,11 @@
       <c r="HL39" s="1" t="n">
         <v>79.3</v>
       </c>
-      <c r="HM39" t="n">
+      <c r="HM39" s="1" t="n">
         <v>68.7</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27064,7 +27181,10 @@
       <c r="HL40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM40" t="n">
+      <c r="HM40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN40" t="n">
         <v>12</v>
       </c>
     </row>
@@ -27731,8 +27851,11 @@
       <c r="HL41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM41" t="n">
+      <c r="HM41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28398,7 +28521,10 @@
       <c r="HL42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM42" t="n">
+      <c r="HM42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -29065,8 +29191,11 @@
       <c r="HL43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM43" t="n">
+      <c r="HM43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29732,8 +29861,11 @@
       <c r="HL44" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="HM44" t="n">
+      <c r="HM44" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30399,8 +30531,11 @@
       <c r="HL45" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="HM45" t="n">
+      <c r="HM45" s="1" t="n">
         <v>236</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31066,8 +31201,11 @@
       <c r="HL46" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="HM46" t="n">
+      <c r="HM46" s="1" t="n">
         <v>279</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31733,8 +31871,11 @@
       <c r="HL47" s="1" t="n">
         <v>82.2</v>
       </c>
-      <c r="HM47" t="n">
+      <c r="HM47" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32400,8 +32541,11 @@
       <c r="HL48" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HM48" t="n">
+      <c r="HM48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33067,8 +33211,11 @@
       <c r="HL49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HM49" t="n">
+      <c r="HM49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -33734,8 +33881,11 @@
       <c r="HL50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM50" t="n">
+      <c r="HM50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34401,8 +34551,11 @@
       <c r="HL51" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HM51" t="n">
+      <c r="HM51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35068,8 +35221,11 @@
       <c r="HL52" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HM52" t="n">
+      <c r="HM52" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -35735,8 +35891,11 @@
       <c r="HL53" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HM53" t="n">
+      <c r="HM53" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36402,8 +36561,11 @@
       <c r="HL54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM54" t="n">
+      <c r="HM54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37069,8 +37231,11 @@
       <c r="HL55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM55" t="n">
+      <c r="HM55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -37736,8 +37901,11 @@
       <c r="HL56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="HM56" t="n">
+      <c r="HM56" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38403,8 +38571,11 @@
       <c r="HL57" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="HM57" t="n">
+      <c r="HM57" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39070,8 +39241,11 @@
       <c r="HL58" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="HM58" t="n">
+      <c r="HM58" s="1" t="n">
         <v>195</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39737,8 +39911,11 @@
       <c r="HL59" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="HM59" t="n">
+      <c r="HM59" s="1" t="n">
         <v>402</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40404,8 +40581,11 @@
       <c r="HL60" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="HM60" t="n">
+      <c r="HM60" s="1" t="n">
         <v>1.06</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41071,8 +41251,11 @@
       <c r="HL61" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="HM61" t="n">
+      <c r="HM61" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41738,8 +41921,11 @@
       <c r="HL62" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HM62" t="n">
+      <c r="HM62" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42405,8 +42591,11 @@
       <c r="HL63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HM63" t="n">
+      <c r="HM63" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43072,8 +43261,11 @@
       <c r="HL64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HM64" t="n">
+      <c r="HM64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43739,8 +43931,11 @@
       <c r="HL65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HM65" t="n">
+      <c r="HM65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44406,8 +44601,11 @@
       <c r="HL66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM66" t="n">
+      <c r="HM66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45073,8 +45271,11 @@
       <c r="HL67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM67" t="n">
+      <c r="HM67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -45740,8 +45941,11 @@
       <c r="HL68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM68" t="n">
+      <c r="HM68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46407,7 +46611,10 @@
       <c r="HL69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM69" t="n">
+      <c r="HM69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -47074,8 +47281,11 @@
       <c r="HL70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM70" t="n">
+      <c r="HM70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47741,8 +47951,11 @@
       <c r="HL71" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HM71" t="n">
+      <c r="HM71" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>62.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48408,8 +48621,11 @@
       <c r="HL72" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HM72" t="n">
+      <c r="HM72" s="1" t="n">
         <v>28.71</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>24.06</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49075,8 +49291,11 @@
       <c r="HL73" s="1" t="n">
         <v>17.22</v>
       </c>
-      <c r="HM73" t="n">
+      <c r="HM73" s="1" t="n">
         <v>18.27</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>14.93</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49742,8 +49961,11 @@
       <c r="HL74" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HM74" t="n">
+      <c r="HM74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50409,8 +50631,11 @@
       <c r="HL75" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HM75" t="n">
+      <c r="HM75" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51076,8 +51301,11 @@
       <c r="HL76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HM76" t="n">
+      <c r="HM76" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -51743,8 +51971,11 @@
       <c r="HL77" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HM77" t="n">
+      <c r="HM77" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52410,8 +52641,11 @@
       <c r="HL78" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="HM78" t="n">
+      <c r="HM78" s="1" t="n">
         <v>2.41</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53077,8 +53311,11 @@
       <c r="HL79" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="HM79" t="n">
+      <c r="HM79" s="1" t="n">
         <v>3.79</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53744,8 +53981,11 @@
       <c r="HL80" s="1" t="n">
         <v>43.6</v>
       </c>
-      <c r="HM80" t="n">
+      <c r="HM80" s="1" t="n">
         <v>37.7</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54411,8 +54651,11 @@
       <c r="HL81" s="1" t="n">
         <v>25.6</v>
       </c>
-      <c r="HM81" t="n">
+      <c r="HM81" s="1" t="n">
         <v>26.4</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55078,8 +55321,11 @@
       <c r="HL82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="HM82" t="n">
+      <c r="HM82" s="1" t="n">
         <v>186.9</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55745,8 +55991,11 @@
       <c r="HL83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HM83" t="n">
+      <c r="HM83" s="1" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56412,7 +56661,10 @@
       <c r="HL84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="HM84" t="n">
+      <c r="HM84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HN84" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -57079,8 +57331,11 @@
       <c r="HL85" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="HM85" t="n">
+      <c r="HM85" s="1" t="n">
         <v>99.40000000000001</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>100.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -57746,8 +58001,11 @@
       <c r="HL86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM86" t="n">
+      <c r="HM86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58413,7 +58671,10 @@
       <c r="HL87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM87" t="n">
+      <c r="HM87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -59080,8 +59341,11 @@
       <c r="HL88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM88" t="n">
+      <c r="HM88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -59747,8 +60011,11 @@
       <c r="HL89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM89" t="n">
+      <c r="HM89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60414,8 +60681,11 @@
       <c r="HL90" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="HM90" t="n">
+      <c r="HM90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61081,8 +61351,11 @@
       <c r="HL91" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="HM91" t="n">
+      <c r="HM91" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -61748,8 +62021,11 @@
       <c r="HL92" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="HM92" t="n">
+      <c r="HM92" s="1" t="n">
         <v>303</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62415,8 +62691,11 @@
       <c r="HL93" s="1" t="n">
         <v>77.7</v>
       </c>
-      <c r="HM93" t="n">
+      <c r="HM93" s="1" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63082,8 +63361,11 @@
       <c r="HL94" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HM94" t="n">
+      <c r="HM94" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -63749,8 +64031,11 @@
       <c r="HL95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM95" t="n">
+      <c r="HM95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64416,8 +64701,11 @@
       <c r="HL96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HM96" t="n">
+      <c r="HM96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65083,8 +65371,11 @@
       <c r="HL97" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HM97" t="n">
+      <c r="HM97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -65750,8 +66041,11 @@
       <c r="HL98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HM98" t="n">
+      <c r="HM98" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -66417,8 +66711,11 @@
       <c r="HL99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HM99" t="n">
+      <c r="HM99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67084,8 +67381,11 @@
       <c r="HL100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM100" t="n">
+      <c r="HM100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -67751,8 +68051,11 @@
       <c r="HL101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM101" t="n">
+      <c r="HM101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -68418,8 +68721,11 @@
       <c r="HL102" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="HM102" t="n">
+      <c r="HM102" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1054,8 +1054,11 @@
       <c r="HM1" s="1" t="n">
         <v>10331</v>
       </c>
-      <c r="HN1" t="n">
+      <c r="HN1" s="1" t="n">
         <v>10339</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10349</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1724,7 +1727,10 @@
       <c r="HM2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HN2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HO2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2394,8 +2400,11 @@
       <c r="HM3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HN3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3064,8 +3073,11 @@
       <c r="HM4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HN4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3734,7 +3746,10 @@
       <c r="HM5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HN5" t="n">
+      <c r="HN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4404,8 +4419,11 @@
       <c r="HM6" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HN6" t="n">
+      <c r="HN6" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5074,8 +5092,11 @@
       <c r="HM7" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="HN7" t="n">
+      <c r="HN7" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5744,8 +5765,11 @@
       <c r="HM8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="HN8" t="n">
+      <c r="HN8" s="1" t="n">
         <v>-54</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6414,8 +6438,11 @@
       <c r="HM9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HN9" t="n">
+      <c r="HN9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7084,8 +7111,11 @@
       <c r="HM10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN10" t="n">
+      <c r="HN10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7754,8 +7784,11 @@
       <c r="HM11" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="HN11" t="n">
+      <c r="HN11" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8424,8 +8457,11 @@
       <c r="HM12" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="HN12" t="n">
+      <c r="HN12" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9094,8 +9130,11 @@
       <c r="HM13" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="HN13" t="n">
+      <c r="HN13" s="1" t="n">
         <v>342</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>443</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9764,8 +9803,11 @@
       <c r="HM14" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="HN14" t="n">
+      <c r="HN14" s="1" t="n">
         <v>1.38</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10434,8 +10476,11 @@
       <c r="HM15" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HN15" t="n">
+      <c r="HN15" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11104,8 +11149,11 @@
       <c r="HM16" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HN16" t="n">
+      <c r="HN16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11774,8 +11822,11 @@
       <c r="HM17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HN17" t="n">
+      <c r="HN17" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12444,8 +12495,11 @@
       <c r="HM18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HN18" t="n">
+      <c r="HN18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13114,8 +13168,11 @@
       <c r="HM19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HN19" t="n">
+      <c r="HN19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13784,8 +13841,11 @@
       <c r="HM20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HN20" t="n">
+      <c r="HN20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14454,8 +14514,11 @@
       <c r="HM21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN21" t="n">
+      <c r="HN21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15124,8 +15187,11 @@
       <c r="HM22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HN22" t="n">
+      <c r="HN22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15794,8 +15860,11 @@
       <c r="HM23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HN23" t="n">
+      <c r="HN23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16464,8 +16533,11 @@
       <c r="HM24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HN24" t="n">
+      <c r="HN24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17134,8 +17206,11 @@
       <c r="HM25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HN25" t="n">
+      <c r="HN25" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17804,8 +17879,11 @@
       <c r="HM26" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HN26" t="n">
+      <c r="HN26" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>20.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18474,8 +18552,11 @@
       <c r="HM27" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="HN27" t="n">
+      <c r="HN27" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>13.42</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19144,8 +19225,11 @@
       <c r="HM28" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HN28" t="n">
+      <c r="HN28" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19814,8 +19898,11 @@
       <c r="HM29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HN29" t="n">
+      <c r="HN29" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20484,7 +20571,10 @@
       <c r="HM30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HN30" t="n">
+      <c r="HN30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO30" t="n">
         <v>44</v>
       </c>
     </row>
@@ -21154,8 +21244,11 @@
       <c r="HM31" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HN31" t="n">
+      <c r="HN31" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21824,8 +21917,11 @@
       <c r="HM32" s="1" t="n">
         <v>2.46</v>
       </c>
-      <c r="HN32" t="n">
+      <c r="HN32" s="1" t="n">
         <v>1.95</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22494,8 +22590,11 @@
       <c r="HM33" s="1" t="n">
         <v>4.92</v>
       </c>
-      <c r="HN33" t="n">
+      <c r="HN33" s="1" t="n">
         <v>4.33</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23164,8 +23263,11 @@
       <c r="HM34" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="HN34" t="n">
+      <c r="HN34" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23834,8 +23936,11 @@
       <c r="HM35" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="HN35" t="n">
+      <c r="HN35" s="1" t="n">
         <v>23.1</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24504,7 +24609,10 @@
       <c r="HM36" s="1" t="n">
         <v>186.5</v>
       </c>
-      <c r="HN36" t="n">
+      <c r="HN36" s="1" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="HO36" t="n">
         <v>186.9</v>
       </c>
     </row>
@@ -25174,8 +25282,11 @@
       <c r="HM37" s="1" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="HN37" t="n">
+      <c r="HN37" s="1" t="n">
         <v>84.5</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25844,8 +25955,11 @@
       <c r="HM38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="HN38" t="n">
+      <c r="HN38" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26514,8 +26628,11 @@
       <c r="HM39" s="1" t="n">
         <v>68.7</v>
       </c>
-      <c r="HN39" t="n">
+      <c r="HN39" s="1" t="n">
         <v>66.40000000000001</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27184,8 +27301,11 @@
       <c r="HM40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HN40" t="n">
+      <c r="HN40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -27854,8 +27974,11 @@
       <c r="HM41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HN41" t="n">
+      <c r="HN41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28524,8 +28647,11 @@
       <c r="HM42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HN42" t="n">
+      <c r="HN42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29194,8 +29320,11 @@
       <c r="HM43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HN43" t="n">
+      <c r="HN43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29864,8 +29993,11 @@
       <c r="HM44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="HN44" t="n">
+      <c r="HN44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30534,8 +30666,11 @@
       <c r="HM45" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="HN45" t="n">
+      <c r="HN45" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31204,8 +31339,11 @@
       <c r="HM46" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="HN46" t="n">
+      <c r="HN46" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31874,8 +32012,11 @@
       <c r="HM47" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HN47" t="n">
+      <c r="HN47" s="1" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>80.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32544,8 +32685,11 @@
       <c r="HM48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HN48" t="n">
+      <c r="HN48" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33214,7 +33358,10 @@
       <c r="HM49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HN49" t="n">
+      <c r="HN49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO49" t="n">
         <v>9</v>
       </c>
     </row>
@@ -33884,8 +34031,11 @@
       <c r="HM50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HN50" t="n">
+      <c r="HN50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34554,8 +34704,11 @@
       <c r="HM51" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HN51" t="n">
+      <c r="HN51" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35224,7 +35377,10 @@
       <c r="HM52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HN52" t="n">
+      <c r="HN52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO52" t="n">
         <v>44</v>
       </c>
     </row>
@@ -35894,8 +36050,11 @@
       <c r="HM53" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HN53" t="n">
+      <c r="HN53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36564,7 +36723,10 @@
       <c r="HM54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HN54" t="n">
+      <c r="HN54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37234,8 +37396,11 @@
       <c r="HM55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN55" t="n">
+      <c r="HN55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -37904,8 +38069,11 @@
       <c r="HM56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="HN56" t="n">
+      <c r="HN56" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38574,8 +38742,11 @@
       <c r="HM57" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="HN57" t="n">
+      <c r="HN57" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39244,8 +39415,11 @@
       <c r="HM58" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="HN58" t="n">
+      <c r="HN58" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39914,8 +40088,11 @@
       <c r="HM59" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="HN59" t="n">
+      <c r="HN59" s="1" t="n">
         <v>433</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40584,8 +40761,11 @@
       <c r="HM60" s="1" t="n">
         <v>1.06</v>
       </c>
-      <c r="HN60" t="n">
+      <c r="HN60" s="1" t="n">
         <v>1.27</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41254,8 +41434,11 @@
       <c r="HM61" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="HN61" t="n">
+      <c r="HN61" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41924,8 +42107,11 @@
       <c r="HM62" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HN62" t="n">
+      <c r="HN62" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42594,8 +42780,11 @@
       <c r="HM63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HN63" t="n">
+      <c r="HN63" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43264,8 +43453,11 @@
       <c r="HM64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HN64" t="n">
+      <c r="HN64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43934,8 +44126,11 @@
       <c r="HM65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HN65" t="n">
+      <c r="HN65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44604,8 +44799,11 @@
       <c r="HM66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HN66" t="n">
+      <c r="HN66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45274,8 +45472,11 @@
       <c r="HM67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HN67" t="n">
+      <c r="HN67" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -45944,8 +46145,11 @@
       <c r="HM68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HN68" t="n">
+      <c r="HN68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46614,8 +46818,11 @@
       <c r="HM69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HN69" t="n">
+      <c r="HN69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47284,8 +47491,11 @@
       <c r="HM70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HN70" t="n">
+      <c r="HN70" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47954,8 +48164,11 @@
       <c r="HM71" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="HN71" t="n">
+      <c r="HN71" s="1" t="n">
         <v>62.1</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48624,8 +48837,11 @@
       <c r="HM72" s="1" t="n">
         <v>28.71</v>
       </c>
-      <c r="HN72" t="n">
+      <c r="HN72" s="1" t="n">
         <v>24.06</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>36.22</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49294,8 +49510,11 @@
       <c r="HM73" s="1" t="n">
         <v>18.27</v>
       </c>
-      <c r="HN73" t="n">
+      <c r="HN73" s="1" t="n">
         <v>14.93</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>14.17</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49964,8 +50183,11 @@
       <c r="HM74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HN74" t="n">
+      <c r="HN74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50634,8 +50856,11 @@
       <c r="HM75" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HN75" t="n">
+      <c r="HN75" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51304,8 +51529,11 @@
       <c r="HM76" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HN76" t="n">
+      <c r="HN76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -51974,8 +52202,11 @@
       <c r="HM77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HN77" t="n">
+      <c r="HN77" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52644,8 +52875,11 @@
       <c r="HM78" s="1" t="n">
         <v>2.41</v>
       </c>
-      <c r="HN78" t="n">
+      <c r="HN78" s="1" t="n">
         <v>2.14</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53314,8 +53548,11 @@
       <c r="HM79" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="HN79" t="n">
+      <c r="HN79" s="1" t="n">
         <v>3.44</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53984,8 +54221,11 @@
       <c r="HM80" s="1" t="n">
         <v>37.7</v>
       </c>
-      <c r="HN80" t="n">
+      <c r="HN80" s="1" t="n">
         <v>43.5</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54654,8 +54894,11 @@
       <c r="HM81" s="1" t="n">
         <v>26.4</v>
       </c>
-      <c r="HN81" t="n">
+      <c r="HN81" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55324,8 +55567,11 @@
       <c r="HM82" s="1" t="n">
         <v>186.9</v>
       </c>
-      <c r="HN82" t="n">
+      <c r="HN82" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55994,8 +56240,11 @@
       <c r="HM83" s="1" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="HN83" t="n">
+      <c r="HN83" s="1" t="n">
         <v>83.40000000000001</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56664,8 +56913,11 @@
       <c r="HM84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HN84" t="n">
+      <c r="HN84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57334,8 +57586,11 @@
       <c r="HM85" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="HN85" t="n">
+      <c r="HN85" s="1" t="n">
         <v>100.3</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58004,8 +58259,11 @@
       <c r="HM86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HN86" t="n">
+      <c r="HN86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58674,8 +58932,11 @@
       <c r="HM87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HN87" t="n">
+      <c r="HN87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59344,8 +59605,11 @@
       <c r="HM88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HN88" t="n">
+      <c r="HN88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60014,8 +60278,11 @@
       <c r="HM89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HN89" t="n">
+      <c r="HN89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60684,8 +60951,11 @@
       <c r="HM90" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HN90" t="n">
+      <c r="HN90" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61354,8 +61624,11 @@
       <c r="HM91" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="HN91" t="n">
+      <c r="HN91" s="1" t="n">
         <v>277</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62024,8 +62297,11 @@
       <c r="HM92" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="HN92" t="n">
+      <c r="HN92" s="1" t="n">
         <v>328</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62694,8 +62970,11 @@
       <c r="HM93" s="1" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="HN93" t="n">
+      <c r="HN93" s="1" t="n">
         <v>75.8</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63364,8 +63643,11 @@
       <c r="HM94" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HN94" t="n">
+      <c r="HN94" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64034,8 +64316,11 @@
       <c r="HM95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HN95" t="n">
+      <c r="HN95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64704,8 +64989,11 @@
       <c r="HM96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HN96" t="n">
+      <c r="HN96" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65374,8 +65662,11 @@
       <c r="HM97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HN97" t="n">
+      <c r="HN97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66044,8 +66335,11 @@
       <c r="HM98" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HN98" t="n">
+      <c r="HN98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -66714,8 +67008,11 @@
       <c r="HM99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HN99" t="n">
+      <c r="HN99" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67384,8 +67681,11 @@
       <c r="HM100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HN100" t="n">
+      <c r="HN100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68054,8 +68354,11 @@
       <c r="HM101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HN101" t="n">
+      <c r="HN101" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -68724,7 +69027,10 @@
       <c r="HM102" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="HN102" t="n">
+      <c r="HN102" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HO102" t="n">
         <v>77.8</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1057,8 +1057,11 @@
       <c r="HN1" s="1" t="n">
         <v>10339</v>
       </c>
-      <c r="HO1" t="n">
+      <c r="HO1" s="1" t="n">
         <v>10349</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10354</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1730,7 +1733,10 @@
       <c r="HN2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HO2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HP2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2403,8 +2409,11 @@
       <c r="HN3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HO3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3076,8 +3085,11 @@
       <c r="HN4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HO4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3749,7 +3761,10 @@
       <c r="HN5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HO5" t="n">
+      <c r="HO5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4422,8 +4437,11 @@
       <c r="HN6" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HO6" t="n">
+      <c r="HO6" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5095,8 +5113,11 @@
       <c r="HN7" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HO7" t="n">
+      <c r="HO7" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5768,8 +5789,11 @@
       <c r="HN8" s="1" t="n">
         <v>-54</v>
       </c>
-      <c r="HO8" t="n">
+      <c r="HO8" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6441,8 +6465,11 @@
       <c r="HN9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HO9" t="n">
+      <c r="HO9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7114,8 +7141,11 @@
       <c r="HN10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO10" t="n">
+      <c r="HO10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7787,8 +7817,11 @@
       <c r="HN11" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="HO11" t="n">
+      <c r="HO11" s="1" t="n">
         <v>255</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8460,8 +8493,11 @@
       <c r="HN12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="HO12" t="n">
+      <c r="HO12" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9133,8 +9169,11 @@
       <c r="HN13" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="HO13" t="n">
+      <c r="HO13" s="1" t="n">
         <v>443</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9806,8 +9845,11 @@
       <c r="HN14" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="HO14" t="n">
+      <c r="HO14" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10479,8 +10521,11 @@
       <c r="HN15" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HO15" t="n">
+      <c r="HO15" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11152,8 +11197,11 @@
       <c r="HN16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HO16" t="n">
+      <c r="HO16" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11825,8 +11873,11 @@
       <c r="HN17" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HO17" t="n">
+      <c r="HO17" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12498,8 +12549,11 @@
       <c r="HN18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO18" t="n">
+      <c r="HO18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13171,8 +13225,11 @@
       <c r="HN19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HO19" t="n">
+      <c r="HO19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13844,8 +13901,11 @@
       <c r="HN20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HO20" t="n">
+      <c r="HO20" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14517,8 +14577,11 @@
       <c r="HN21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO21" t="n">
+      <c r="HO21" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15190,8 +15253,11 @@
       <c r="HN22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO22" t="n">
+      <c r="HO22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15863,8 +15929,11 @@
       <c r="HN23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO23" t="n">
+      <c r="HO23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16536,8 +16605,11 @@
       <c r="HN24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO24" t="n">
+      <c r="HO24" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17209,8 +17281,11 @@
       <c r="HN25" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HO25" t="n">
+      <c r="HO25" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17882,8 +17957,11 @@
       <c r="HN26" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HO26" t="n">
+      <c r="HO26" s="1" t="n">
         <v>20.14</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18555,8 +18633,11 @@
       <c r="HN27" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="HO27" t="n">
+      <c r="HO27" s="1" t="n">
         <v>13.42</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19228,8 +19309,11 @@
       <c r="HN28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HO28" t="n">
+      <c r="HO28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19901,8 +19985,11 @@
       <c r="HN29" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HO29" t="n">
+      <c r="HO29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20574,8 +20661,11 @@
       <c r="HN30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HO30" t="n">
+      <c r="HO30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21247,8 +21337,11 @@
       <c r="HN31" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HO31" t="n">
+      <c r="HO31" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21920,8 +22013,11 @@
       <c r="HN32" s="1" t="n">
         <v>1.95</v>
       </c>
-      <c r="HO32" t="n">
+      <c r="HO32" s="1" t="n">
         <v>1.7</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22593,8 +22689,11 @@
       <c r="HN33" s="1" t="n">
         <v>4.33</v>
       </c>
-      <c r="HO33" t="n">
+      <c r="HO33" s="1" t="n">
         <v>2.55</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23266,8 +23365,11 @@
       <c r="HN34" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HO34" t="n">
+      <c r="HO34" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23939,8 +24041,11 @@
       <c r="HN35" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="HO35" t="n">
+      <c r="HO35" s="1" t="n">
         <v>39.3</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24612,8 +24717,11 @@
       <c r="HN36" s="1" t="n">
         <v>186.9</v>
       </c>
-      <c r="HO36" t="n">
+      <c r="HO36" s="1" t="n">
         <v>186.9</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25285,8 +25393,11 @@
       <c r="HN37" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="HO37" t="n">
+      <c r="HO37" s="1" t="n">
         <v>84.8</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25958,8 +26069,11 @@
       <c r="HN38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="HO38" t="n">
+      <c r="HO38" s="1" t="n">
         <v>24.24</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26631,8 +26745,11 @@
       <c r="HN39" s="1" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="HO39" t="n">
+      <c r="HO39" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27304,8 +27421,11 @@
       <c r="HN40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HO40" t="n">
+      <c r="HO40" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -27977,7 +28097,10 @@
       <c r="HN41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HO41" t="n">
+      <c r="HO41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -28650,7 +28773,10 @@
       <c r="HN42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO42" t="n">
+      <c r="HO42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29323,8 +29449,11 @@
       <c r="HN43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HO43" t="n">
+      <c r="HO43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29996,8 +30125,11 @@
       <c r="HN44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="HO44" t="n">
+      <c r="HO44" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30669,8 +30801,11 @@
       <c r="HN45" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="HO45" t="n">
+      <c r="HO45" s="1" t="n">
         <v>308</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31342,8 +31477,11 @@
       <c r="HN46" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="HO46" t="n">
+      <c r="HO46" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32015,8 +32153,11 @@
       <c r="HN47" s="1" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="HO47" t="n">
+      <c r="HO47" s="1" t="n">
         <v>80.8</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32688,8 +32829,11 @@
       <c r="HN48" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HO48" t="n">
+      <c r="HO48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33361,8 +33505,11 @@
       <c r="HN49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HO49" t="n">
+      <c r="HO49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34034,8 +34181,11 @@
       <c r="HN50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HO50" t="n">
+      <c r="HO50" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34707,8 +34857,11 @@
       <c r="HN51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HO51" t="n">
+      <c r="HO51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35380,8 +35533,11 @@
       <c r="HN52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HO52" t="n">
+      <c r="HO52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36053,8 +36209,11 @@
       <c r="HN53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HO53" t="n">
+      <c r="HO53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36726,8 +36885,11 @@
       <c r="HN54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HO54" t="n">
+      <c r="HO54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37399,8 +37561,11 @@
       <c r="HN55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO55" t="n">
+      <c r="HO55" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38072,8 +38237,11 @@
       <c r="HN56" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="HO56" t="n">
+      <c r="HO56" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38745,8 +38913,11 @@
       <c r="HN57" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HO57" t="n">
+      <c r="HO57" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39418,8 +39589,11 @@
       <c r="HN58" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="HO58" t="n">
+      <c r="HO58" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40091,8 +40265,11 @@
       <c r="HN59" s="1" t="n">
         <v>433</v>
       </c>
-      <c r="HO59" t="n">
+      <c r="HO59" s="1" t="n">
         <v>326</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40764,8 +40941,11 @@
       <c r="HN60" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="HO60" t="n">
+      <c r="HO60" s="1" t="n">
         <v>1.43</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41437,8 +41617,11 @@
       <c r="HN61" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HO61" t="n">
+      <c r="HO61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42110,8 +42293,11 @@
       <c r="HN62" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HO62" t="n">
+      <c r="HO62" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42783,8 +42969,11 @@
       <c r="HN63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HO63" t="n">
+      <c r="HO63" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43456,8 +43645,11 @@
       <c r="HN64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HO64" t="n">
+      <c r="HO64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44129,8 +44321,11 @@
       <c r="HN65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO65" t="n">
+      <c r="HO65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44802,8 +44997,11 @@
       <c r="HN66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HO66" t="n">
+      <c r="HO66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45475,8 +45673,11 @@
       <c r="HN67" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HO67" t="n">
+      <c r="HO67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46148,8 +46349,11 @@
       <c r="HN68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HO68" t="n">
+      <c r="HO68" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46821,7 +47025,10 @@
       <c r="HN69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO69" t="n">
+      <c r="HO69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47494,8 +47701,11 @@
       <c r="HN70" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HO70" t="n">
+      <c r="HO70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48167,8 +48377,11 @@
       <c r="HN71" s="1" t="n">
         <v>62.1</v>
       </c>
-      <c r="HO71" t="n">
+      <c r="HO71" s="1" t="n">
         <v>39.1</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48840,8 +49053,11 @@
       <c r="HN72" s="1" t="n">
         <v>24.06</v>
       </c>
-      <c r="HO72" t="n">
+      <c r="HO72" s="1" t="n">
         <v>36.22</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>33.27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49513,8 +49729,11 @@
       <c r="HN73" s="1" t="n">
         <v>14.93</v>
       </c>
-      <c r="HO73" t="n">
+      <c r="HO73" s="1" t="n">
         <v>14.17</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>13.07</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50186,8 +50405,11 @@
       <c r="HN74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HO74" t="n">
+      <c r="HO74" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50859,8 +51081,11 @@
       <c r="HN75" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HO75" t="n">
+      <c r="HO75" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51532,8 +51757,11 @@
       <c r="HN76" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HO76" t="n">
+      <c r="HO76" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52205,8 +52433,11 @@
       <c r="HN77" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HO77" t="n">
+      <c r="HO77" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52878,8 +53109,11 @@
       <c r="HN78" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="HO78" t="n">
+      <c r="HO78" s="1" t="n">
         <v>2.3</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53551,8 +53785,11 @@
       <c r="HN79" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="HO79" t="n">
+      <c r="HO79" s="1" t="n">
         <v>5.89</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54224,8 +54461,11 @@
       <c r="HN80" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="HO80" t="n">
+      <c r="HO80" s="1" t="n">
         <v>41.5</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>48.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54897,8 +55137,11 @@
       <c r="HN81" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HO81" t="n">
+      <c r="HO81" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55570,8 +55813,11 @@
       <c r="HN82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="HO82" t="n">
+      <c r="HO82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -56243,8 +56489,11 @@
       <c r="HN83" s="1" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="HO83" t="n">
+      <c r="HO83" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56916,8 +57165,11 @@
       <c r="HN84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HO84" t="n">
+      <c r="HO84" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57589,8 +57841,11 @@
       <c r="HN85" s="1" t="n">
         <v>100.3</v>
       </c>
-      <c r="HO85" t="n">
+      <c r="HO85" s="1" t="n">
         <v>83.2</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58262,8 +58517,11 @@
       <c r="HN86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO86" t="n">
+      <c r="HO86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58935,8 +59193,11 @@
       <c r="HN87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HO87" t="n">
+      <c r="HO87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59608,8 +59869,11 @@
       <c r="HN88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HO88" t="n">
+      <c r="HO88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60281,8 +60545,11 @@
       <c r="HN89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO89" t="n">
+      <c r="HO89" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60954,8 +61221,11 @@
       <c r="HN90" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="HO90" t="n">
+      <c r="HO90" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61627,8 +61897,11 @@
       <c r="HN91" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="HO91" t="n">
+      <c r="HO91" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62300,8 +62573,11 @@
       <c r="HN92" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="HO92" t="n">
+      <c r="HO92" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62973,8 +63249,11 @@
       <c r="HN93" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="HO93" t="n">
+      <c r="HO93" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63646,8 +63925,11 @@
       <c r="HN94" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HO94" t="n">
+      <c r="HO94" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64319,8 +64601,11 @@
       <c r="HN95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HO95" t="n">
+      <c r="HO95" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64992,8 +65277,11 @@
       <c r="HN96" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HO96" t="n">
+      <c r="HO96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65665,8 +65953,11 @@
       <c r="HN97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HO97" t="n">
+      <c r="HO97" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66338,8 +66629,11 @@
       <c r="HN98" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HO98" t="n">
+      <c r="HO98" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67011,8 +67305,11 @@
       <c r="HN99" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HO99" t="n">
+      <c r="HO99" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67684,8 +67981,11 @@
       <c r="HN100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HO100" t="n">
+      <c r="HO100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68357,8 +68657,11 @@
       <c r="HN101" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HO101" t="n">
+      <c r="HO101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -69030,8 +69333,11 @@
       <c r="HN102" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="HO102" t="n">
+      <c r="HO102" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1060,8 +1060,11 @@
       <c r="HO1" s="1" t="n">
         <v>10349</v>
       </c>
-      <c r="HP1" t="n">
+      <c r="HP1" s="1" t="n">
         <v>10354</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>10368</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1736,7 +1739,10 @@
       <c r="HO2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HP2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HQ2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2412,8 +2418,11 @@
       <c r="HO3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HP3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3088,7 +3097,10 @@
       <c r="HO4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,7 +3776,10 @@
       <c r="HO5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4440,8 +4455,11 @@
       <c r="HO6" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="HP6" t="n">
+      <c r="HP6" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5116,8 +5134,11 @@
       <c r="HO7" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HP7" t="n">
+      <c r="HP7" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5792,8 +5813,11 @@
       <c r="HO8" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HP8" t="n">
+      <c r="HP8" s="1" t="n">
         <v>-3</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>-57</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6468,7 +6492,10 @@
       <c r="HO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP9" t="n">
+      <c r="HP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7144,8 +7171,11 @@
       <c r="HO10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HP10" t="n">
+      <c r="HP10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7820,8 +7850,11 @@
       <c r="HO11" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="HP11" t="n">
+      <c r="HP11" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8496,8 +8529,11 @@
       <c r="HO12" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HP12" t="n">
+      <c r="HP12" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9172,8 +9208,11 @@
       <c r="HO13" s="1" t="n">
         <v>443</v>
       </c>
-      <c r="HP13" t="n">
+      <c r="HP13" s="1" t="n">
         <v>336</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9848,8 +9887,11 @@
       <c r="HO14" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="HP14" t="n">
+      <c r="HP14" s="1" t="n">
         <v>1.29</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10524,8 +10566,11 @@
       <c r="HO15" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="HP15" t="n">
+      <c r="HP15" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11200,8 +11245,11 @@
       <c r="HO16" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HP16" t="n">
+      <c r="HP16" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11876,8 +11924,11 @@
       <c r="HO17" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HP17" t="n">
+      <c r="HP17" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12552,8 +12603,11 @@
       <c r="HO18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HP18" t="n">
+      <c r="HP18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13228,8 +13282,11 @@
       <c r="HO19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HP19" t="n">
+      <c r="HP19" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13904,8 +13961,11 @@
       <c r="HO20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HP20" t="n">
+      <c r="HP20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HQ20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14580,8 +14640,11 @@
       <c r="HO21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP21" t="n">
+      <c r="HP21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15256,8 +15319,11 @@
       <c r="HO22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP22" t="n">
+      <c r="HP22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15932,7 +15998,10 @@
       <c r="HO23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP23" t="n">
+      <c r="HP23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16608,8 +16677,11 @@
       <c r="HO24" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HP24" t="n">
+      <c r="HP24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17284,8 +17356,11 @@
       <c r="HO25" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HP25" t="n">
+      <c r="HP25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17960,8 +18035,11 @@
       <c r="HO26" s="1" t="n">
         <v>20.14</v>
       </c>
-      <c r="HP26" t="n">
+      <c r="HP26" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>59.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18636,8 +18714,11 @@
       <c r="HO27" s="1" t="n">
         <v>13.42</v>
       </c>
-      <c r="HP27" t="n">
+      <c r="HP27" s="1" t="n">
         <v>16.8</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>23.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19312,8 +19393,11 @@
       <c r="HO28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HP28" t="n">
+      <c r="HP28" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HQ28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19988,8 +20072,11 @@
       <c r="HO29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HP29" t="n">
+      <c r="HP29" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HQ29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20664,8 +20751,11 @@
       <c r="HO30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HP30" t="n">
+      <c r="HP30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21340,8 +21430,11 @@
       <c r="HO31" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HP31" t="n">
+      <c r="HP31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22016,8 +22109,11 @@
       <c r="HO32" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="HP32" t="n">
+      <c r="HP32" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22692,8 +22788,11 @@
       <c r="HO33" s="1" t="n">
         <v>2.55</v>
       </c>
-      <c r="HP33" t="n">
+      <c r="HP33" s="1" t="n">
         <v>4.42</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23368,8 +23467,11 @@
       <c r="HO34" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="HP34" t="n">
+      <c r="HP34" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24044,8 +24146,11 @@
       <c r="HO35" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="HP35" t="n">
+      <c r="HP35" s="1" t="n">
         <v>22.6</v>
+      </c>
+      <c r="HQ35" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24720,8 +24825,11 @@
       <c r="HO36" s="1" t="n">
         <v>186.9</v>
       </c>
-      <c r="HP36" t="n">
+      <c r="HP36" s="1" t="n">
         <v>186.7</v>
+      </c>
+      <c r="HQ36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25396,8 +25504,11 @@
       <c r="HO37" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="HP37" t="n">
+      <c r="HP37" s="1" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>84.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26072,8 +26183,11 @@
       <c r="HO38" s="1" t="n">
         <v>24.24</v>
       </c>
-      <c r="HP38" t="n">
+      <c r="HP38" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="HQ38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26748,8 +26862,11 @@
       <c r="HO39" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HP39" t="n">
+      <c r="HP39" s="1" t="n">
         <v>69.40000000000001</v>
+      </c>
+      <c r="HQ39" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27424,8 +27541,11 @@
       <c r="HO40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HP40" t="n">
+      <c r="HP40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ40" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28100,7 +28220,10 @@
       <c r="HO41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP41" t="n">
+      <c r="HP41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -28776,7 +28899,10 @@
       <c r="HO42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP42" t="n">
+      <c r="HP42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29452,7 +29578,10 @@
       <c r="HO43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP43" t="n">
+      <c r="HP43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30128,8 +30257,11 @@
       <c r="HO44" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="HP44" t="n">
+      <c r="HP44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30804,7 +30936,10 @@
       <c r="HO45" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="HP45" t="n">
+      <c r="HP45" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="HQ45" t="n">
         <v>188</v>
       </c>
     </row>
@@ -31480,8 +31615,11 @@
       <c r="HO46" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="HP46" t="n">
+      <c r="HP46" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="HQ46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32156,8 +32294,11 @@
       <c r="HO47" s="1" t="n">
         <v>80.8</v>
       </c>
-      <c r="HP47" t="n">
+      <c r="HP47" s="1" t="n">
         <v>71.7</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32832,8 +32973,11 @@
       <c r="HO48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HP48" t="n">
+      <c r="HP48" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HQ48" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33508,8 +33652,11 @@
       <c r="HO49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP49" t="n">
+      <c r="HP49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34184,8 +34331,11 @@
       <c r="HO50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HP50" t="n">
+      <c r="HP50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34860,8 +35010,11 @@
       <c r="HO51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HP51" t="n">
+      <c r="HP51" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HQ51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35536,8 +35689,11 @@
       <c r="HO52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HP52" t="n">
+      <c r="HP52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36212,8 +36368,11 @@
       <c r="HO53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HP53" t="n">
+      <c r="HP53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36888,8 +37047,11 @@
       <c r="HO54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP54" t="n">
+      <c r="HP54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HQ54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37564,8 +37726,11 @@
       <c r="HO55" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP55" t="n">
+      <c r="HP55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38240,8 +38405,11 @@
       <c r="HO56" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HP56" t="n">
+      <c r="HP56" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="HQ56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38916,8 +39084,11 @@
       <c r="HO57" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="HP57" t="n">
+      <c r="HP57" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="HQ57" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39592,8 +39763,11 @@
       <c r="HO58" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HP58" t="n">
+      <c r="HP58" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40268,8 +40442,11 @@
       <c r="HO59" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="HP59" t="n">
+      <c r="HP59" s="1" t="n">
         <v>366</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40944,8 +41121,11 @@
       <c r="HO60" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="HP60" t="n">
+      <c r="HP60" s="1" t="n">
         <v>1.69</v>
+      </c>
+      <c r="HQ60" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41620,8 +41800,11 @@
       <c r="HO61" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="HP61" t="n">
+      <c r="HP61" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="HQ61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42296,8 +42479,11 @@
       <c r="HO62" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HP62" t="n">
+      <c r="HP62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42972,8 +43158,11 @@
       <c r="HO63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HP63" t="n">
+      <c r="HP63" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43648,8 +43837,11 @@
       <c r="HO64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HP64" t="n">
+      <c r="HP64" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44324,8 +44516,11 @@
       <c r="HO65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HP65" t="n">
+      <c r="HP65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45000,8 +45195,11 @@
       <c r="HO66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP66" t="n">
+      <c r="HP66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45676,8 +45874,11 @@
       <c r="HO67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP67" t="n">
+      <c r="HP67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46352,8 +46553,11 @@
       <c r="HO68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HP68" t="n">
+      <c r="HP68" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HQ68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47028,8 +47232,11 @@
       <c r="HO69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP69" t="n">
+      <c r="HP69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47704,8 +47911,11 @@
       <c r="HO70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HP70" t="n">
+      <c r="HP70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HQ70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48380,8 +48590,11 @@
       <c r="HO71" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="HP71" t="n">
+      <c r="HP71" s="1" t="n">
         <v>39.3</v>
+      </c>
+      <c r="HQ71" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49056,8 +49269,11 @@
       <c r="HO72" s="1" t="n">
         <v>36.22</v>
       </c>
-      <c r="HP72" t="n">
+      <c r="HP72" s="1" t="n">
         <v>33.27</v>
+      </c>
+      <c r="HQ72" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49732,8 +49948,11 @@
       <c r="HO73" s="1" t="n">
         <v>14.17</v>
       </c>
-      <c r="HP73" t="n">
+      <c r="HP73" s="1" t="n">
         <v>13.07</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>14.22</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50408,8 +50627,11 @@
       <c r="HO74" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HP74" t="n">
+      <c r="HP74" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51084,8 +51306,11 @@
       <c r="HO75" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HP75" t="n">
+      <c r="HP75" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51760,8 +51985,11 @@
       <c r="HO76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HP76" t="n">
+      <c r="HP76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52436,8 +52664,11 @@
       <c r="HO77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HP77" t="n">
+      <c r="HP77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53112,8 +53343,11 @@
       <c r="HO78" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="HP78" t="n">
+      <c r="HP78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53788,8 +54022,11 @@
       <c r="HO79" s="1" t="n">
         <v>5.89</v>
       </c>
-      <c r="HP79" t="n">
+      <c r="HP79" s="1" t="n">
         <v>5.09</v>
+      </c>
+      <c r="HQ79" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54464,8 +54701,11 @@
       <c r="HO80" s="1" t="n">
         <v>41.5</v>
       </c>
-      <c r="HP80" t="n">
+      <c r="HP80" s="1" t="n">
         <v>48.2</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55140,8 +55380,11 @@
       <c r="HO81" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HP81" t="n">
+      <c r="HP81" s="1" t="n">
         <v>19.6</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55816,8 +56059,11 @@
       <c r="HO82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="HP82" t="n">
+      <c r="HP82" s="1" t="n">
         <v>187.2</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -56492,8 +56738,11 @@
       <c r="HO83" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="HP83" t="n">
+      <c r="HP83" s="1" t="n">
         <v>84.09999999999999</v>
+      </c>
+      <c r="HQ83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57168,8 +57417,11 @@
       <c r="HO84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="HP84" t="n">
+      <c r="HP84" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57844,8 +58096,11 @@
       <c r="HO85" s="1" t="n">
         <v>83.2</v>
       </c>
-      <c r="HP85" t="n">
+      <c r="HP85" s="1" t="n">
         <v>95.09999999999999</v>
+      </c>
+      <c r="HQ85" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58520,8 +58775,11 @@
       <c r="HO86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HP86" t="n">
+      <c r="HP86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59196,8 +59454,11 @@
       <c r="HO87" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP87" t="n">
+      <c r="HP87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59872,8 +60133,11 @@
       <c r="HO88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP88" t="n">
+      <c r="HP88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HQ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60548,8 +60812,11 @@
       <c r="HO89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP89" t="n">
+      <c r="HP89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HQ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -61224,8 +61491,11 @@
       <c r="HO90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HP90" t="n">
+      <c r="HP90" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="HQ90" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61900,8 +62170,11 @@
       <c r="HO91" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="HP91" t="n">
+      <c r="HP91" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="HQ91" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62576,8 +62849,11 @@
       <c r="HO92" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="HP92" t="n">
+      <c r="HP92" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="HQ92" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63252,8 +63528,11 @@
       <c r="HO93" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HP93" t="n">
+      <c r="HP93" s="1" t="n">
         <v>66.90000000000001</v>
+      </c>
+      <c r="HQ93" t="n">
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63928,8 +64207,11 @@
       <c r="HO94" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HP94" t="n">
+      <c r="HP94" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HQ94" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64604,8 +64886,11 @@
       <c r="HO95" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP95" t="n">
+      <c r="HP95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HQ95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65280,8 +65565,11 @@
       <c r="HO96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HP96" t="n">
+      <c r="HP96" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HQ96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65956,8 +66244,11 @@
       <c r="HO97" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HP97" t="n">
+      <c r="HP97" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HQ97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66632,8 +66923,11 @@
       <c r="HO98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HP98" t="n">
+      <c r="HP98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HQ98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67308,8 +67602,11 @@
       <c r="HO99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HP99" t="n">
+      <c r="HP99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HQ99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67984,8 +68281,11 @@
       <c r="HO100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP100" t="n">
+      <c r="HP100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68660,8 +68960,11 @@
       <c r="HO101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP101" t="n">
+      <c r="HP101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -69336,8 +69639,11 @@
       <c r="HO102" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="HP102" t="n">
+      <c r="HP102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="HQ102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1063,8 +1131,11 @@
       <c r="HP1" s="1" t="n">
         <v>10354</v>
       </c>
-      <c r="HQ1" t="n">
+      <c r="HQ1" s="1" t="n">
         <v>10368</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>10379</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1742,7 +1813,10 @@
       <c r="HP2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HQ2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HR2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2421,8 +2495,11 @@
       <c r="HP3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HQ3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3100,7 +3177,10 @@
       <c r="HP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HQ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,8 +3859,11 @@
       <c r="HP5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HQ5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4458,8 +4541,11 @@
       <c r="HP6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HQ6" t="n">
+      <c r="HQ6" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5137,8 +5223,11 @@
       <c r="HP7" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HQ7" t="n">
+      <c r="HQ7" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5816,8 +5905,11 @@
       <c r="HP8" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="HQ8" t="n">
+      <c r="HQ8" s="1" t="n">
         <v>-57</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6495,8 +6587,11 @@
       <c r="HP9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HQ9" t="n">
+      <c r="HQ9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7174,8 +7269,11 @@
       <c r="HP10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HQ10" t="n">
+      <c r="HQ10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7853,8 +7951,11 @@
       <c r="HP11" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HQ11" t="n">
+      <c r="HQ11" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8532,8 +8633,11 @@
       <c r="HP12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="HQ12" t="n">
+      <c r="HQ12" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9211,8 +9315,11 @@
       <c r="HP13" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="HQ13" t="n">
+      <c r="HQ13" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9890,8 +9997,11 @@
       <c r="HP14" s="1" t="n">
         <v>1.29</v>
       </c>
-      <c r="HQ14" t="n">
+      <c r="HQ14" s="1" t="n">
         <v>1.25</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10569,8 +10679,11 @@
       <c r="HP15" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HQ15" t="n">
+      <c r="HQ15" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11248,8 +11361,11 @@
       <c r="HP16" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HQ16" t="n">
+      <c r="HQ16" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11927,8 +12043,11 @@
       <c r="HP17" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HQ17" t="n">
+      <c r="HQ17" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12606,8 +12725,11 @@
       <c r="HP18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HQ18" t="n">
+      <c r="HQ18" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13285,8 +13407,11 @@
       <c r="HP19" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HQ19" t="n">
+      <c r="HQ19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13964,8 +14089,11 @@
       <c r="HP20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HQ20" t="n">
+      <c r="HQ20" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14643,8 +14771,11 @@
       <c r="HP21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ21" t="n">
+      <c r="HQ21" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15322,8 +15453,11 @@
       <c r="HP22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ22" t="n">
+      <c r="HQ22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16001,8 +16135,11 @@
       <c r="HP23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HQ23" t="n">
+      <c r="HQ23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16680,8 +16817,11 @@
       <c r="HP24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HQ24" t="n">
+      <c r="HQ24" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17359,8 +17499,11 @@
       <c r="HP25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HQ25" t="n">
+      <c r="HQ25" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18038,8 +18181,11 @@
       <c r="HP26" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HQ26" t="n">
+      <c r="HQ26" s="1" t="n">
         <v>59.67</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>23.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18717,8 +18863,11 @@
       <c r="HP27" s="1" t="n">
         <v>16.8</v>
       </c>
-      <c r="HQ27" t="n">
+      <c r="HQ27" s="1" t="n">
         <v>23.87</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>12.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19396,8 +19545,11 @@
       <c r="HP28" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HQ28" t="n">
+      <c r="HQ28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20075,8 +20227,11 @@
       <c r="HP29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HQ29" t="n">
+      <c r="HQ29" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20754,8 +20909,11 @@
       <c r="HP30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HQ30" t="n">
+      <c r="HQ30" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21433,8 +21591,11 @@
       <c r="HP31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HQ31" t="n">
+      <c r="HQ31" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22112,8 +22273,11 @@
       <c r="HP32" s="1" t="n">
         <v>2.65</v>
       </c>
-      <c r="HQ32" t="n">
+      <c r="HQ32" s="1" t="n">
         <v>2.73</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22791,8 +22955,11 @@
       <c r="HP33" s="1" t="n">
         <v>4.42</v>
       </c>
-      <c r="HQ33" t="n">
+      <c r="HQ33" s="1" t="n">
         <v>6.83</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23470,8 +23637,11 @@
       <c r="HP34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HQ34" t="n">
+      <c r="HQ34" s="1" t="n">
         <v>31.7</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24149,8 +24319,11 @@
       <c r="HP35" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="HQ35" t="n">
+      <c r="HQ35" s="1" t="n">
         <v>14.6</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24828,7 +25001,10 @@
       <c r="HP36" s="1" t="n">
         <v>186.7</v>
       </c>
-      <c r="HQ36" t="n">
+      <c r="HQ36" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="HR36" t="n">
         <v>187</v>
       </c>
     </row>
@@ -25507,7 +25683,10 @@
       <c r="HP37" s="1" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="HQ37" t="n">
+      <c r="HQ37" s="1" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="HR37" t="n">
         <v>84.3</v>
       </c>
     </row>
@@ -26186,8 +26365,11 @@
       <c r="HP38" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="HQ38" t="n">
+      <c r="HQ38" s="1" t="n">
         <v>24.24</v>
+      </c>
+      <c r="HR38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26865,8 +27047,11 @@
       <c r="HP39" s="1" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="HQ39" t="n">
+      <c r="HQ39" s="1" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27544,8 +27729,11 @@
       <c r="HP40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ40" t="n">
+      <c r="HQ40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28223,7 +28411,10 @@
       <c r="HP41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HQ41" t="n">
+      <c r="HQ41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -28902,7 +29093,10 @@
       <c r="HP42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HQ42" t="n">
+      <c r="HQ42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29581,8 +29775,11 @@
       <c r="HP43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HQ43" t="n">
+      <c r="HQ43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30260,8 +30457,11 @@
       <c r="HP44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="HQ44" t="n">
+      <c r="HQ44" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30939,8 +31139,11 @@
       <c r="HP45" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HQ45" t="n">
+      <c r="HQ45" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31618,8 +31821,11 @@
       <c r="HP46" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="HQ46" t="n">
+      <c r="HQ46" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32297,8 +32503,11 @@
       <c r="HP47" s="1" t="n">
         <v>71.7</v>
       </c>
-      <c r="HQ47" t="n">
+      <c r="HQ47" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32976,8 +33185,11 @@
       <c r="HP48" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HQ48" t="n">
+      <c r="HQ48" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33655,8 +33867,11 @@
       <c r="HP49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ49" t="n">
+      <c r="HQ49" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34334,8 +34549,11 @@
       <c r="HP50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ50" t="n">
+      <c r="HQ50" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35013,8 +35231,11 @@
       <c r="HP51" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HQ51" t="n">
+      <c r="HQ51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35692,8 +35913,11 @@
       <c r="HP52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HQ52" t="n">
+      <c r="HQ52" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36371,8 +36595,11 @@
       <c r="HP53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HQ53" t="n">
+      <c r="HQ53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37050,8 +37277,11 @@
       <c r="HP54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HQ54" t="n">
+      <c r="HQ54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37729,8 +37959,11 @@
       <c r="HP55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ55" t="n">
+      <c r="HQ55" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38408,8 +38641,11 @@
       <c r="HP56" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="HQ56" t="n">
+      <c r="HQ56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39087,8 +39323,11 @@
       <c r="HP57" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="HQ57" t="n">
+      <c r="HQ57" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39766,8 +40005,11 @@
       <c r="HP58" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="HQ58" t="n">
+      <c r="HQ58" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40445,8 +40687,11 @@
       <c r="HP59" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="HQ59" t="n">
+      <c r="HQ59" s="1" t="n">
         <v>384</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41124,8 +41369,11 @@
       <c r="HP60" s="1" t="n">
         <v>1.69</v>
       </c>
-      <c r="HQ60" t="n">
+      <c r="HQ60" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41803,8 +42051,11 @@
       <c r="HP61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="HQ61" t="n">
+      <c r="HQ61" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42482,8 +42733,11 @@
       <c r="HP62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HQ62" t="n">
+      <c r="HQ62" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43161,8 +43415,11 @@
       <c r="HP63" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HQ63" t="n">
+      <c r="HQ63" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43840,8 +44097,11 @@
       <c r="HP64" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HQ64" t="n">
+      <c r="HQ64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44519,8 +44779,11 @@
       <c r="HP65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HQ65" t="n">
+      <c r="HQ65" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45198,8 +45461,11 @@
       <c r="HP66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ66" t="n">
+      <c r="HQ66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HR66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45877,8 +46143,11 @@
       <c r="HP67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HQ67" t="n">
+      <c r="HQ67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46556,8 +46825,11 @@
       <c r="HP68" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HQ68" t="n">
+      <c r="HQ68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47235,8 +47507,11 @@
       <c r="HP69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ69" t="n">
+      <c r="HQ69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47914,8 +48189,11 @@
       <c r="HP70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HQ70" t="n">
+      <c r="HQ70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48593,8 +48871,11 @@
       <c r="HP71" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="HQ71" t="n">
+      <c r="HQ71" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49272,8 +49553,11 @@
       <c r="HP72" s="1" t="n">
         <v>33.27</v>
       </c>
-      <c r="HQ72" t="n">
+      <c r="HQ72" s="1" t="n">
         <v>25.6</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>27.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49951,8 +50235,11 @@
       <c r="HP73" s="1" t="n">
         <v>13.07</v>
       </c>
-      <c r="HQ73" t="n">
+      <c r="HQ73" s="1" t="n">
         <v>14.22</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50630,8 +50917,11 @@
       <c r="HP74" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HQ74" t="n">
+      <c r="HQ74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51309,8 +51599,11 @@
       <c r="HP75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HQ75" t="n">
+      <c r="HQ75" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51988,8 +52281,11 @@
       <c r="HP76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HQ76" t="n">
+      <c r="HQ76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52667,8 +52963,11 @@
       <c r="HP77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HQ77" t="n">
+      <c r="HQ77" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53346,8 +53645,11 @@
       <c r="HP78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HQ78" t="n">
+      <c r="HQ78" s="1" t="n">
         <v>2.48</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54025,8 +54327,11 @@
       <c r="HP79" s="1" t="n">
         <v>5.09</v>
       </c>
-      <c r="HQ79" t="n">
+      <c r="HQ79" s="1" t="n">
         <v>4.47</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54704,8 +55009,11 @@
       <c r="HP80" s="1" t="n">
         <v>48.2</v>
       </c>
-      <c r="HQ80" t="n">
+      <c r="HQ80" s="1" t="n">
         <v>37.3</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55383,8 +55691,11 @@
       <c r="HP81" s="1" t="n">
         <v>19.6</v>
       </c>
-      <c r="HQ81" t="n">
+      <c r="HQ81" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56062,8 +56373,11 @@
       <c r="HP82" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="HQ82" t="n">
+      <c r="HQ82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -56741,8 +57055,11 @@
       <c r="HP83" s="1" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="HQ83" t="n">
+      <c r="HQ83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57420,8 +57737,11 @@
       <c r="HP84" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="HQ84" t="n">
+      <c r="HQ84" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58099,8 +58419,11 @@
       <c r="HP85" s="1" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="HQ85" t="n">
+      <c r="HQ85" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58778,8 +59101,11 @@
       <c r="HP86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HQ86" t="n">
+      <c r="HQ86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59457,8 +59783,11 @@
       <c r="HP87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HQ87" t="n">
+      <c r="HQ87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HR87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -60136,8 +60465,11 @@
       <c r="HP88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HQ88" t="n">
+      <c r="HQ88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60815,7 +61147,10 @@
       <c r="HP89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ89" t="n">
+      <c r="HQ89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -61494,8 +61829,11 @@
       <c r="HP90" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="HQ90" t="n">
+      <c r="HQ90" s="1" t="n">
         <v>168</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62173,8 +62511,11 @@
       <c r="HP91" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="HQ91" t="n">
+      <c r="HQ91" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62852,8 +63193,11 @@
       <c r="HP92" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="HQ92" t="n">
+      <c r="HQ92" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63531,8 +63875,11 @@
       <c r="HP93" s="1" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="HQ93" t="n">
+      <c r="HQ93" s="1" t="n">
         <v>64.59999999999999</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64210,8 +64557,11 @@
       <c r="HP94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HQ94" t="n">
+      <c r="HQ94" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64889,8 +65239,11 @@
       <c r="HP95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HQ95" t="n">
+      <c r="HQ95" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65568,8 +65921,11 @@
       <c r="HP96" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HQ96" t="n">
+      <c r="HQ96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66247,8 +66603,11 @@
       <c r="HP97" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HQ97" t="n">
+      <c r="HQ97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66926,8 +67285,11 @@
       <c r="HP98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HQ98" t="n">
+      <c r="HQ98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67605,8 +67967,11 @@
       <c r="HP99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HQ99" t="n">
+      <c r="HQ99" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68284,7 +68649,10 @@
       <c r="HP100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HQ100" t="n">
+      <c r="HQ100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -68963,8 +69331,11 @@
       <c r="HP101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HQ101" t="n">
+      <c r="HQ101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -69642,8 +70013,11 @@
       <c r="HP102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="HQ102" t="n">
+      <c r="HQ102" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>53.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -85,74 +85,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -445,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1134,8 +1066,11 @@
       <c r="HQ1" s="1" t="n">
         <v>10368</v>
       </c>
-      <c r="HR1" t="n">
+      <c r="HR1" s="1" t="n">
         <v>10379</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10383</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1816,7 +1751,10 @@
       <c r="HQ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HR2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HS2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2498,8 +2436,11 @@
       <c r="HQ3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HR3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3180,8 +3121,11 @@
       <c r="HQ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HR4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3862,7 +3806,10 @@
       <c r="HQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HR5" t="n">
+      <c r="HR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,8 +4491,11 @@
       <c r="HQ6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HR6" t="n">
+      <c r="HR6" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5226,8 +5176,11 @@
       <c r="HQ7" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="HR7" t="n">
+      <c r="HR7" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5908,8 +5861,11 @@
       <c r="HQ8" s="1" t="n">
         <v>-57</v>
       </c>
-      <c r="HR8" t="n">
+      <c r="HR8" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6590,8 +6546,11 @@
       <c r="HQ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HR9" t="n">
+      <c r="HR9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7272,8 +7231,11 @@
       <c r="HQ10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HR10" t="n">
+      <c r="HR10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7954,8 +7916,11 @@
       <c r="HQ11" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="HR11" t="n">
+      <c r="HR11" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8636,8 +8601,11 @@
       <c r="HQ12" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="HR12" t="n">
+      <c r="HR12" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9318,8 +9286,11 @@
       <c r="HQ13" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="HR13" t="n">
+      <c r="HR13" s="1" t="n">
         <v>375</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10000,8 +9971,11 @@
       <c r="HQ14" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="HR14" t="n">
+      <c r="HR14" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10682,8 +10656,11 @@
       <c r="HQ15" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HR15" t="n">
+      <c r="HR15" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11364,8 +11341,11 @@
       <c r="HQ16" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="HR16" t="n">
+      <c r="HR16" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12046,8 +12026,11 @@
       <c r="HQ17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HR17" t="n">
+      <c r="HR17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12728,8 +12711,11 @@
       <c r="HQ18" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HR18" t="n">
+      <c r="HR18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13410,8 +13396,11 @@
       <c r="HQ19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HR19" t="n">
+      <c r="HR19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14092,7 +14081,10 @@
       <c r="HQ20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR20" t="n">
+      <c r="HR20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -14774,8 +14766,11 @@
       <c r="HQ21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HR21" t="n">
+      <c r="HR21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15456,8 +15451,11 @@
       <c r="HQ22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR22" t="n">
+      <c r="HR22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16138,8 +16136,11 @@
       <c r="HQ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HR23" t="n">
+      <c r="HR23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16820,8 +16821,11 @@
       <c r="HQ24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR24" t="n">
+      <c r="HR24" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17502,8 +17506,11 @@
       <c r="HQ25" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HR25" t="n">
+      <c r="HR25" s="1" t="n">
         <v>55.2</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18184,8 +18191,11 @@
       <c r="HQ26" s="1" t="n">
         <v>59.67</v>
       </c>
-      <c r="HR26" t="n">
+      <c r="HR26" s="1" t="n">
         <v>23.44</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>22.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18866,8 +18876,11 @@
       <c r="HQ27" s="1" t="n">
         <v>23.87</v>
       </c>
-      <c r="HR27" t="n">
+      <c r="HR27" s="1" t="n">
         <v>12.93</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>13.44</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19548,7 +19561,10 @@
       <c r="HQ28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HR28" t="n">
+      <c r="HR28" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS28" t="n">
         <v>39</v>
       </c>
     </row>
@@ -20230,8 +20246,11 @@
       <c r="HQ29" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HR29" t="n">
+      <c r="HR29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20912,8 +20931,11 @@
       <c r="HQ30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HR30" t="n">
+      <c r="HR30" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21594,8 +21616,11 @@
       <c r="HQ31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HR31" t="n">
+      <c r="HR31" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22276,8 +22301,11 @@
       <c r="HQ32" s="1" t="n">
         <v>2.73</v>
       </c>
-      <c r="HR32" t="n">
+      <c r="HR32" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22958,8 +22986,11 @@
       <c r="HQ33" s="1" t="n">
         <v>6.83</v>
       </c>
-      <c r="HR33" t="n">
+      <c r="HR33" s="1" t="n">
         <v>3.38</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23640,8 +23671,11 @@
       <c r="HQ34" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="HR34" t="n">
+      <c r="HR34" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24322,8 +24356,11 @@
       <c r="HQ35" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="HR35" t="n">
+      <c r="HR35" s="1" t="n">
         <v>29.6</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25004,8 +25041,11 @@
       <c r="HQ36" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HR36" t="n">
+      <c r="HR36" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25686,8 +25726,11 @@
       <c r="HQ37" s="1" t="n">
         <v>84.3</v>
       </c>
-      <c r="HR37" t="n">
+      <c r="HR37" s="1" t="n">
         <v>84.3</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26368,8 +26411,11 @@
       <c r="HQ38" s="1" t="n">
         <v>24.24</v>
       </c>
-      <c r="HR38" t="n">
+      <c r="HR38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27050,8 +27096,11 @@
       <c r="HQ39" s="1" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="HR39" t="n">
+      <c r="HR39" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27732,8 +27781,11 @@
       <c r="HQ40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HR40" t="n">
+      <c r="HR40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28414,7 +28466,10 @@
       <c r="HQ41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR41" t="n">
+      <c r="HR41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29096,8 +29151,11 @@
       <c r="HQ42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HR42" t="n">
+      <c r="HR42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29778,8 +29836,11 @@
       <c r="HQ43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HR43" t="n">
+      <c r="HR43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30460,8 +30521,11 @@
       <c r="HQ44" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="HR44" t="n">
+      <c r="HR44" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31142,8 +31206,11 @@
       <c r="HQ45" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HR45" t="n">
+      <c r="HR45" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31824,8 +31891,11 @@
       <c r="HQ46" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="HR46" t="n">
+      <c r="HR46" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32506,8 +32576,11 @@
       <c r="HQ47" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="HR47" t="n">
+      <c r="HR47" s="1" t="n">
         <v>75.7</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33188,8 +33261,11 @@
       <c r="HQ48" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HR48" t="n">
+      <c r="HR48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33870,8 +33946,11 @@
       <c r="HQ49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR49" t="n">
+      <c r="HR49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34552,8 +34631,11 @@
       <c r="HQ50" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR50" t="n">
+      <c r="HR50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35234,7 +35316,10 @@
       <c r="HQ51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HR51" t="n">
+      <c r="HR51" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS51" t="n">
         <v>39</v>
       </c>
     </row>
@@ -35916,8 +36001,11 @@
       <c r="HQ52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HR52" t="n">
+      <c r="HR52" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36598,8 +36686,11 @@
       <c r="HQ53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HR53" t="n">
+      <c r="HR53" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37280,8 +37371,11 @@
       <c r="HQ54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR54" t="n">
+      <c r="HR54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37962,8 +38056,11 @@
       <c r="HQ55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HR55" t="n">
+      <c r="HR55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38644,8 +38741,11 @@
       <c r="HQ56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HR56" t="n">
+      <c r="HR56" s="1" t="n">
         <v>56.2</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39326,8 +39426,11 @@
       <c r="HQ57" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="HR57" t="n">
+      <c r="HR57" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40008,8 +40111,11 @@
       <c r="HQ58" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="HR58" t="n">
+      <c r="HR58" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40690,8 +40796,11 @@
       <c r="HQ59" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="HR59" t="n">
+      <c r="HR59" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41372,8 +41481,11 @@
       <c r="HQ60" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="HR60" t="n">
+      <c r="HR60" s="1" t="n">
         <v>1.28</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42054,8 +42166,11 @@
       <c r="HQ61" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="HR61" t="n">
+      <c r="HR61" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42736,8 +42851,11 @@
       <c r="HQ62" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HR62" t="n">
+      <c r="HR62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43418,8 +43536,11 @@
       <c r="HQ63" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HR63" t="n">
+      <c r="HR63" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44100,8 +44221,11 @@
       <c r="HQ64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HR64" t="n">
+      <c r="HR64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44782,8 +44906,11 @@
       <c r="HQ65" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HR65" t="n">
+      <c r="HR65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45464,8 +45591,11 @@
       <c r="HQ66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR66" t="n">
+      <c r="HR66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46146,8 +46276,11 @@
       <c r="HQ67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HR67" t="n">
+      <c r="HR67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46828,8 +46961,11 @@
       <c r="HQ68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HR68" t="n">
+      <c r="HR68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47510,8 +47646,11 @@
       <c r="HQ69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HR69" t="n">
+      <c r="HR69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48192,8 +48331,11 @@
       <c r="HQ70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HR70" t="n">
+      <c r="HR70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48874,8 +49016,11 @@
       <c r="HQ71" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HR71" t="n">
+      <c r="HR71" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49556,8 +49701,11 @@
       <c r="HQ72" s="1" t="n">
         <v>25.6</v>
       </c>
-      <c r="HR72" t="n">
+      <c r="HR72" s="1" t="n">
         <v>27.38</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>18.53</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50238,8 +50386,11 @@
       <c r="HQ73" s="1" t="n">
         <v>14.22</v>
       </c>
-      <c r="HR73" t="n">
+      <c r="HR73" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>12.57</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50920,7 +51071,10 @@
       <c r="HQ74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HR74" t="n">
+      <c r="HR74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HS74" t="n">
         <v>38</v>
       </c>
     </row>
@@ -51602,7 +51756,10 @@
       <c r="HQ75" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HR75" t="n">
+      <c r="HR75" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="HS75" t="n">
         <v>58</v>
       </c>
     </row>
@@ -52284,8 +52441,11 @@
       <c r="HQ76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HR76" t="n">
+      <c r="HR76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52966,8 +53126,11 @@
       <c r="HQ77" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HR77" t="n">
+      <c r="HR77" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53648,8 +53811,11 @@
       <c r="HQ78" s="1" t="n">
         <v>2.48</v>
       </c>
-      <c r="HR78" t="n">
+      <c r="HR78" s="1" t="n">
         <v>2.15</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54330,8 +54496,11 @@
       <c r="HQ79" s="1" t="n">
         <v>4.47</v>
       </c>
-      <c r="HR79" t="n">
+      <c r="HR79" s="1" t="n">
         <v>3.31</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55012,8 +55181,11 @@
       <c r="HQ80" s="1" t="n">
         <v>37.3</v>
       </c>
-      <c r="HR80" t="n">
+      <c r="HR80" s="1" t="n">
         <v>44.2</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55694,8 +55866,11 @@
       <c r="HQ81" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="HR81" t="n">
+      <c r="HR81" s="1" t="n">
         <v>30.2</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56376,8 +56551,11 @@
       <c r="HQ82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="HR82" t="n">
+      <c r="HR82" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57058,8 +57236,11 @@
       <c r="HQ83" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="HR83" t="n">
+      <c r="HR83" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57740,8 +57921,11 @@
       <c r="HQ84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="HR84" t="n">
+      <c r="HR84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58422,8 +58606,11 @@
       <c r="HQ85" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="HR85" t="n">
+      <c r="HR85" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59104,8 +59291,11 @@
       <c r="HQ86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR86" t="n">
+      <c r="HR86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59786,7 +59976,10 @@
       <c r="HQ87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR87" t="n">
+      <c r="HR87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -60468,8 +60661,11 @@
       <c r="HQ88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR88" t="n">
+      <c r="HR88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61150,8 +61346,11 @@
       <c r="HQ89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR89" t="n">
+      <c r="HR89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -61832,8 +62031,11 @@
       <c r="HQ90" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="HR90" t="n">
+      <c r="HR90" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62514,8 +62716,11 @@
       <c r="HQ91" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="HR91" t="n">
+      <c r="HR91" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63196,8 +63401,11 @@
       <c r="HQ92" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="HR92" t="n">
+      <c r="HR92" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63878,8 +64086,11 @@
       <c r="HQ93" s="1" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="HR93" t="n">
+      <c r="HR93" s="1" t="n">
         <v>66.90000000000001</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64560,7 +64771,10 @@
       <c r="HQ94" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HR94" t="n">
+      <c r="HR94" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="HS94" t="n">
         <v>58</v>
       </c>
     </row>
@@ -65242,8 +65456,11 @@
       <c r="HQ95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HR95" t="n">
+      <c r="HR95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65924,8 +66141,11 @@
       <c r="HQ96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HR96" t="n">
+      <c r="HR96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66606,7 +66826,10 @@
       <c r="HQ97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HR97" t="n">
+      <c r="HR97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HS97" t="n">
         <v>38</v>
       </c>
     </row>
@@ -67288,8 +67511,11 @@
       <c r="HQ98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HR98" t="n">
+      <c r="HR98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67970,8 +68196,11 @@
       <c r="HQ99" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HR99" t="n">
+      <c r="HR99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68652,8 +68881,11 @@
       <c r="HQ100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HR100" t="n">
+      <c r="HR100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69334,8 +69566,11 @@
       <c r="HQ101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HR101" t="n">
+      <c r="HR101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70016,8 +70251,11 @@
       <c r="HQ102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HR102" t="n">
+      <c r="HR102" s="1" t="n">
         <v>53.8</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>84.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1069,8 +1069,11 @@
       <c r="HR1" s="1" t="n">
         <v>10379</v>
       </c>
-      <c r="HS1" t="n">
+      <c r="HS1" s="1" t="n">
         <v>10383</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>10391</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1754,7 +1757,10 @@
       <c r="HR2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HS2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HT2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2439,8 +2445,11 @@
       <c r="HR3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HS3" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3124,8 +3133,11 @@
       <c r="HR4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HS4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3809,8 +3821,11 @@
       <c r="HR5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS5" t="n">
+      <c r="HS5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4494,8 +4509,11 @@
       <c r="HR6" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HS6" t="n">
+      <c r="HS6" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5179,8 +5197,11 @@
       <c r="HR7" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HS7" t="n">
+      <c r="HS7" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5864,8 +5885,11 @@
       <c r="HR8" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HS8" t="n">
+      <c r="HS8" s="1" t="n">
         <v>-16</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6549,7 +6573,10 @@
       <c r="HR9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS9" t="n">
+      <c r="HS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7234,8 +7261,11 @@
       <c r="HR10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HS10" t="n">
+      <c r="HS10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7919,8 +7949,11 @@
       <c r="HR11" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="HS11" t="n">
+      <c r="HS11" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8604,8 +8637,11 @@
       <c r="HR12" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="HS12" t="n">
+      <c r="HS12" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9289,8 +9325,11 @@
       <c r="HR13" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="HS13" t="n">
+      <c r="HS13" s="1" t="n">
         <v>363</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9974,8 +10013,11 @@
       <c r="HR14" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="HS14" t="n">
+      <c r="HS14" s="1" t="n">
         <v>1.52</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10659,8 +10701,11 @@
       <c r="HR15" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="HS15" t="n">
+      <c r="HS15" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11344,8 +11389,11 @@
       <c r="HR16" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HS16" t="n">
+      <c r="HS16" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12029,8 +12077,11 @@
       <c r="HR17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HS17" t="n">
+      <c r="HS17" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12714,8 +12765,11 @@
       <c r="HR18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HS18" t="n">
+      <c r="HS18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13399,7 +13453,10 @@
       <c r="HR19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HS19" t="n">
+      <c r="HS19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -14084,7 +14141,10 @@
       <c r="HR20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HS20" t="n">
+      <c r="HS20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HT20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -14769,8 +14829,11 @@
       <c r="HR21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HS21" t="n">
+      <c r="HS21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15454,7 +15517,10 @@
       <c r="HR22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS22" t="n">
+      <c r="HS22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -16139,8 +16205,11 @@
       <c r="HR23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS23" t="n">
+      <c r="HS23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16824,8 +16893,11 @@
       <c r="HR24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HS24" t="n">
+      <c r="HS24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17509,8 +17581,11 @@
       <c r="HR25" s="1" t="n">
         <v>55.2</v>
       </c>
-      <c r="HS25" t="n">
+      <c r="HS25" s="1" t="n">
         <v>59.3</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18194,8 +18269,11 @@
       <c r="HR26" s="1" t="n">
         <v>23.44</v>
       </c>
-      <c r="HS26" t="n">
+      <c r="HS26" s="1" t="n">
         <v>22.69</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>24.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18879,8 +18957,11 @@
       <c r="HR27" s="1" t="n">
         <v>12.93</v>
       </c>
-      <c r="HS27" t="n">
+      <c r="HS27" s="1" t="n">
         <v>13.44</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>15.72</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19564,8 +19645,11 @@
       <c r="HR28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HS28" t="n">
+      <c r="HS28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20249,8 +20333,11 @@
       <c r="HR29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HS29" t="n">
+      <c r="HS29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20934,8 +21021,11 @@
       <c r="HR30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HS30" t="n">
+      <c r="HS30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21619,8 +21709,11 @@
       <c r="HR31" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HS31" t="n">
+      <c r="HS31" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22304,8 +22397,11 @@
       <c r="HR32" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="HS32" t="n">
+      <c r="HS32" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22989,8 +23085,11 @@
       <c r="HR33" s="1" t="n">
         <v>3.38</v>
       </c>
-      <c r="HS33" t="n">
+      <c r="HS33" s="1" t="n">
         <v>3.94</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>3.81</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23674,8 +23773,11 @@
       <c r="HR34" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="HS34" t="n">
+      <c r="HS34" s="1" t="n">
         <v>39.7</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24359,8 +24461,11 @@
       <c r="HR35" s="1" t="n">
         <v>29.6</v>
       </c>
-      <c r="HS35" t="n">
+      <c r="HS35" s="1" t="n">
         <v>25.4</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25044,8 +25149,11 @@
       <c r="HR36" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HS36" t="n">
+      <c r="HS36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HT36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25729,8 +25837,11 @@
       <c r="HR37" s="1" t="n">
         <v>84.3</v>
       </c>
-      <c r="HS37" t="n">
+      <c r="HS37" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26414,8 +26525,11 @@
       <c r="HR38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HS38" t="n">
+      <c r="HS38" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27099,8 +27213,11 @@
       <c r="HR39" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HS39" t="n">
+      <c r="HS39" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27784,8 +27901,11 @@
       <c r="HR40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HS40" t="n">
+      <c r="HS40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28469,7 +28589,10 @@
       <c r="HR41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HS41" t="n">
+      <c r="HS41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29154,8 +29277,11 @@
       <c r="HR42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HS42" t="n">
+      <c r="HS42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HT42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29839,8 +29965,11 @@
       <c r="HR43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HS43" t="n">
+      <c r="HS43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30524,8 +30653,11 @@
       <c r="HR44" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HS44" t="n">
+      <c r="HS44" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31209,8 +31341,11 @@
       <c r="HR45" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="HS45" t="n">
+      <c r="HS45" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31894,8 +32029,11 @@
       <c r="HR46" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="HS46" t="n">
+      <c r="HS46" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32579,8 +32717,11 @@
       <c r="HR47" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="HS47" t="n">
+      <c r="HS47" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33264,8 +33405,11 @@
       <c r="HR48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HS48" t="n">
+      <c r="HS48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33949,8 +34093,11 @@
       <c r="HR49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HS49" t="n">
+      <c r="HS49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34634,8 +34781,11 @@
       <c r="HR50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HS50" t="n">
+      <c r="HS50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35319,8 +35469,11 @@
       <c r="HR51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HS51" t="n">
+      <c r="HS51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36004,8 +36157,11 @@
       <c r="HR52" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HS52" t="n">
+      <c r="HS52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36689,8 +36845,11 @@
       <c r="HR53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HS53" t="n">
+      <c r="HS53" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37374,8 +37533,11 @@
       <c r="HR54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HS54" t="n">
+      <c r="HS54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38059,8 +38221,11 @@
       <c r="HR55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HS55" t="n">
+      <c r="HS55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38744,8 +38909,11 @@
       <c r="HR56" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="HS56" t="n">
+      <c r="HS56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39429,8 +39597,11 @@
       <c r="HR57" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="HS57" t="n">
+      <c r="HS57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40114,8 +40285,11 @@
       <c r="HR58" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="HS58" t="n">
+      <c r="HS58" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40799,8 +40973,11 @@
       <c r="HR59" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="HS59" t="n">
+      <c r="HS59" s="1" t="n">
         <v>352</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41484,8 +41661,11 @@
       <c r="HR60" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="HS60" t="n">
+      <c r="HS60" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42169,8 +42349,11 @@
       <c r="HR61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="HS61" t="n">
+      <c r="HS61" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42854,8 +43037,11 @@
       <c r="HR62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HS62" t="n">
+      <c r="HS62" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43539,8 +43725,11 @@
       <c r="HR63" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HS63" t="n">
+      <c r="HS63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44224,7 +44413,10 @@
       <c r="HR64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HS64" t="n">
+      <c r="HS64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -44909,8 +45101,11 @@
       <c r="HR65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HS65" t="n">
+      <c r="HS65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45594,8 +45789,11 @@
       <c r="HR66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HS66" t="n">
+      <c r="HS66" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HT66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46279,8 +46477,11 @@
       <c r="HR67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HS67" t="n">
+      <c r="HS67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46964,8 +47165,11 @@
       <c r="HR68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HS68" t="n">
+      <c r="HS68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47649,8 +47853,11 @@
       <c r="HR69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS69" t="n">
+      <c r="HS69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48334,8 +48541,11 @@
       <c r="HR70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HS70" t="n">
+      <c r="HS70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HT70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49019,8 +49229,11 @@
       <c r="HR71" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HS71" t="n">
+      <c r="HS71" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="HT71" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49704,8 +49917,11 @@
       <c r="HR72" s="1" t="n">
         <v>27.38</v>
       </c>
-      <c r="HS72" t="n">
+      <c r="HS72" s="1" t="n">
         <v>18.53</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>23.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50389,8 +50605,11 @@
       <c r="HR73" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="HS73" t="n">
+      <c r="HS73" s="1" t="n">
         <v>12.57</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>14.07</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51074,8 +51293,11 @@
       <c r="HR74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HS74" t="n">
+      <c r="HS74" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51759,8 +51981,11 @@
       <c r="HR75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HS75" t="n">
+      <c r="HS75" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HT75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52444,8 +52669,11 @@
       <c r="HR76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HS76" t="n">
+      <c r="HS76" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53129,8 +53357,11 @@
       <c r="HR77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HS77" t="n">
+      <c r="HS77" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53814,8 +54045,11 @@
       <c r="HR78" s="1" t="n">
         <v>2.15</v>
       </c>
-      <c r="HS78" t="n">
+      <c r="HS78" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54499,8 +54733,11 @@
       <c r="HR79" s="1" t="n">
         <v>3.31</v>
       </c>
-      <c r="HS79" t="n">
+      <c r="HS79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55184,8 +55421,11 @@
       <c r="HR80" s="1" t="n">
         <v>44.2</v>
       </c>
-      <c r="HS80" t="n">
+      <c r="HS80" s="1" t="n">
         <v>45.6</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55869,8 +56109,11 @@
       <c r="HR81" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="HS81" t="n">
+      <c r="HS81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56554,8 +56797,11 @@
       <c r="HR82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HS82" t="n">
+      <c r="HS82" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57239,8 +57485,11 @@
       <c r="HR83" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="HS83" t="n">
+      <c r="HS83" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57924,8 +58173,11 @@
       <c r="HR84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="HS84" t="n">
+      <c r="HS84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58609,8 +58861,11 @@
       <c r="HR85" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HS85" t="n">
+      <c r="HS85" s="1" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59294,7 +59549,10 @@
       <c r="HR86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HS86" t="n">
+      <c r="HS86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT86" t="n">
         <v>10</v>
       </c>
     </row>
@@ -59979,8 +60237,11 @@
       <c r="HR87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HS87" t="n">
+      <c r="HS87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -60664,8 +60925,11 @@
       <c r="HR88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HS88" t="n">
+      <c r="HS88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61349,8 +61613,11 @@
       <c r="HR89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HS89" t="n">
+      <c r="HS89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62034,8 +62301,11 @@
       <c r="HR90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HS90" t="n">
+      <c r="HS90" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62719,8 +62989,11 @@
       <c r="HR91" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="HS91" t="n">
+      <c r="HS91" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63404,8 +63677,11 @@
       <c r="HR92" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="HS92" t="n">
+      <c r="HS92" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64089,8 +64365,11 @@
       <c r="HR93" s="1" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="HS93" t="n">
+      <c r="HS93" s="1" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64774,8 +65053,11 @@
       <c r="HR94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HS94" t="n">
+      <c r="HS94" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -65459,8 +65741,11 @@
       <c r="HR95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HS95" t="n">
+      <c r="HS95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -66144,8 +66429,11 @@
       <c r="HR96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HS96" t="n">
+      <c r="HS96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66829,8 +67117,11 @@
       <c r="HR97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HS97" t="n">
+      <c r="HS97" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -67514,8 +67805,11 @@
       <c r="HR98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HS98" t="n">
+      <c r="HS98" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -68199,8 +68493,11 @@
       <c r="HR99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HS99" t="n">
+      <c r="HS99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68884,8 +69181,11 @@
       <c r="HR100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HS100" t="n">
+      <c r="HS100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69569,8 +69869,11 @@
       <c r="HR101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HS101" t="n">
+      <c r="HS101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70254,8 +70557,11 @@
       <c r="HR102" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="HS102" t="n">
+      <c r="HS102" s="1" t="n">
         <v>84.2</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1072,8 +1072,11 @@
       <c r="HS1" s="1" t="n">
         <v>10383</v>
       </c>
-      <c r="HT1" t="n">
+      <c r="HT1" s="1" t="n">
         <v>10391</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>10399</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1760,7 +1763,10 @@
       <c r="HS2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HT2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HU2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2448,8 +2454,11 @@
       <c r="HS3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HT3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3136,8 +3145,11 @@
       <c r="HS4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HT4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3824,7 +3836,10 @@
       <c r="HS5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HT5" t="n">
+      <c r="HT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4512,8 +4527,11 @@
       <c r="HS6" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="HT6" t="n">
+      <c r="HT6" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5200,8 +5218,11 @@
       <c r="HS7" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HT7" t="n">
+      <c r="HT7" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5888,8 +5909,11 @@
       <c r="HS8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="HT8" t="n">
+      <c r="HT8" s="1" t="n">
         <v>-2</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6576,8 +6600,11 @@
       <c r="HS9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HT9" t="n">
+      <c r="HT9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7264,8 +7291,11 @@
       <c r="HS10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT10" t="n">
+      <c r="HT10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7952,8 +7982,11 @@
       <c r="HS11" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="HT11" t="n">
+      <c r="HT11" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8640,8 +8673,11 @@
       <c r="HS12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="HT12" t="n">
+      <c r="HT12" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9328,8 +9364,11 @@
       <c r="HS13" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="HT13" t="n">
+      <c r="HT13" s="1" t="n">
         <v>393</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10016,8 +10055,11 @@
       <c r="HS14" s="1" t="n">
         <v>1.52</v>
       </c>
-      <c r="HT14" t="n">
+      <c r="HT14" s="1" t="n">
         <v>1.37</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10704,8 +10746,11 @@
       <c r="HS15" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="HT15" t="n">
+      <c r="HT15" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11392,8 +11437,11 @@
       <c r="HS16" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HT16" t="n">
+      <c r="HT16" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12080,8 +12128,11 @@
       <c r="HS17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HT17" t="n">
+      <c r="HT17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12768,7 +12819,10 @@
       <c r="HS18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HT18" t="n">
+      <c r="HT18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -13456,8 +13510,11 @@
       <c r="HS19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HT19" t="n">
+      <c r="HT19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14144,8 +14201,11 @@
       <c r="HS20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT20" t="n">
+      <c r="HT20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14832,8 +14892,11 @@
       <c r="HS21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT21" t="n">
+      <c r="HT21" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15520,8 +15583,11 @@
       <c r="HS22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HT22" t="n">
+      <c r="HT22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16208,8 +16274,11 @@
       <c r="HS23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HT23" t="n">
+      <c r="HT23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16896,8 +16965,11 @@
       <c r="HS24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HT24" t="n">
+      <c r="HT24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17584,8 +17656,11 @@
       <c r="HS25" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="HT25" t="n">
+      <c r="HT25" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18272,8 +18347,11 @@
       <c r="HS26" s="1" t="n">
         <v>22.69</v>
       </c>
-      <c r="HT26" t="n">
+      <c r="HT26" s="1" t="n">
         <v>24.56</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18960,8 +19038,11 @@
       <c r="HS27" s="1" t="n">
         <v>13.44</v>
       </c>
-      <c r="HT27" t="n">
+      <c r="HT27" s="1" t="n">
         <v>15.72</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19648,7 +19729,10 @@
       <c r="HS28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HT28" t="n">
+      <c r="HT28" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HU28" t="n">
         <v>32</v>
       </c>
     </row>
@@ -20336,8 +20420,11 @@
       <c r="HS29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HT29" t="n">
+      <c r="HT29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21024,8 +21111,11 @@
       <c r="HS30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HT30" t="n">
+      <c r="HT30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21712,8 +21802,11 @@
       <c r="HS31" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HT31" t="n">
+      <c r="HT31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22400,8 +22493,11 @@
       <c r="HS32" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="HT32" t="n">
+      <c r="HT32" s="1" t="n">
         <v>2.44</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>2.61</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23088,8 +23184,11 @@
       <c r="HS33" s="1" t="n">
         <v>3.94</v>
       </c>
-      <c r="HT33" t="n">
+      <c r="HT33" s="1" t="n">
         <v>3.81</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23776,8 +23875,11 @@
       <c r="HS34" s="1" t="n">
         <v>39.7</v>
       </c>
-      <c r="HT34" t="n">
+      <c r="HT34" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24464,8 +24566,11 @@
       <c r="HS35" s="1" t="n">
         <v>25.4</v>
       </c>
-      <c r="HT35" t="n">
+      <c r="HT35" s="1" t="n">
         <v>26.2</v>
+      </c>
+      <c r="HU35" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25152,8 +25257,11 @@
       <c r="HS36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HT36" t="n">
+      <c r="HT36" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="HU36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25840,8 +25948,11 @@
       <c r="HS37" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HT37" t="n">
+      <c r="HT37" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="HU37" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26528,8 +26639,11 @@
       <c r="HS38" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="HT38" t="n">
+      <c r="HT38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="HU38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27216,8 +27330,11 @@
       <c r="HS39" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HT39" t="n">
+      <c r="HT39" s="1" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="HU39" t="n">
+        <v>79.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27904,8 +28021,11 @@
       <c r="HS40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT40" t="n">
+      <c r="HT40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28592,8 +28712,11 @@
       <c r="HS41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HT41" t="n">
+      <c r="HT41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29280,8 +29403,11 @@
       <c r="HS42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HT42" t="n">
+      <c r="HT42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HU42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29968,8 +30094,11 @@
       <c r="HS43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT43" t="n">
+      <c r="HT43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30656,8 +30785,11 @@
       <c r="HS44" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="HT44" t="n">
+      <c r="HT44" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31344,8 +31476,11 @@
       <c r="HS45" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="HT45" t="n">
+      <c r="HT45" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32032,8 +32167,11 @@
       <c r="HS46" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="HT46" t="n">
+      <c r="HT46" s="1" t="n">
         <v>303</v>
+      </c>
+      <c r="HU46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32720,8 +32858,11 @@
       <c r="HS47" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="HT47" t="n">
+      <c r="HT47" s="1" t="n">
         <v>77.09999999999999</v>
+      </c>
+      <c r="HU47" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33408,8 +33549,11 @@
       <c r="HS48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HT48" t="n">
+      <c r="HT48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HU48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34096,8 +34240,11 @@
       <c r="HS49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HT49" t="n">
+      <c r="HT49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HU49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34784,8 +34931,11 @@
       <c r="HS50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT50" t="n">
+      <c r="HT50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35472,7 +35622,10 @@
       <c r="HS51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HT51" t="n">
+      <c r="HT51" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HU51" t="n">
         <v>32</v>
       </c>
     </row>
@@ -36160,8 +36313,11 @@
       <c r="HS52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HT52" t="n">
+      <c r="HT52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36848,8 +37004,11 @@
       <c r="HS53" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HT53" t="n">
+      <c r="HT53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37536,8 +37695,11 @@
       <c r="HS54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT54" t="n">
+      <c r="HT54" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HU54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38224,8 +38386,11 @@
       <c r="HS55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT55" t="n">
+      <c r="HT55" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38912,8 +39077,11 @@
       <c r="HS56" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="HT56" t="n">
+      <c r="HT56" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="HU56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39600,8 +39768,11 @@
       <c r="HS57" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="HT57" t="n">
+      <c r="HT57" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="HU57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40288,8 +40459,11 @@
       <c r="HS58" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HT58" t="n">
+      <c r="HT58" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="HU58" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40976,8 +41150,11 @@
       <c r="HS59" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="HT59" t="n">
+      <c r="HT59" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="HU59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41664,8 +41841,11 @@
       <c r="HS60" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="HT60" t="n">
+      <c r="HT60" s="1" t="n">
         <v>1.47</v>
+      </c>
+      <c r="HU60" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42352,8 +42532,11 @@
       <c r="HS61" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HT61" t="n">
+      <c r="HT61" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="HU61" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43040,8 +43223,11 @@
       <c r="HS62" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HT62" t="n">
+      <c r="HT62" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HU62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43728,8 +43914,11 @@
       <c r="HS63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HT63" t="n">
+      <c r="HT63" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HU63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44416,8 +44605,11 @@
       <c r="HS64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HT64" t="n">
+      <c r="HT64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45104,7 +45296,10 @@
       <c r="HS65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HT65" t="n">
+      <c r="HT65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU65" t="n">
         <v>17</v>
       </c>
     </row>
@@ -45792,8 +45987,11 @@
       <c r="HS66" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HT66" t="n">
+      <c r="HT66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HU66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46480,8 +46678,11 @@
       <c r="HS67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT67" t="n">
+      <c r="HT67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47168,8 +47369,11 @@
       <c r="HS68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT68" t="n">
+      <c r="HT68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47856,8 +48060,11 @@
       <c r="HS69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HT69" t="n">
+      <c r="HT69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HU69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48544,8 +48751,11 @@
       <c r="HS70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HT70" t="n">
+      <c r="HT70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HU70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49232,8 +49442,11 @@
       <c r="HS71" s="1" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="HT71" t="n">
+      <c r="HT71" s="1" t="n">
         <v>59.3</v>
+      </c>
+      <c r="HU71" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49920,8 +50133,11 @@
       <c r="HS72" s="1" t="n">
         <v>18.53</v>
       </c>
-      <c r="HT72" t="n">
+      <c r="HT72" s="1" t="n">
         <v>23.75</v>
+      </c>
+      <c r="HU72" t="n">
+        <v>47.62</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50608,8 +50824,11 @@
       <c r="HS73" s="1" t="n">
         <v>12.57</v>
       </c>
-      <c r="HT73" t="n">
+      <c r="HT73" s="1" t="n">
         <v>14.07</v>
+      </c>
+      <c r="HU73" t="n">
+        <v>18.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51296,7 +51515,10 @@
       <c r="HS74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HT74" t="n">
+      <c r="HT74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HU74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -51984,8 +52206,11 @@
       <c r="HS75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HT75" t="n">
+      <c r="HT75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HU75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52672,8 +52897,11 @@
       <c r="HS76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HT76" t="n">
+      <c r="HT76" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53360,7 +53588,10 @@
       <c r="HS77" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HT77" t="n">
+      <c r="HT77" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HU77" t="n">
         <v>49</v>
       </c>
     </row>
@@ -54048,8 +54279,11 @@
       <c r="HS78" s="1" t="n">
         <v>2.04</v>
       </c>
-      <c r="HT78" t="n">
+      <c r="HT78" s="1" t="n">
         <v>1.81</v>
+      </c>
+      <c r="HU78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54736,8 +54970,11 @@
       <c r="HS79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT79" t="n">
+      <c r="HT79" s="1" t="n">
         <v>3.06</v>
+      </c>
+      <c r="HU79" t="n">
+        <v>6.12</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55424,8 +55661,11 @@
       <c r="HS80" s="1" t="n">
         <v>45.6</v>
       </c>
-      <c r="HT80" t="n">
+      <c r="HT80" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HU80" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56112,8 +56352,11 @@
       <c r="HS81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HT81" t="n">
+      <c r="HT81" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="HU81" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56800,8 +57043,11 @@
       <c r="HS82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HT82" t="n">
+      <c r="HT82" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="HU82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57488,8 +57734,11 @@
       <c r="HS83" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="HT83" t="n">
+      <c r="HT83" s="1" t="n">
         <v>86.2</v>
+      </c>
+      <c r="HU83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58176,8 +58425,11 @@
       <c r="HS84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HT84" t="n">
+      <c r="HT84" s="1" t="n">
         <v>24.58</v>
+      </c>
+      <c r="HU84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58864,8 +59116,11 @@
       <c r="HS85" s="1" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="HT85" t="n">
+      <c r="HT85" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="HU85" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59552,8 +59807,11 @@
       <c r="HS86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT86" t="n">
+      <c r="HT86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -60240,8 +60498,11 @@
       <c r="HS87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT87" t="n">
+      <c r="HT87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HU87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -60928,8 +61189,11 @@
       <c r="HS88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT88" t="n">
+      <c r="HT88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HU88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61616,8 +61880,11 @@
       <c r="HS89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT89" t="n">
+      <c r="HT89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HU89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62304,8 +62571,11 @@
       <c r="HS90" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HT90" t="n">
+      <c r="HT90" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="HU90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62992,8 +63262,11 @@
       <c r="HS91" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="HT91" t="n">
+      <c r="HT91" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="HU91" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63680,8 +63953,11 @@
       <c r="HS92" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="HT92" t="n">
+      <c r="HT92" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="HU92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64368,8 +64644,11 @@
       <c r="HS93" s="1" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="HT93" t="n">
+      <c r="HT93" s="1" t="n">
         <v>74.7</v>
+      </c>
+      <c r="HU93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65056,8 +65335,11 @@
       <c r="HS94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HT94" t="n">
+      <c r="HT94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HU94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -65744,8 +66026,11 @@
       <c r="HS95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT95" t="n">
+      <c r="HT95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -66432,8 +66717,11 @@
       <c r="HS96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT96" t="n">
+      <c r="HT96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HU96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67120,7 +67408,10 @@
       <c r="HS97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HT97" t="n">
+      <c r="HT97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HU97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -67808,8 +68099,11 @@
       <c r="HS98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HT98" t="n">
+      <c r="HT98" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -68496,8 +68790,11 @@
       <c r="HS99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HT99" t="n">
+      <c r="HT99" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HU99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -69184,8 +69481,11 @@
       <c r="HS100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT100" t="n">
+      <c r="HT100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69872,8 +70172,11 @@
       <c r="HS101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT101" t="n">
+      <c r="HT101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HU101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70560,8 +70863,11 @@
       <c r="HS102" s="1" t="n">
         <v>84.2</v>
       </c>
-      <c r="HT102" t="n">
+      <c r="HT102" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="HU102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1078,8 +1078,11 @@
       <c r="HU1" s="1" t="n">
         <v>10399</v>
       </c>
-      <c r="HV1" t="n">
+      <c r="HV1" s="1" t="n">
         <v>10411</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10425</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1772,7 +1775,10 @@
       <c r="HU2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HV2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HW2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2466,8 +2472,11 @@
       <c r="HU3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HV3" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3160,8 +3169,11 @@
       <c r="HU4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HV4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3854,8 +3866,11 @@
       <c r="HU5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HV5" t="n">
+      <c r="HV5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4548,8 +4563,11 @@
       <c r="HU6" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HV6" t="n">
+      <c r="HV6" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5242,8 +5260,11 @@
       <c r="HU7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HV7" t="n">
+      <c r="HV7" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5936,8 +5957,11 @@
       <c r="HU8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV8" t="n">
+      <c r="HV8" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6630,7 +6654,10 @@
       <c r="HU9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HV9" t="n">
+      <c r="HV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,8 +7351,11 @@
       <c r="HU10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HV10" t="n">
+      <c r="HV10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8018,8 +8048,11 @@
       <c r="HU11" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="HV11" t="n">
+      <c r="HV11" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8712,8 +8745,11 @@
       <c r="HU12" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="HV12" t="n">
+      <c r="HV12" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9406,8 +9442,11 @@
       <c r="HU13" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="HV13" t="n">
+      <c r="HV13" s="1" t="n">
         <v>400</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10100,8 +10139,11 @@
       <c r="HU14" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="HV14" t="n">
+      <c r="HV14" s="1" t="n">
         <v>1.42</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10794,8 +10836,11 @@
       <c r="HU15" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="HV15" t="n">
+      <c r="HV15" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11488,8 +11533,11 @@
       <c r="HU16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HV16" t="n">
+      <c r="HV16" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12182,8 +12230,11 @@
       <c r="HU17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HV17" t="n">
+      <c r="HV17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12876,7 +12927,10 @@
       <c r="HU18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HV18" t="n">
+      <c r="HV18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HW18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -13570,8 +13624,11 @@
       <c r="HU19" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HV19" t="n">
+      <c r="HV19" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14264,8 +14321,11 @@
       <c r="HU20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV20" t="n">
+      <c r="HV20" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14958,8 +15018,11 @@
       <c r="HU21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV21" t="n">
+      <c r="HV21" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15652,8 +15715,11 @@
       <c r="HU22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV22" t="n">
+      <c r="HV22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16346,8 +16412,11 @@
       <c r="HU23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HV23" t="n">
+      <c r="HV23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17040,8 +17109,11 @@
       <c r="HU24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HV24" t="n">
+      <c r="HV24" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17734,8 +17806,11 @@
       <c r="HU25" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HV25" t="n">
+      <c r="HV25" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18428,8 +18503,11 @@
       <c r="HU26" s="1" t="n">
         <v>37.8</v>
       </c>
-      <c r="HV26" t="n">
+      <c r="HV26" s="1" t="n">
         <v>18.18</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>31.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19122,8 +19200,11 @@
       <c r="HU27" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HV27" t="n">
+      <c r="HV27" s="1" t="n">
         <v>12.9</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>13.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19816,8 +19897,11 @@
       <c r="HU28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HV28" t="n">
+      <c r="HV28" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20510,8 +20594,11 @@
       <c r="HU29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HV29" t="n">
+      <c r="HV29" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21204,8 +21291,11 @@
       <c r="HU30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HV30" t="n">
+      <c r="HV30" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21898,8 +21988,11 @@
       <c r="HU31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HV31" t="n">
+      <c r="HV31" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22592,8 +22685,11 @@
       <c r="HU32" s="1" t="n">
         <v>2.61</v>
       </c>
-      <c r="HV32" t="n">
+      <c r="HV32" s="1" t="n">
         <v>1.61</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23286,8 +23382,11 @@
       <c r="HU33" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="HV33" t="n">
+      <c r="HV33" s="1" t="n">
         <v>2.27</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23980,8 +24079,11 @@
       <c r="HU34" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="HV34" t="n">
+      <c r="HV34" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24674,8 +24776,11 @@
       <c r="HU35" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="HV35" t="n">
+      <c r="HV35" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25368,8 +25473,11 @@
       <c r="HU36" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="HV36" t="n">
+      <c r="HV36" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26062,8 +26170,11 @@
       <c r="HU37" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HV37" t="n">
+      <c r="HV37" s="1" t="n">
         <v>85.8</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26756,7 +26867,10 @@
       <c r="HU38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HV38" t="n">
+      <c r="HV38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HW38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -27450,8 +27564,11 @@
       <c r="HU39" s="1" t="n">
         <v>79.8</v>
       </c>
-      <c r="HV39" t="n">
+      <c r="HV39" s="1" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28144,7 +28261,10 @@
       <c r="HU40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV40" t="n">
+      <c r="HV40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -28838,8 +28958,11 @@
       <c r="HU41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HV41" t="n">
+      <c r="HV41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29532,8 +29655,11 @@
       <c r="HU42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HV42" t="n">
+      <c r="HV42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -30226,7 +30352,10 @@
       <c r="HU43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV43" t="n">
+      <c r="HV43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30920,8 +31049,11 @@
       <c r="HU44" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="HV44" t="n">
+      <c r="HV44" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31614,8 +31746,11 @@
       <c r="HU45" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="HV45" t="n">
+      <c r="HV45" s="1" t="n">
         <v>290</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32308,8 +32443,11 @@
       <c r="HU46" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="HV46" t="n">
+      <c r="HV46" s="1" t="n">
         <v>332</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33002,8 +33140,11 @@
       <c r="HU47" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HV47" t="n">
+      <c r="HV47" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33696,8 +33837,11 @@
       <c r="HU48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HV48" t="n">
+      <c r="HV48" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34390,8 +34534,11 @@
       <c r="HU49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HV49" t="n">
+      <c r="HV49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35084,8 +35231,11 @@
       <c r="HU50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HV50" t="n">
+      <c r="HV50" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35778,8 +35928,11 @@
       <c r="HU51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HV51" t="n">
+      <c r="HV51" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36472,8 +36625,11 @@
       <c r="HU52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HV52" t="n">
+      <c r="HV52" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37166,8 +37322,11 @@
       <c r="HU53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HV53" t="n">
+      <c r="HV53" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37860,8 +38019,11 @@
       <c r="HU54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HV54" t="n">
+      <c r="HV54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38554,8 +38716,11 @@
       <c r="HU55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV55" t="n">
+      <c r="HV55" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39248,8 +39413,11 @@
       <c r="HU56" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HV56" t="n">
+      <c r="HV56" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39942,8 +40110,11 @@
       <c r="HU57" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="HV57" t="n">
+      <c r="HV57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40636,8 +40807,11 @@
       <c r="HU58" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="HV58" t="n">
+      <c r="HV58" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41330,8 +41504,11 @@
       <c r="HU59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="HV59" t="n">
+      <c r="HV59" s="1" t="n">
         <v>361</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42024,8 +42201,11 @@
       <c r="HU60" s="1" t="n">
         <v>1.22</v>
       </c>
-      <c r="HV60" t="n">
+      <c r="HV60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42718,8 +42898,11 @@
       <c r="HU61" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="HV61" t="n">
+      <c r="HV61" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43412,8 +43595,11 @@
       <c r="HU62" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HV62" t="n">
+      <c r="HV62" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44106,8 +44292,11 @@
       <c r="HU63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HV63" t="n">
+      <c r="HV63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44800,8 +44989,11 @@
       <c r="HU64" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HV64" t="n">
+      <c r="HV64" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45494,7 +45686,10 @@
       <c r="HU65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HV65" t="n">
+      <c r="HV65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HW65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -46188,8 +46383,11 @@
       <c r="HU66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV66" t="n">
+      <c r="HV66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46882,8 +47080,11 @@
       <c r="HU67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV67" t="n">
+      <c r="HV67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47576,8 +47777,11 @@
       <c r="HU68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HV68" t="n">
+      <c r="HV68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48270,8 +48474,11 @@
       <c r="HU69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HV69" t="n">
+      <c r="HV69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48964,8 +49171,11 @@
       <c r="HU70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HV70" t="n">
+      <c r="HV70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49658,8 +49868,11 @@
       <c r="HU71" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="HV71" t="n">
+      <c r="HV71" s="1" t="n">
         <v>52.6</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50352,8 +50565,11 @@
       <c r="HU72" s="1" t="n">
         <v>47.62</v>
       </c>
-      <c r="HV72" t="n">
+      <c r="HV72" s="1" t="n">
         <v>36.1</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>33.09</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51046,8 +51262,11 @@
       <c r="HU73" s="1" t="n">
         <v>18.14</v>
       </c>
-      <c r="HV73" t="n">
+      <c r="HV73" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>22.75</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51740,8 +51959,11 @@
       <c r="HU74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV74" t="n">
+      <c r="HV74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52434,8 +52656,11 @@
       <c r="HU75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HV75" t="n">
+      <c r="HV75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53128,8 +53353,11 @@
       <c r="HU76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV76" t="n">
+      <c r="HV76" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53822,8 +54050,11 @@
       <c r="HU77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HV77" t="n">
+      <c r="HV77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54516,8 +54747,11 @@
       <c r="HU78" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="HV78" t="n">
+      <c r="HV78" s="1" t="n">
         <v>2.68</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55210,8 +55444,11 @@
       <c r="HU79" s="1" t="n">
         <v>6.12</v>
       </c>
-      <c r="HV79" t="n">
+      <c r="HV79" s="1" t="n">
         <v>5.1</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55904,8 +56141,11 @@
       <c r="HU80" s="1" t="n">
         <v>38.8</v>
       </c>
-      <c r="HV80" t="n">
+      <c r="HV80" s="1" t="n">
         <v>31.4</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56598,8 +56838,11 @@
       <c r="HU81" s="1" t="n">
         <v>16.3</v>
       </c>
-      <c r="HV81" t="n">
+      <c r="HV81" s="1" t="n">
         <v>19.6</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57292,8 +57535,11 @@
       <c r="HU82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="HV82" t="n">
+      <c r="HV82" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57986,8 +58232,11 @@
       <c r="HU83" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="HV83" t="n">
+      <c r="HV83" s="1" t="n">
         <v>85.2</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58680,8 +58929,11 @@
       <c r="HU84" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="HV84" t="n">
+      <c r="HV84" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59374,8 +59626,11 @@
       <c r="HU85" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="HV85" t="n">
+      <c r="HV85" s="1" t="n">
         <v>84.5</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>120.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60068,8 +60323,11 @@
       <c r="HU86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HV86" t="n">
+      <c r="HV86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -60762,8 +61020,11 @@
       <c r="HU87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HV87" t="n">
+      <c r="HV87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -61456,8 +61717,11 @@
       <c r="HU88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HV88" t="n">
+      <c r="HV88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62150,8 +62414,11 @@
       <c r="HU89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HV89" t="n">
+      <c r="HV89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62844,8 +63111,11 @@
       <c r="HU90" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HV90" t="n">
+      <c r="HV90" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63538,8 +63808,11 @@
       <c r="HU91" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="HV91" t="n">
+      <c r="HV91" s="1" t="n">
         <v>246</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64232,8 +64505,11 @@
       <c r="HU92" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="HV92" t="n">
+      <c r="HV92" s="1" t="n">
         <v>290</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64926,8 +65202,11 @@
       <c r="HU93" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HV93" t="n">
+      <c r="HV93" s="1" t="n">
         <v>80.3</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65620,8 +65899,11 @@
       <c r="HU94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HV94" t="n">
+      <c r="HV94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66314,8 +66596,11 @@
       <c r="HU95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV95" t="n">
+      <c r="HV95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67008,8 +67293,11 @@
       <c r="HU96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HV96" t="n">
+      <c r="HV96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67702,8 +67990,11 @@
       <c r="HU97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV97" t="n">
+      <c r="HV97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68396,8 +68687,11 @@
       <c r="HU98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV98" t="n">
+      <c r="HV98" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69090,8 +69384,11 @@
       <c r="HU99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HV99" t="n">
+      <c r="HV99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -69784,8 +70081,11 @@
       <c r="HU100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HV100" t="n">
+      <c r="HV100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -70478,8 +70778,11 @@
       <c r="HU101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV101" t="n">
+      <c r="HV101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71172,8 +71475,11 @@
       <c r="HU102" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="HV102" t="n">
+      <c r="HV102" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1081,8 +1081,11 @@
       <c r="HV1" s="1" t="n">
         <v>10411</v>
       </c>
-      <c r="HW1" t="n">
+      <c r="HW1" s="1" t="n">
         <v>10425</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10427</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1778,7 +1781,10 @@
       <c r="HV2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HW2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HX2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2475,8 +2481,11 @@
       <c r="HV3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HW3" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3172,8 +3181,11 @@
       <c r="HV4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HW4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3869,7 +3881,10 @@
       <c r="HV5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="HW5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,8 +4581,11 @@
       <c r="HV6" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="HW6" t="n">
+      <c r="HW6" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5263,8 +5281,11 @@
       <c r="HV7" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HW7" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5960,8 +5981,11 @@
       <c r="HV8" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HW8" t="n">
+      <c r="HW8" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>-39</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6657,8 +6681,11 @@
       <c r="HV9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW9" t="n">
+      <c r="HW9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7354,8 +7381,11 @@
       <c r="HV10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HW10" t="n">
+      <c r="HW10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8051,8 +8081,11 @@
       <c r="HV11" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="HW11" t="n">
+      <c r="HW11" s="1" t="n">
         <v>236</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8748,8 +8781,11 @@
       <c r="HV12" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="HW12" t="n">
+      <c r="HW12" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9445,8 +9481,11 @@
       <c r="HV13" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="HW13" t="n">
+      <c r="HW13" s="1" t="n">
         <v>376</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10142,8 +10181,11 @@
       <c r="HV14" s="1" t="n">
         <v>1.42</v>
       </c>
-      <c r="HW14" t="n">
+      <c r="HW14" s="1" t="n">
         <v>1.69</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10839,8 +10881,11 @@
       <c r="HV15" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HW15" t="n">
+      <c r="HW15" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11536,8 +11581,11 @@
       <c r="HV16" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HW16" t="n">
+      <c r="HW16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12233,8 +12281,11 @@
       <c r="HV17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HW17" t="n">
+      <c r="HW17" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12930,8 +12981,11 @@
       <c r="HV18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HW18" t="n">
+      <c r="HW18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13627,8 +13681,11 @@
       <c r="HV19" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HW19" t="n">
+      <c r="HW19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14324,7 +14381,10 @@
       <c r="HV20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HW20" t="n">
+      <c r="HW20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HX20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -15021,8 +15081,11 @@
       <c r="HV21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HW21" t="n">
+      <c r="HW21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15718,8 +15781,11 @@
       <c r="HV22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW22" t="n">
+      <c r="HW22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16415,8 +16481,11 @@
       <c r="HV23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW23" t="n">
+      <c r="HW23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17112,8 +17181,11 @@
       <c r="HV24" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HW24" t="n">
+      <c r="HW24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17809,8 +17881,11 @@
       <c r="HV25" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="HW25" t="n">
+      <c r="HW25" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18506,8 +18581,11 @@
       <c r="HV26" s="1" t="n">
         <v>18.18</v>
       </c>
-      <c r="HW26" t="n">
+      <c r="HW26" s="1" t="n">
         <v>31.33</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19203,8 +19281,11 @@
       <c r="HV27" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="HW27" t="n">
+      <c r="HW27" s="1" t="n">
         <v>13.93</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19900,8 +19981,11 @@
       <c r="HV28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HW28" t="n">
+      <c r="HW28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20597,8 +20681,11 @@
       <c r="HV29" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HW29" t="n">
+      <c r="HW29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21294,8 +21381,11 @@
       <c r="HV30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HW30" t="n">
+      <c r="HW30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21991,8 +22081,11 @@
       <c r="HV31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HW31" t="n">
+      <c r="HW31" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22688,8 +22781,11 @@
       <c r="HV32" s="1" t="n">
         <v>1.61</v>
       </c>
-      <c r="HW32" t="n">
+      <c r="HW32" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23385,8 +23481,11 @@
       <c r="HV33" s="1" t="n">
         <v>2.27</v>
       </c>
-      <c r="HW33" t="n">
+      <c r="HW33" s="1" t="n">
         <v>4.75</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24082,8 +24181,11 @@
       <c r="HV34" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HW34" t="n">
+      <c r="HW34" s="1" t="n">
         <v>43.9</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24779,8 +24881,11 @@
       <c r="HV35" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HW35" t="n">
+      <c r="HW35" s="1" t="n">
         <v>21.1</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25476,8 +25581,11 @@
       <c r="HV36" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="HW36" t="n">
+      <c r="HW36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26173,8 +26281,11 @@
       <c r="HV37" s="1" t="n">
         <v>85.8</v>
       </c>
-      <c r="HW37" t="n">
+      <c r="HW37" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26870,8 +26981,11 @@
       <c r="HV38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="HW38" t="n">
+      <c r="HW38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27567,8 +27681,11 @@
       <c r="HV39" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="HW39" t="n">
+      <c r="HW39" s="1" t="n">
         <v>78.8</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28264,7 +28381,10 @@
       <c r="HV40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW40" t="n">
+      <c r="HW40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -28961,8 +29081,11 @@
       <c r="HV41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW41" t="n">
+      <c r="HW41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29658,7 +29781,10 @@
       <c r="HV42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HW42" t="n">
+      <c r="HW42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30355,7 +30481,10 @@
       <c r="HV43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW43" t="n">
+      <c r="HW43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31052,8 +31181,11 @@
       <c r="HV44" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="HW44" t="n">
+      <c r="HW44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31749,8 +31881,11 @@
       <c r="HV45" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="HW45" t="n">
+      <c r="HW45" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32446,8 +32581,11 @@
       <c r="HV46" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="HW46" t="n">
+      <c r="HW46" s="1" t="n">
         <v>282</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33143,8 +33281,11 @@
       <c r="HV47" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HW47" t="n">
+      <c r="HW47" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33840,8 +33981,11 @@
       <c r="HV48" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HW48" t="n">
+      <c r="HW48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34537,8 +34681,11 @@
       <c r="HV49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HW49" t="n">
+      <c r="HW49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35234,8 +35381,11 @@
       <c r="HV50" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HW50" t="n">
+      <c r="HW50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35931,8 +36081,11 @@
       <c r="HV51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HW51" t="n">
+      <c r="HW51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36628,8 +36781,11 @@
       <c r="HV52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HW52" t="n">
+      <c r="HW52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37325,8 +37481,11 @@
       <c r="HV53" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HW53" t="n">
+      <c r="HW53" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38022,8 +38181,11 @@
       <c r="HV54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW54" t="n">
+      <c r="HW54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38719,8 +38881,11 @@
       <c r="HV55" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HW55" t="n">
+      <c r="HW55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39416,8 +39581,11 @@
       <c r="HV56" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="HW56" t="n">
+      <c r="HW56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40113,8 +40281,11 @@
       <c r="HV57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="HW57" t="n">
+      <c r="HW57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40810,8 +40981,11 @@
       <c r="HV58" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="HW58" t="n">
+      <c r="HW58" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41507,8 +41681,11 @@
       <c r="HV59" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="HW59" t="n">
+      <c r="HW59" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42204,8 +42381,11 @@
       <c r="HV60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="HW60" t="n">
+      <c r="HW60" s="1" t="n">
         <v>1.49</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42901,8 +43081,11 @@
       <c r="HV61" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="HW61" t="n">
+      <c r="HW61" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43598,7 +43781,10 @@
       <c r="HV62" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HW62" t="n">
+      <c r="HW62" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HX62" t="n">
         <v>46</v>
       </c>
     </row>
@@ -44295,8 +44481,11 @@
       <c r="HV63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HW63" t="n">
+      <c r="HW63" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44992,8 +45181,11 @@
       <c r="HV64" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HW64" t="n">
+      <c r="HW64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45689,8 +45881,11 @@
       <c r="HV65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HW65" t="n">
+      <c r="HW65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46386,8 +46581,11 @@
       <c r="HV66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW66" t="n">
+      <c r="HW66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47083,8 +47281,11 @@
       <c r="HV67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW67" t="n">
+      <c r="HW67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47780,8 +47981,11 @@
       <c r="HV68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HW68" t="n">
+      <c r="HW68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48477,8 +48681,11 @@
       <c r="HV69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW69" t="n">
+      <c r="HW69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -49174,8 +49381,11 @@
       <c r="HV70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HW70" t="n">
+      <c r="HW70" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49871,8 +50081,11 @@
       <c r="HV71" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="HW71" t="n">
+      <c r="HW71" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50568,8 +50781,11 @@
       <c r="HV72" s="1" t="n">
         <v>36.1</v>
       </c>
-      <c r="HW72" t="n">
+      <c r="HW72" s="1" t="n">
         <v>33.09</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51265,8 +51481,11 @@
       <c r="HV73" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HW73" t="n">
+      <c r="HW73" s="1" t="n">
         <v>22.75</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>13.57</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51962,8 +52181,11 @@
       <c r="HV74" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HW74" t="n">
+      <c r="HW74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52659,8 +52881,11 @@
       <c r="HV75" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HW75" t="n">
+      <c r="HW75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53356,8 +53581,11 @@
       <c r="HV76" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HW76" t="n">
+      <c r="HW76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54053,8 +54281,11 @@
       <c r="HV77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HW77" t="n">
+      <c r="HW77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54750,8 +54981,11 @@
       <c r="HV78" s="1" t="n">
         <v>2.68</v>
       </c>
-      <c r="HW78" t="n">
+      <c r="HW78" s="1" t="n">
         <v>2.81</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55447,8 +55681,11 @@
       <c r="HV79" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="HW79" t="n">
+      <c r="HW79" s="1" t="n">
         <v>4.09</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56144,8 +56381,11 @@
       <c r="HV80" s="1" t="n">
         <v>31.4</v>
       </c>
-      <c r="HW80" t="n">
+      <c r="HW80" s="1" t="n">
         <v>35.6</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56841,8 +57081,11 @@
       <c r="HV81" s="1" t="n">
         <v>19.6</v>
       </c>
-      <c r="HW81" t="n">
+      <c r="HW81" s="1" t="n">
         <v>24.4</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57538,8 +57781,11 @@
       <c r="HV82" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="HW82" t="n">
+      <c r="HW82" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>185.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58235,8 +58481,11 @@
       <c r="HV83" s="1" t="n">
         <v>85.2</v>
       </c>
-      <c r="HW83" t="n">
+      <c r="HW83" s="1" t="n">
         <v>88.40000000000001</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58932,8 +59181,11 @@
       <c r="HV84" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HW84" t="n">
+      <c r="HW84" s="1" t="n">
         <v>26.49</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59629,8 +59881,11 @@
       <c r="HV85" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="HW85" t="n">
+      <c r="HW85" s="1" t="n">
         <v>120.4</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60326,8 +60581,11 @@
       <c r="HV86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HW86" t="n">
+      <c r="HW86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61023,8 +61281,11 @@
       <c r="HV87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW87" t="n">
+      <c r="HW87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -61720,8 +61981,11 @@
       <c r="HV88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW88" t="n">
+      <c r="HW88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62417,7 +62681,10 @@
       <c r="HV89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW89" t="n">
+      <c r="HW89" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX89" t="n">
         <v>9</v>
       </c>
     </row>
@@ -63114,8 +63381,11 @@
       <c r="HV90" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="HW90" t="n">
+      <c r="HW90" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63811,8 +64081,11 @@
       <c r="HV91" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="HW91" t="n">
+      <c r="HW91" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64508,8 +64781,11 @@
       <c r="HV92" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="HW92" t="n">
+      <c r="HW92" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65205,8 +65481,11 @@
       <c r="HV93" s="1" t="n">
         <v>80.3</v>
       </c>
-      <c r="HW93" t="n">
+      <c r="HW93" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65902,8 +66181,11 @@
       <c r="HV94" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HW94" t="n">
+      <c r="HW94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66599,8 +66881,11 @@
       <c r="HV95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HW95" t="n">
+      <c r="HW95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67296,8 +67581,11 @@
       <c r="HV96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HW96" t="n">
+      <c r="HW96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67993,8 +68281,11 @@
       <c r="HV97" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HW97" t="n">
+      <c r="HW97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68690,8 +68981,11 @@
       <c r="HV98" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HW98" t="n">
+      <c r="HW98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69387,8 +69681,11 @@
       <c r="HV99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HW99" t="n">
+      <c r="HW99" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70084,8 +70381,11 @@
       <c r="HV100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HW100" t="n">
+      <c r="HW100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -70781,8 +71081,11 @@
       <c r="HV101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW101" t="n">
+      <c r="HW101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71478,8 +71781,11 @@
       <c r="HV102" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="HW102" t="n">
+      <c r="HW102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>84.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1084,8 +1084,11 @@
       <c r="HW1" s="1" t="n">
         <v>10425</v>
       </c>
-      <c r="HX1" t="n">
+      <c r="HX1" s="1" t="n">
         <v>10427</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10441</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1784,7 +1787,10 @@
       <c r="HW2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HX2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HY2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2484,8 +2490,11 @@
       <c r="HW3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HX3" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3184,8 +3193,11 @@
       <c r="HW4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HX4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3884,7 +3896,10 @@
       <c r="HW5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="HX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,8 +4599,11 @@
       <c r="HW6" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="HX6" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5284,8 +5302,11 @@
       <c r="HW7" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="HX7" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5984,8 +6005,11 @@
       <c r="HW8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX8" t="n">
+      <c r="HX8" s="1" t="n">
         <v>-39</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6684,8 +6708,11 @@
       <c r="HW9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX9" t="n">
+      <c r="HX9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7384,8 +7411,11 @@
       <c r="HW10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HX10" t="n">
+      <c r="HX10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8084,8 +8114,11 @@
       <c r="HW11" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="HX11" t="n">
+      <c r="HX11" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8784,8 +8817,11 @@
       <c r="HW12" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HX12" t="n">
+      <c r="HX12" s="1" t="n">
         <v>152</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9484,8 +9520,11 @@
       <c r="HW13" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="HX13" t="n">
+      <c r="HX13" s="1" t="n">
         <v>348</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10184,8 +10223,11 @@
       <c r="HW14" s="1" t="n">
         <v>1.69</v>
       </c>
-      <c r="HX14" t="n">
+      <c r="HX14" s="1" t="n">
         <v>1.29</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10884,8 +10926,11 @@
       <c r="HW15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="HX15" t="n">
+      <c r="HX15" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11584,8 +11629,11 @@
       <c r="HW16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HX16" t="n">
+      <c r="HX16" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12284,8 +12332,11 @@
       <c r="HW17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HX17" t="n">
+      <c r="HX17" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12984,8 +13035,11 @@
       <c r="HW18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HX18" t="n">
+      <c r="HX18" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13684,8 +13738,11 @@
       <c r="HW19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX19" t="n">
+      <c r="HX19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14384,8 +14441,11 @@
       <c r="HW20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX20" t="n">
+      <c r="HX20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15084,8 +15144,11 @@
       <c r="HW21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX21" t="n">
+      <c r="HX21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15784,8 +15847,11 @@
       <c r="HW22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HX22" t="n">
+      <c r="HX22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16484,8 +16550,11 @@
       <c r="HW23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HX23" t="n">
+      <c r="HX23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17184,8 +17253,11 @@
       <c r="HW24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HX24" t="n">
+      <c r="HX24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17884,8 +17956,11 @@
       <c r="HW25" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="HX25" t="n">
+      <c r="HX25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18584,8 +18659,11 @@
       <c r="HW26" s="1" t="n">
         <v>31.33</v>
       </c>
-      <c r="HX26" t="n">
+      <c r="HX26" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19284,8 +19362,11 @@
       <c r="HW27" s="1" t="n">
         <v>13.93</v>
       </c>
-      <c r="HX27" t="n">
+      <c r="HX27" s="1" t="n">
         <v>14.5</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19984,8 +20065,11 @@
       <c r="HW28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HX28" t="n">
+      <c r="HX28" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20684,8 +20768,11 @@
       <c r="HW29" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HX29" t="n">
+      <c r="HX29" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21384,8 +21471,11 @@
       <c r="HW30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HX30" t="n">
+      <c r="HX30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22084,8 +22174,11 @@
       <c r="HW31" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HX31" t="n">
+      <c r="HX31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22784,8 +22877,11 @@
       <c r="HW32" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="HX32" t="n">
+      <c r="HX32" s="1" t="n">
         <v>2.21</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23484,8 +23580,11 @@
       <c r="HW33" s="1" t="n">
         <v>4.75</v>
       </c>
-      <c r="HX33" t="n">
+      <c r="HX33" s="1" t="n">
         <v>4.42</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24184,8 +24283,11 @@
       <c r="HW34" s="1" t="n">
         <v>43.9</v>
       </c>
-      <c r="HX34" t="n">
+      <c r="HX34" s="1" t="n">
         <v>39.6</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24884,8 +24986,11 @@
       <c r="HW35" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="HX35" t="n">
+      <c r="HX35" s="1" t="n">
         <v>22.6</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>27.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25584,8 +25689,11 @@
       <c r="HW36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HX36" t="n">
+      <c r="HX36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26284,8 +26392,11 @@
       <c r="HW37" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="HX37" t="n">
+      <c r="HX37" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26984,8 +27095,11 @@
       <c r="HW38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="HX38" t="n">
+      <c r="HX38" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27684,8 +27798,11 @@
       <c r="HW39" s="1" t="n">
         <v>78.8</v>
       </c>
-      <c r="HX39" t="n">
+      <c r="HX39" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28384,7 +28501,10 @@
       <c r="HW40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX40" t="n">
+      <c r="HX40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -29084,8 +29204,11 @@
       <c r="HW41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX41" t="n">
+      <c r="HX41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29784,7 +29907,10 @@
       <c r="HW42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HX42" t="n">
+      <c r="HX42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30484,7 +30610,10 @@
       <c r="HW43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX43" t="n">
+      <c r="HX43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31184,8 +31313,11 @@
       <c r="HW44" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="HX44" t="n">
+      <c r="HX44" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31884,8 +32016,11 @@
       <c r="HW45" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="HX45" t="n">
+      <c r="HX45" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32584,8 +32719,11 @@
       <c r="HW46" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="HX46" t="n">
+      <c r="HX46" s="1" t="n">
         <v>262</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33284,8 +33422,11 @@
       <c r="HW47" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HX47" t="n">
+      <c r="HX47" s="1" t="n">
         <v>75.3</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33984,8 +34125,11 @@
       <c r="HW48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HX48" t="n">
+      <c r="HX48" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34684,8 +34828,11 @@
       <c r="HW49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX49" t="n">
+      <c r="HX49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35384,8 +35531,11 @@
       <c r="HW50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HX50" t="n">
+      <c r="HX50" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36084,8 +36234,11 @@
       <c r="HW51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HX51" t="n">
+      <c r="HX51" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36784,8 +36937,11 @@
       <c r="HW52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HX52" t="n">
+      <c r="HX52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37484,8 +37640,11 @@
       <c r="HW53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HX53" t="n">
+      <c r="HX53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38184,8 +38343,11 @@
       <c r="HW54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX54" t="n">
+      <c r="HX54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38884,8 +39046,11 @@
       <c r="HW55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX55" t="n">
+      <c r="HX55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39584,8 +39749,11 @@
       <c r="HW56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HX56" t="n">
+      <c r="HX56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40284,8 +40452,11 @@
       <c r="HW57" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="HX57" t="n">
+      <c r="HX57" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40984,8 +41155,11 @@
       <c r="HW58" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HX58" t="n">
+      <c r="HX58" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41684,8 +41858,11 @@
       <c r="HW59" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="HX59" t="n">
+      <c r="HX59" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42384,8 +42561,11 @@
       <c r="HW60" s="1" t="n">
         <v>1.49</v>
       </c>
-      <c r="HX60" t="n">
+      <c r="HX60" s="1" t="n">
         <v>1.53</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43084,8 +43264,11 @@
       <c r="HW61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HX61" t="n">
+      <c r="HX61" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43784,8 +43967,11 @@
       <c r="HW62" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HX62" t="n">
+      <c r="HX62" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44484,8 +44670,11 @@
       <c r="HW63" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HX63" t="n">
+      <c r="HX63" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45184,8 +45373,11 @@
       <c r="HW64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX64" t="n">
+      <c r="HX64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45884,8 +46076,11 @@
       <c r="HW65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HX65" t="n">
+      <c r="HX65" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46584,8 +46779,11 @@
       <c r="HW66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX66" t="n">
+      <c r="HX66" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47284,8 +47482,11 @@
       <c r="HW67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HX67" t="n">
+      <c r="HX67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47984,8 +48185,11 @@
       <c r="HW68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX68" t="n">
+      <c r="HX68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48684,8 +48888,11 @@
       <c r="HW69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX69" t="n">
+      <c r="HX69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -49384,8 +49591,11 @@
       <c r="HW70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX70" t="n">
+      <c r="HX70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50084,8 +50294,11 @@
       <c r="HW71" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="HX71" t="n">
+      <c r="HX71" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50784,8 +50997,11 @@
       <c r="HW72" s="1" t="n">
         <v>33.09</v>
       </c>
-      <c r="HX72" t="n">
+      <c r="HX72" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51484,8 +51700,11 @@
       <c r="HW73" s="1" t="n">
         <v>22.75</v>
       </c>
-      <c r="HX73" t="n">
+      <c r="HX73" s="1" t="n">
         <v>13.57</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>15.74</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52184,8 +52403,11 @@
       <c r="HW74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HX74" t="n">
+      <c r="HX74" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52884,8 +53106,11 @@
       <c r="HW75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HX75" t="n">
+      <c r="HX75" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53584,8 +53809,11 @@
       <c r="HW76" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HX76" t="n">
+      <c r="HX76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54284,8 +54512,11 @@
       <c r="HW77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HX77" t="n">
+      <c r="HX77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54984,8 +55215,11 @@
       <c r="HW78" s="1" t="n">
         <v>2.81</v>
       </c>
-      <c r="HX78" t="n">
+      <c r="HX78" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55684,8 +55918,11 @@
       <c r="HW79" s="1" t="n">
         <v>4.09</v>
       </c>
-      <c r="HX79" t="n">
+      <c r="HX79" s="1" t="n">
         <v>2.74</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56384,8 +56621,11 @@
       <c r="HW80" s="1" t="n">
         <v>35.6</v>
       </c>
-      <c r="HX80" t="n">
+      <c r="HX80" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57084,8 +57324,11 @@
       <c r="HW81" s="1" t="n">
         <v>24.4</v>
       </c>
-      <c r="HX81" t="n">
+      <c r="HX81" s="1" t="n">
         <v>36.5</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57784,8 +58027,11 @@
       <c r="HW82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HX82" t="n">
+      <c r="HX82" s="1" t="n">
         <v>185.3</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58484,8 +58730,11 @@
       <c r="HW83" s="1" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="HX83" t="n">
+      <c r="HX83" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59184,8 +59433,11 @@
       <c r="HW84" s="1" t="n">
         <v>26.49</v>
       </c>
-      <c r="HX84" t="n">
+      <c r="HX84" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59884,8 +60136,11 @@
       <c r="HW85" s="1" t="n">
         <v>120.4</v>
       </c>
-      <c r="HX85" t="n">
+      <c r="HX85" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>108.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60584,8 +60839,11 @@
       <c r="HW86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HX86" t="n">
+      <c r="HX86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61284,7 +61542,10 @@
       <c r="HW87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX87" t="n">
+      <c r="HX87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -61984,8 +62245,11 @@
       <c r="HW88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX88" t="n">
+      <c r="HX88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62684,8 +62948,11 @@
       <c r="HW89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX89" t="n">
+      <c r="HX89" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63384,8 +63651,11 @@
       <c r="HW90" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="HX90" t="n">
+      <c r="HX90" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64084,8 +64354,11 @@
       <c r="HW91" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="HX91" t="n">
+      <c r="HX91" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64784,8 +65057,11 @@
       <c r="HW92" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="HX92" t="n">
+      <c r="HX92" s="1" t="n">
         <v>288</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65484,8 +65760,11 @@
       <c r="HW93" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HX93" t="n">
+      <c r="HX93" s="1" t="n">
         <v>75.8</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -66184,8 +66463,11 @@
       <c r="HW94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HX94" t="n">
+      <c r="HX94" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66884,8 +67166,11 @@
       <c r="HW95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX95" t="n">
+      <c r="HX95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67584,8 +67869,11 @@
       <c r="HW96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HX96" t="n">
+      <c r="HX96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -68284,8 +68572,11 @@
       <c r="HW97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HX97" t="n">
+      <c r="HX97" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68984,8 +69275,11 @@
       <c r="HW98" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HX98" t="n">
+      <c r="HX98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69684,7 +69978,10 @@
       <c r="HW99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HX99" t="n">
+      <c r="HX99" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HY99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -70384,8 +70681,11 @@
       <c r="HW100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX100" t="n">
+      <c r="HX100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -71084,8 +71384,11 @@
       <c r="HW101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HX101" t="n">
+      <c r="HX101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71784,8 +72087,11 @@
       <c r="HW102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="HX102" t="n">
+      <c r="HX102" s="1" t="n">
         <v>84.2</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1087,11 +1087,14 @@
       <c r="HX1" s="1" t="n">
         <v>10427</v>
       </c>
-      <c r="HY1" t="n">
+      <c r="HY1" s="1" t="n">
         <v>10441</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10447</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1790,11 +1793,14 @@
       <c r="HX2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HY2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2493,11 +2499,14 @@
       <c r="HX3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HY3" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3196,11 +3205,14 @@
       <c r="HX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HY4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3899,11 +3911,14 @@
       <c r="HX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="HY5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4602,11 +4617,14 @@
       <c r="HX6" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="HY6" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5305,11 +5323,14 @@
       <c r="HX7" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HY7" t="n">
+      <c r="HY7" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6008,11 +6029,14 @@
       <c r="HX8" s="1" t="n">
         <v>-39</v>
       </c>
-      <c r="HY8" t="n">
+      <c r="HY8" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-11</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6711,11 +6735,14 @@
       <c r="HX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HY9" t="n">
+      <c r="HY9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7414,11 +7441,14 @@
       <c r="HX10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HY10" t="n">
+      <c r="HY10" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8117,11 +8147,14 @@
       <c r="HX11" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="HY11" t="n">
+      <c r="HY11" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>205</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8820,11 +8853,14 @@
       <c r="HX12" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="HY12" t="n">
+      <c r="HY12" s="1" t="n">
         <v>138</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>192</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9523,11 +9559,14 @@
       <c r="HX13" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="HY13" t="n">
+      <c r="HY13" s="1" t="n">
         <v>338</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>397</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10226,11 +10265,14 @@
       <c r="HX14" s="1" t="n">
         <v>1.29</v>
       </c>
-      <c r="HY14" t="n">
+      <c r="HY14" s="1" t="n">
         <v>1.45</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.07</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10929,11 +10971,14 @@
       <c r="HX15" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HY15" t="n">
+      <c r="HY15" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>93</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11632,11 +11677,14 @@
       <c r="HX16" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HY16" t="n">
+      <c r="HY16" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>61</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12335,11 +12383,14 @@
       <c r="HX17" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HY17" t="n">
+      <c r="HY17" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13038,11 +13089,14 @@
       <c r="HX18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HY18" t="n">
+      <c r="HY18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13741,11 +13795,14 @@
       <c r="HX19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HY19" t="n">
+      <c r="HY19" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14444,11 +14501,14 @@
       <c r="HX20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HY20" t="n">
+      <c r="HY20" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15147,11 +15207,14 @@
       <c r="HX21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY21" t="n">
+      <c r="HY21" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15850,11 +15913,14 @@
       <c r="HX22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HY22" t="n">
+      <c r="HY22" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16553,11 +16619,14 @@
       <c r="HX23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HY23" t="n">
+      <c r="HY23" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17256,11 +17325,14 @@
       <c r="HX24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HY24" t="n">
+      <c r="HY24" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -17959,11 +18031,14 @@
       <c r="HX25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HY25" t="n">
+      <c r="HY25" s="1" t="n">
         <v>61.9</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -18662,11 +18737,14 @@
       <c r="HX26" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HY26" t="n">
+      <c r="HY26" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>49.62</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19365,11 +19443,14 @@
       <c r="HX27" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="HY27" t="n">
+      <c r="HY27" s="1" t="n">
         <v>16.1</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>23.35</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20068,11 +20149,14 @@
       <c r="HX28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY28" t="n">
+      <c r="HY28" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -20771,11 +20855,14 @@
       <c r="HX29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HY29" t="n">
+      <c r="HY29" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -21474,11 +21561,14 @@
       <c r="HX30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY30" t="n">
+      <c r="HY30" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22177,11 +22267,14 @@
       <c r="HX31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HY31" t="n">
+      <c r="HY31" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -22880,11 +22973,14 @@
       <c r="HX32" s="1" t="n">
         <v>2.21</v>
       </c>
-      <c r="HY32" t="n">
+      <c r="HY32" s="1" t="n">
         <v>2.24</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.94</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -23583,11 +23679,14 @@
       <c r="HX33" s="1" t="n">
         <v>4.42</v>
       </c>
-      <c r="HY33" t="n">
+      <c r="HY33" s="1" t="n">
         <v>3.62</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>6.25</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24286,11 +24385,14 @@
       <c r="HX34" s="1" t="n">
         <v>39.6</v>
       </c>
-      <c r="HY34" t="n">
+      <c r="HY34" s="1" t="n">
         <v>36.2</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -24989,11 +25091,14 @@
       <c r="HX35" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="HY35" t="n">
+      <c r="HY35" s="1" t="n">
         <v>27.7</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -25692,11 +25797,14 @@
       <c r="HX36" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="HY36" t="n">
+      <c r="HY36" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -26395,11 +26503,14 @@
       <c r="HX37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="HY37" t="n">
+      <c r="HY37" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27098,11 +27209,14 @@
       <c r="HX38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HY38" t="n">
+      <c r="HY38" s="1" t="n">
         <v>24.58</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -27801,11 +27915,14 @@
       <c r="HX39" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="HY39" t="n">
+      <c r="HY39" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>76.09999999999999</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -28504,11 +28621,14 @@
       <c r="HX40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HY40" t="n">
+      <c r="HY40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29207,11 +29327,14 @@
       <c r="HX41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HY41" t="n">
+      <c r="HY41" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -29910,11 +30033,14 @@
       <c r="HX42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HY42" t="n">
+      <c r="HY42" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -30613,11 +30739,14 @@
       <c r="HX43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY43" t="n">
+      <c r="HY43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -31316,11 +31445,14 @@
       <c r="HX44" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="HY44" t="n">
+      <c r="HY44" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>121</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32019,11 +32151,14 @@
       <c r="HX45" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="HY45" t="n">
+      <c r="HY45" s="1" t="n">
         <v>180</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -32722,11 +32857,14 @@
       <c r="HX46" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="HY46" t="n">
+      <c r="HY46" s="1" t="n">
         <v>232</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -33425,11 +33563,14 @@
       <c r="HX47" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="HY47" t="n">
+      <c r="HY47" s="1" t="n">
         <v>68.59999999999999</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34128,11 +34269,14 @@
       <c r="HX48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HY48" t="n">
+      <c r="HY48" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -34831,11 +34975,14 @@
       <c r="HX49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HY49" t="n">
+      <c r="HY49" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -35534,11 +35681,14 @@
       <c r="HX50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HY50" t="n">
+      <c r="HY50" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -36237,11 +36387,14 @@
       <c r="HX51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY51" t="n">
+      <c r="HY51" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -36940,11 +37093,14 @@
       <c r="HX52" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY52" t="n">
+      <c r="HY52" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -37643,11 +37799,14 @@
       <c r="HX53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HY53" t="n">
+      <c r="HY53" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -38346,11 +38505,14 @@
       <c r="HX54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY54" t="n">
+      <c r="HY54" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -39049,11 +39211,14 @@
       <c r="HX55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY55" t="n">
+      <c r="HY55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -39752,11 +39917,14 @@
       <c r="HX56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HY56" t="n">
+      <c r="HY56" s="1" t="n">
         <v>30.8</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -40455,11 +40623,14 @@
       <c r="HX57" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="HY57" t="n">
+      <c r="HY57" s="1" t="n">
         <v>216</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>225</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -41158,11 +41329,14 @@
       <c r="HX58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="HY58" t="n">
+      <c r="HY58" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>154</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -41861,11 +42035,14 @@
       <c r="HX59" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="HY59" t="n">
+      <c r="HY59" s="1" t="n">
         <v>362</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>379</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -42564,11 +42741,14 @@
       <c r="HX60" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="HY60" t="n">
+      <c r="HY60" s="1" t="n">
         <v>1.48</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>1.46</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -43267,11 +43447,14 @@
       <c r="HX61" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="HY61" t="n">
+      <c r="HY61" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>114</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -43970,11 +44153,14 @@
       <c r="HX62" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HY62" t="n">
+      <c r="HY62" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -44673,11 +44859,14 @@
       <c r="HX63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HY63" t="n">
+      <c r="HY63" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -45376,11 +45565,14 @@
       <c r="HX64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HY64" t="n">
+      <c r="HY64" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -46079,11 +46271,14 @@
       <c r="HX65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HY65" t="n">
+      <c r="HY65" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -46782,11 +46977,14 @@
       <c r="HX66" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HY66" t="n">
+      <c r="HY66" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -47485,11 +47683,14 @@
       <c r="HX67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HY67" t="n">
+      <c r="HY67" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -48188,11 +48389,14 @@
       <c r="HX68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY68" t="n">
+      <c r="HY68" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -48891,11 +49095,14 @@
       <c r="HX69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HY69" t="n">
+      <c r="HY69" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -49594,11 +49801,14 @@
       <c r="HX70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HY70" t="n">
+      <c r="HY70" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -50297,11 +50507,14 @@
       <c r="HX71" s="1" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="HY71" t="n">
+      <c r="HY71" s="1" t="n">
         <v>43.5</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>39.1</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -51000,11 +51213,14 @@
       <c r="HX72" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HY72" t="n">
+      <c r="HY72" s="1" t="n">
         <v>36.2</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>42.11</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -51703,11 +51919,14 @@
       <c r="HX73" s="1" t="n">
         <v>13.57</v>
       </c>
-      <c r="HY73" t="n">
+      <c r="HY73" s="1" t="n">
         <v>15.74</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>16.48</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -52406,11 +52625,14 @@
       <c r="HX74" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HY74" t="n">
+      <c r="HY74" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -53109,11 +53331,14 @@
       <c r="HX75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HY75" t="n">
+      <c r="HY75" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -53812,11 +54037,14 @@
       <c r="HX76" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HY76" t="n">
+      <c r="HY76" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -54515,11 +54743,14 @@
       <c r="HX77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HY77" t="n">
+      <c r="HY77" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -55218,11 +55449,14 @@
       <c r="HX78" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="HY78" t="n">
+      <c r="HY78" s="1" t="n">
         <v>2.17</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>2.43</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -55921,11 +56155,14 @@
       <c r="HX79" s="1" t="n">
         <v>2.74</v>
       </c>
-      <c r="HY79" t="n">
+      <c r="HY79" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>6.22</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -56624,11 +56861,14 @@
       <c r="HX80" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="HY80" t="n">
+      <c r="HY80" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>30.4</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -57327,11 +57567,14 @@
       <c r="HX81" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="HY81" t="n">
+      <c r="HY81" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>16.1</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -58030,11 +58273,14 @@
       <c r="HX82" s="1" t="n">
         <v>185.3</v>
       </c>
-      <c r="HY82" t="n">
+      <c r="HY82" s="1" t="n">
         <v>187.2</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -58733,11 +58979,14 @@
       <c r="HX83" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="HY83" t="n">
+      <c r="HY83" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -59436,11 +59685,14 @@
       <c r="HX84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HY84" t="n">
+      <c r="HY84" s="1" t="n">
         <v>25.24</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -60139,11 +60391,14 @@
       <c r="HX85" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HY85" t="n">
+      <c r="HY85" s="1" t="n">
         <v>108.9</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>90.59999999999999</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -60842,11 +61097,14 @@
       <c r="HX86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY86" t="n">
+      <c r="HY86" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -61545,11 +61803,14 @@
       <c r="HX87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY87" t="n">
+      <c r="HY87" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -62248,11 +62509,14 @@
       <c r="HX88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY88" t="n">
+      <c r="HY88" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -62951,11 +63215,14 @@
       <c r="HX89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HY89" t="n">
+      <c r="HY89" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -63654,11 +63921,14 @@
       <c r="HX90" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HY90" t="n">
+      <c r="HY90" s="1" t="n">
         <v>137</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>150</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -64357,11 +64627,14 @@
       <c r="HX91" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="HY91" t="n">
+      <c r="HY91" s="1" t="n">
         <v>226</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>228</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -65060,11 +65333,14 @@
       <c r="HX92" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="HY92" t="n">
+      <c r="HY92" s="1" t="n">
         <v>266</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>274</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -65763,11 +66039,14 @@
       <c r="HX93" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="HY93" t="n">
+      <c r="HY93" s="1" t="n">
         <v>73.5</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>72.3</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -66466,11 +66745,14 @@
       <c r="HX94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HY94" t="n">
+      <c r="HY94" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -67169,11 +67451,14 @@
       <c r="HX95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HY95" t="n">
+      <c r="HY95" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -67872,11 +68157,14 @@
       <c r="HX96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HY96" t="n">
+      <c r="HY96" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -68575,11 +68863,14 @@
       <c r="HX97" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HY97" t="n">
+      <c r="HY97" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -69278,11 +69569,14 @@
       <c r="HX98" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HY98" t="n">
+      <c r="HY98" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -69981,11 +70275,14 @@
       <c r="HX99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HY99" t="n">
+      <c r="HY99" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -70684,11 +70981,14 @@
       <c r="HX100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY100" t="n">
+      <c r="HY100" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -71387,11 +71687,14 @@
       <c r="HX101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HY101" t="n">
+      <c r="HY101" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -72090,13 +72393,16 @@
       <c r="HX102" s="1" t="n">
         <v>84.2</v>
       </c>
-      <c r="HY102" t="n">
+      <c r="HY102" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HZ102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GP77" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="GV100" activeCellId="0" pane="topLeft" sqref="GV100"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1090,11 +1090,14 @@
       <c r="HY1" s="1" t="n">
         <v>10441</v>
       </c>
-      <c r="HZ1" t="n">
+      <c r="HZ1" s="1" t="n">
         <v>10447</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10454</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1796,11 +1799,14 @@
       <c r="HY2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2502,11 +2508,14 @@
       <c r="HY3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA3" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3208,11 +3217,14 @@
       <c r="HY4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3914,11 +3926,14 @@
       <c r="HY5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4620,11 +4635,14 @@
       <c r="HY6" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="IA6" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5326,11 +5344,14 @@
       <c r="HY7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="IA7" t="n">
+        <v>98</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6032,11 +6053,14 @@
       <c r="HY8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8" s="1" t="n">
         <v>-11</v>
       </c>
+      <c r="IA8" t="n">
+        <v>-41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6738,11 +6762,14 @@
       <c r="HY9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7444,11 +7471,14 @@
       <c r="HY10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IA10" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8150,11 +8180,14 @@
       <c r="HY11" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11" s="1" t="n">
         <v>205</v>
       </c>
+      <c r="IA11" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8856,11 +8889,14 @@
       <c r="HY12" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="IA12" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9562,11 +9598,14 @@
       <c r="HY13" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13" s="1" t="n">
         <v>397</v>
       </c>
+      <c r="IA13" t="n">
+        <v>339</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10268,11 +10307,14 @@
       <c r="HY14" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14" s="1" t="n">
         <v>1.07</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10974,11 +11016,14 @@
       <c r="HY15" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="IA15" t="n">
+        <v>66</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11680,11 +11725,14 @@
       <c r="HY16" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="IA16" t="n">
+        <v>66</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12386,11 +12434,14 @@
       <c r="HY17" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="HZ17" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IA17" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13092,11 +13143,14 @@
       <c r="HY18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="HZ18" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IA18" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13798,11 +13852,14 @@
       <c r="HY19" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="HZ19" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA19" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14504,11 +14561,14 @@
       <c r="HY20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA20" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15210,11 +15270,14 @@
       <c r="HY21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA21" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15916,11 +15979,14 @@
       <c r="HY22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA22" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16622,11 +16688,14 @@
       <c r="HY23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IA23" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17328,11 +17397,14 @@
       <c r="HY24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="IA24" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18034,11 +18106,14 @@
       <c r="HY25" s="1" t="n">
         <v>61.9</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25" s="1" t="n">
         <v>47.1</v>
       </c>
+      <c r="IA25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -18740,11 +18815,14 @@
       <c r="HY26" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26" s="1" t="n">
         <v>49.62</v>
       </c>
+      <c r="IA26" t="n">
+        <v>42.38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19446,11 +19524,14 @@
       <c r="HY27" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27" s="1" t="n">
         <v>23.35</v>
       </c>
+      <c r="IA27" t="n">
+        <v>19.94</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20152,11 +20233,14 @@
       <c r="HY28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IA28" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -20858,11 +20942,14 @@
       <c r="HY29" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="IA29" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -21564,11 +21651,14 @@
       <c r="HY30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA30" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22270,11 +22360,14 @@
       <c r="HY31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="IA31" t="n">
+        <v>62</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -22976,11 +23069,14 @@
       <c r="HY32" s="1" t="n">
         <v>2.24</v>
       </c>
-      <c r="HZ32" t="n">
+      <c r="HZ32" s="1" t="n">
         <v>2.94</v>
       </c>
+      <c r="IA32" t="n">
+        <v>3.65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -23682,11 +23778,14 @@
       <c r="HY33" s="1" t="n">
         <v>3.62</v>
       </c>
-      <c r="HZ33" t="n">
+      <c r="HZ33" s="1" t="n">
         <v>6.25</v>
       </c>
+      <c r="IA33" t="n">
+        <v>7.75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24388,11 +24487,14 @@
       <c r="HY34" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="HZ34" t="n">
+      <c r="HZ34" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="IA34" t="n">
+        <v>22.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -25094,11 +25196,14 @@
       <c r="HY35" s="1" t="n">
         <v>27.7</v>
       </c>
-      <c r="HZ35" t="n">
+      <c r="HZ35" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="IA35" t="n">
+        <v>12.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -25800,11 +25905,14 @@
       <c r="HY36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="HZ36" t="n">
+      <c r="HZ36" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="IA36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -26506,11 +26614,14 @@
       <c r="HY37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HZ37" t="n">
+      <c r="HZ37" s="1" t="n">
         <v>86.5</v>
       </c>
+      <c r="IA37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27212,11 +27323,14 @@
       <c r="HY38" s="1" t="n">
         <v>24.58</v>
       </c>
-      <c r="HZ38" t="n">
+      <c r="HZ38" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -27918,11 +28032,14 @@
       <c r="HY39" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="HZ39" t="n">
+      <c r="HZ39" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
+      <c r="IA39" t="n">
+        <v>78.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -28624,11 +28741,14 @@
       <c r="HY40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ40" t="n">
+      <c r="HZ40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29330,11 +29450,14 @@
       <c r="HY41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ41" t="n">
+      <c r="HZ41" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA41" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -30036,11 +30159,14 @@
       <c r="HY42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ42" t="n">
+      <c r="HZ42" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IA42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -30742,11 +30868,14 @@
       <c r="HY43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ43" t="n">
+      <c r="HZ43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -31448,11 +31577,14 @@
       <c r="HY44" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="HZ44" t="n">
+      <c r="HZ44" s="1" t="n">
         <v>121</v>
       </c>
+      <c r="IA44" t="n">
+        <v>139</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32154,11 +32286,14 @@
       <c r="HY45" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="HZ45" t="n">
+      <c r="HZ45" s="1" t="n">
         <v>267</v>
       </c>
+      <c r="IA45" t="n">
+        <v>196</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -32860,11 +32995,14 @@
       <c r="HY46" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="HZ46" t="n">
+      <c r="HZ46" s="1" t="n">
         <v>300</v>
       </c>
+      <c r="IA46" t="n">
+        <v>241</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -33566,11 +33704,14 @@
       <c r="HY47" s="1" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="HZ47" t="n">
+      <c r="HZ47" s="1" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="IA47" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34272,11 +34413,14 @@
       <c r="HY48" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HZ48" t="n">
+      <c r="HZ48" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="IA48" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -34978,11 +35122,14 @@
       <c r="HY49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HZ49" t="n">
+      <c r="HZ49" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA49" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -35684,11 +35831,14 @@
       <c r="HY50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ50" t="n">
+      <c r="HZ50" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA50" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -36390,11 +36540,14 @@
       <c r="HY51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ51" t="n">
+      <c r="HZ51" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IA51" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -37096,11 +37249,14 @@
       <c r="HY52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HZ52" t="n">
+      <c r="HZ52" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA52" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -37802,11 +37958,14 @@
       <c r="HY53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="HZ53" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA53" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -38508,11 +38667,14 @@
       <c r="HY54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="HZ54" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA54" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -39214,11 +39376,14 @@
       <c r="HY55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ55" t="n">
+      <c r="HZ55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA55" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -39920,11 +40085,14 @@
       <c r="HY56" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="HZ56" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="IA56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -40626,11 +40794,14 @@
       <c r="HY57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="HZ57" s="1" t="n">
         <v>225</v>
       </c>
+      <c r="IA57" t="n">
+        <v>235</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -41332,11 +41503,14 @@
       <c r="HY58" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HZ58" t="n">
+      <c r="HZ58" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="IA58" t="n">
+        <v>134</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -42038,11 +42212,14 @@
       <c r="HY59" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="HZ59" t="n">
+      <c r="HZ59" s="1" t="n">
         <v>379</v>
       </c>
+      <c r="IA59" t="n">
+        <v>369</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -42744,11 +42921,14 @@
       <c r="HY60" s="1" t="n">
         <v>1.48</v>
       </c>
-      <c r="HZ60" t="n">
+      <c r="HZ60" s="1" t="n">
         <v>1.46</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -43450,11 +43630,14 @@
       <c r="HY61" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="HZ61" t="n">
+      <c r="HZ61" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="IA61" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -44156,11 +44339,14 @@
       <c r="HY62" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HZ62" t="n">
+      <c r="HZ62" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA62" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -44862,11 +45048,14 @@
       <c r="HY63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="HZ63" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="IA63" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -45568,11 +45757,14 @@
       <c r="HY64" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="HZ64" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA64" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -46274,11 +46466,14 @@
       <c r="HY65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="HZ65" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA65" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -46980,11 +47175,14 @@
       <c r="HY66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="HZ66" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA66" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -47686,11 +47884,14 @@
       <c r="HY67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ67" t="n">
+      <c r="HZ67" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA67" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -48392,11 +48593,14 @@
       <c r="HY68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HZ68" t="n">
+      <c r="HZ68" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA68" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -49098,11 +49302,14 @@
       <c r="HY69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ69" t="n">
+      <c r="HZ69" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -49804,11 +50011,14 @@
       <c r="HY70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ70" t="n">
+      <c r="HZ70" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IA70" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -50510,11 +50720,14 @@
       <c r="HY71" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="HZ71" s="1" t="n">
         <v>39.1</v>
       </c>
+      <c r="IA71" t="n">
+        <v>65.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -51216,11 +51429,14 @@
       <c r="HY72" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="HZ72" s="1" t="n">
         <v>42.11</v>
       </c>
+      <c r="IA72" t="n">
+        <v>24.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -51922,11 +52138,14 @@
       <c r="HY73" s="1" t="n">
         <v>15.74</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="HZ73" s="1" t="n">
         <v>16.48</v>
       </c>
+      <c r="IA73" t="n">
+        <v>16.04</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -52628,11 +52847,14 @@
       <c r="HY74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="HZ74" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="IA74" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -53334,11 +53556,14 @@
       <c r="HY75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="HZ75" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA75" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -54040,11 +54265,14 @@
       <c r="HY76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HZ76" t="n">
+      <c r="HZ76" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA76" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -54746,11 +54974,14 @@
       <c r="HY77" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HZ77" t="n">
+      <c r="HZ77" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="IA77" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -55452,11 +55683,14 @@
       <c r="HY78" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="HZ78" t="n">
+      <c r="HZ78" s="1" t="n">
         <v>2.43</v>
       </c>
+      <c r="IA78" t="n">
+        <v>1.96</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -56158,11 +56392,14 @@
       <c r="HY79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ79" t="n">
+      <c r="HZ79" s="1" t="n">
         <v>6.22</v>
       </c>
+      <c r="IA79" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -56864,11 +57101,14 @@
       <c r="HY80" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ80" t="n">
+      <c r="HZ80" s="1" t="n">
         <v>30.4</v>
       </c>
+      <c r="IA80" t="n">
+        <v>46.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -57570,11 +57810,14 @@
       <c r="HY81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ81" t="n">
+      <c r="HZ81" s="1" t="n">
         <v>16.1</v>
       </c>
+      <c r="IA81" t="n">
+        <v>33.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -58276,11 +58519,14 @@
       <c r="HY82" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="HZ82" t="n">
+      <c r="HZ82" s="1" t="n">
         <v>187.1</v>
       </c>
+      <c r="IA82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -58982,11 +59228,14 @@
       <c r="HY83" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HZ83" t="n">
+      <c r="HZ83" s="1" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IA83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -59688,11 +59937,14 @@
       <c r="HY84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="HZ84" t="n">
+      <c r="HZ84" s="1" t="n">
         <v>24.74</v>
       </c>
+      <c r="IA84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -60394,11 +60646,14 @@
       <c r="HY85" s="1" t="n">
         <v>108.9</v>
       </c>
-      <c r="HZ85" t="n">
+      <c r="HZ85" s="1" t="n">
         <v>90.59999999999999</v>
       </c>
+      <c r="IA85" t="n">
+        <v>147</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -61100,11 +61355,14 @@
       <c r="HY86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ86" t="n">
+      <c r="HZ86" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA86" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -61806,11 +62064,14 @@
       <c r="HY87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ87" t="n">
+      <c r="HZ87" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA87" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -62512,11 +62773,14 @@
       <c r="HY88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ88" t="n">
+      <c r="HZ88" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA88" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -63218,11 +63482,14 @@
       <c r="HY89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ89" t="n">
+      <c r="HZ89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IA89" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -63924,11 +64191,14 @@
       <c r="HY90" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="HZ90" t="n">
+      <c r="HZ90" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="IA90" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -64630,11 +64900,14 @@
       <c r="HY91" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="HZ91" t="n">
+      <c r="HZ91" s="1" t="n">
         <v>228</v>
       </c>
+      <c r="IA91" t="n">
+        <v>217</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -65336,11 +65609,14 @@
       <c r="HY92" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="HZ92" t="n">
+      <c r="HZ92" s="1" t="n">
         <v>274</v>
       </c>
+      <c r="IA92" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -66042,11 +66318,14 @@
       <c r="HY93" s="1" t="n">
         <v>73.5</v>
       </c>
-      <c r="HZ93" t="n">
+      <c r="HZ93" s="1" t="n">
         <v>72.3</v>
       </c>
+      <c r="IA93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -66748,11 +67027,14 @@
       <c r="HY94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HZ94" t="n">
+      <c r="HZ94" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA94" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -67454,11 +67736,14 @@
       <c r="HY95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HZ95" t="n">
+      <c r="HZ95" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA95" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -68160,11 +68445,14 @@
       <c r="HY96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HZ96" t="n">
+      <c r="HZ96" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IA96" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -68866,11 +69154,14 @@
       <c r="HY97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HZ97" t="n">
+      <c r="HZ97" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="IA97" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -69572,11 +69863,14 @@
       <c r="HY98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HZ98" t="n">
+      <c r="HZ98" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA98" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -70278,11 +70572,14 @@
       <c r="HY99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HZ99" t="n">
+      <c r="HZ99" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="IA99" t="n">
+        <v>70</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -70984,11 +71281,14 @@
       <c r="HY100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ100" t="n">
+      <c r="HZ100" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA100" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -71690,11 +71990,14 @@
       <c r="HY101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ101" t="n">
+      <c r="HZ101" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA101" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -72396,13 +72699,16 @@
       <c r="HY102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HZ102" t="n">
+      <c r="HZ102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1093,8 +1093,11 @@
       <c r="HZ1" s="1" t="n">
         <v>10447</v>
       </c>
-      <c r="IA1" t="n">
+      <c r="IA1" s="1" t="n">
         <v>10454</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10464</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1802,7 +1805,10 @@
       <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IA2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IB2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2511,8 +2517,11 @@
       <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IA3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3220,8 +3229,11 @@
       <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IA4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3929,7 +3941,10 @@
       <c r="HZ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IA5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4638,8 +4653,11 @@
       <c r="HZ6" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="IA6" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5347,8 +5365,11 @@
       <c r="HZ7" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="IA7" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6056,8 +6077,11 @@
       <c r="HZ8" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="IA8" t="n">
+      <c r="IA8" s="1" t="n">
         <v>-41</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6765,8 +6789,11 @@
       <c r="HZ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA9" t="n">
+      <c r="IA9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7474,8 +7501,11 @@
       <c r="HZ10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IA10" t="n">
+      <c r="IA10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8183,8 +8213,11 @@
       <c r="HZ11" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IA11" t="n">
+      <c r="IA11" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8892,8 +8925,11 @@
       <c r="HZ12" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="IA12" t="n">
+      <c r="IA12" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9601,8 +9637,11 @@
       <c r="HZ13" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="IA13" t="n">
+      <c r="IA13" s="1" t="n">
         <v>339</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10310,8 +10349,11 @@
       <c r="HZ14" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="IA14" t="n">
+      <c r="IA14" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11019,8 +11061,11 @@
       <c r="HZ15" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="IA15" t="n">
+      <c r="IA15" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11728,8 +11773,11 @@
       <c r="HZ16" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IA16" t="n">
+      <c r="IA16" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12437,8 +12485,11 @@
       <c r="HZ17" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IA17" t="n">
+      <c r="IA17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13146,8 +13197,11 @@
       <c r="HZ18" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IA18" t="n">
+      <c r="IA18" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13855,8 +13909,11 @@
       <c r="HZ19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA19" t="n">
+      <c r="IA19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14564,8 +14621,11 @@
       <c r="HZ20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA20" t="n">
+      <c r="IA20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15273,8 +15333,11 @@
       <c r="HZ21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA21" t="n">
+      <c r="IA21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15982,8 +16045,11 @@
       <c r="HZ22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA22" t="n">
+      <c r="IA22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16691,7 +16757,10 @@
       <c r="HZ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IA23" t="n">
+      <c r="IA23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17400,8 +17469,11 @@
       <c r="HZ24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IA24" t="n">
+      <c r="IA24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18109,8 +18181,11 @@
       <c r="HZ25" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="IA25" t="n">
+      <c r="IA25" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18818,8 +18893,11 @@
       <c r="HZ26" s="1" t="n">
         <v>49.62</v>
       </c>
-      <c r="IA26" t="n">
+      <c r="IA26" s="1" t="n">
         <v>42.38</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19527,8 +19605,11 @@
       <c r="HZ27" s="1" t="n">
         <v>23.35</v>
       </c>
-      <c r="IA27" t="n">
+      <c r="IA27" s="1" t="n">
         <v>19.94</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>13.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20236,8 +20317,11 @@
       <c r="HZ28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IA28" t="n">
+      <c r="IA28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20945,8 +21029,11 @@
       <c r="HZ29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IA29" t="n">
+      <c r="IA29" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21654,8 +21741,11 @@
       <c r="HZ30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA30" t="n">
+      <c r="IA30" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22363,8 +22453,11 @@
       <c r="HZ31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IA31" t="n">
+      <c r="IA31" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23072,8 +23165,11 @@
       <c r="HZ32" s="1" t="n">
         <v>2.94</v>
       </c>
-      <c r="IA32" t="n">
+      <c r="IA32" s="1" t="n">
         <v>3.65</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23781,8 +23877,11 @@
       <c r="HZ33" s="1" t="n">
         <v>6.25</v>
       </c>
-      <c r="IA33" t="n">
+      <c r="IA33" s="1" t="n">
         <v>7.75</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24490,8 +24589,11 @@
       <c r="HZ34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IA34" t="n">
+      <c r="IA34" s="1" t="n">
         <v>22.6</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25199,8 +25301,11 @@
       <c r="HZ35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IA35" t="n">
+      <c r="IA35" s="1" t="n">
         <v>12.9</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25908,8 +26013,11 @@
       <c r="HZ36" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="IA36" t="n">
+      <c r="IA36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26617,7 +26725,10 @@
       <c r="HZ37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="IA37" t="n">
+      <c r="IA37" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="IB37" t="n">
         <v>86.09999999999999</v>
       </c>
     </row>
@@ -27326,8 +27437,11 @@
       <c r="HZ38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IA38" t="n">
+      <c r="IA38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28035,8 +28149,11 @@
       <c r="HZ39" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="IA39" t="n">
+      <c r="IA39" s="1" t="n">
         <v>78.8</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28744,7 +28861,10 @@
       <c r="HZ40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA40" t="n">
+      <c r="IA40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -29453,8 +29573,11 @@
       <c r="HZ41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA41" t="n">
+      <c r="IA41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30162,8 +30285,11 @@
       <c r="HZ42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IA42" t="n">
+      <c r="IA42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IB42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -30871,7 +30997,10 @@
       <c r="HZ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA43" t="n">
+      <c r="IA43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31580,8 +31709,11 @@
       <c r="HZ44" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="IA44" t="n">
+      <c r="IA44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32289,8 +32421,11 @@
       <c r="HZ45" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="IA45" t="n">
+      <c r="IA45" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32998,8 +33133,11 @@
       <c r="HZ46" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="IA46" t="n">
+      <c r="IA46" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33707,8 +33845,11 @@
       <c r="HZ47" s="1" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="IA47" t="n">
+      <c r="IA47" s="1" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34416,8 +34557,11 @@
       <c r="HZ48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IA48" t="n">
+      <c r="IA48" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35125,8 +35269,11 @@
       <c r="HZ49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA49" t="n">
+      <c r="IA49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IB49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35834,8 +35981,11 @@
       <c r="HZ50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA50" t="n">
+      <c r="IA50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36543,8 +36693,11 @@
       <c r="HZ51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IA51" t="n">
+      <c r="IA51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37252,8 +37405,11 @@
       <c r="HZ52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA52" t="n">
+      <c r="IA52" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37961,8 +38117,11 @@
       <c r="HZ53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA53" t="n">
+      <c r="IA53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38670,8 +38829,11 @@
       <c r="HZ54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA54" t="n">
+      <c r="IA54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39379,8 +39541,11 @@
       <c r="HZ55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA55" t="n">
+      <c r="IA55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40088,8 +40253,11 @@
       <c r="HZ56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IA56" t="n">
+      <c r="IA56" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40797,8 +40965,11 @@
       <c r="HZ57" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="IA57" t="n">
+      <c r="IA57" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41506,8 +41677,11 @@
       <c r="HZ58" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="IA58" t="n">
+      <c r="IA58" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42215,8 +42389,11 @@
       <c r="HZ59" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="IA59" t="n">
+      <c r="IA59" s="1" t="n">
         <v>369</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42924,8 +43101,11 @@
       <c r="HZ60" s="1" t="n">
         <v>1.46</v>
       </c>
-      <c r="IA60" t="n">
+      <c r="IA60" s="1" t="n">
         <v>1.75</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43633,8 +43813,11 @@
       <c r="HZ61" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="IA61" t="n">
+      <c r="IA61" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44342,8 +44525,11 @@
       <c r="HZ62" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA62" t="n">
+      <c r="IA62" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45051,8 +45237,11 @@
       <c r="HZ63" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IA63" t="n">
+      <c r="IA63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45760,8 +45949,11 @@
       <c r="HZ64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA64" t="n">
+      <c r="IA64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IB64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46469,8 +46661,11 @@
       <c r="HZ65" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA65" t="n">
+      <c r="IA65" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47178,8 +47373,11 @@
       <c r="HZ66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA66" t="n">
+      <c r="IA66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47887,8 +48085,11 @@
       <c r="HZ67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA67" t="n">
+      <c r="IA67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48596,8 +48797,11 @@
       <c r="HZ68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA68" t="n">
+      <c r="IA68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49305,8 +49509,11 @@
       <c r="HZ69" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA69" t="n">
+      <c r="IA69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IB69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50014,8 +50221,11 @@
       <c r="HZ70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IA70" t="n">
+      <c r="IA70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50723,8 +50933,11 @@
       <c r="HZ71" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="IA71" t="n">
+      <c r="IA71" s="1" t="n">
         <v>65.2</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51432,8 +51645,11 @@
       <c r="HZ72" s="1" t="n">
         <v>42.11</v>
       </c>
-      <c r="IA72" t="n">
+      <c r="IA72" s="1" t="n">
         <v>24.6</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52141,8 +52357,11 @@
       <c r="HZ73" s="1" t="n">
         <v>16.48</v>
       </c>
-      <c r="IA73" t="n">
+      <c r="IA73" s="1" t="n">
         <v>16.04</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52850,8 +53069,11 @@
       <c r="HZ74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IA74" t="n">
+      <c r="IA74" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53559,8 +53781,11 @@
       <c r="HZ75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA75" t="n">
+      <c r="IA75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54268,8 +54493,11 @@
       <c r="HZ76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA76" t="n">
+      <c r="IA76" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54977,8 +55205,11 @@
       <c r="HZ77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IA77" t="n">
+      <c r="IA77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55686,8 +55917,11 @@
       <c r="HZ78" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="IA78" t="n">
+      <c r="IA78" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56395,8 +56629,11 @@
       <c r="HZ79" s="1" t="n">
         <v>6.22</v>
       </c>
-      <c r="IA79" t="n">
+      <c r="IA79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57104,8 +57341,11 @@
       <c r="HZ80" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="IA80" t="n">
+      <c r="IA80" s="1" t="n">
         <v>46.7</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57813,8 +58053,11 @@
       <c r="HZ81" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="IA81" t="n">
+      <c r="IA81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58522,8 +58765,11 @@
       <c r="HZ82" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="IA82" t="n">
+      <c r="IA82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59231,8 +59477,11 @@
       <c r="HZ83" s="1" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="IA83" t="n">
+      <c r="IA83" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59940,8 +60189,11 @@
       <c r="HZ84" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="IA84" t="n">
+      <c r="IA84" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60649,8 +60901,11 @@
       <c r="HZ85" s="1" t="n">
         <v>90.59999999999999</v>
       </c>
-      <c r="IA85" t="n">
+      <c r="IA85" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61358,8 +61613,11 @@
       <c r="HZ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA86" t="n">
+      <c r="IA86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62067,8 +62325,11 @@
       <c r="HZ87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA87" t="n">
+      <c r="IA87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -62776,8 +63037,11 @@
       <c r="HZ88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA88" t="n">
+      <c r="IA88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IB88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -63485,8 +63749,11 @@
       <c r="HZ89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IA89" t="n">
+      <c r="IA89" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64194,8 +64461,11 @@
       <c r="HZ90" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="IA90" t="n">
+      <c r="IA90" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64903,8 +65173,11 @@
       <c r="HZ91" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="IA91" t="n">
+      <c r="IA91" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="IB91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65612,8 +65885,11 @@
       <c r="HZ92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="IA92" t="n">
+      <c r="IA92" s="1" t="n">
         <v>267</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66321,8 +66597,11 @@
       <c r="HZ93" s="1" t="n">
         <v>72.3</v>
       </c>
-      <c r="IA93" t="n">
+      <c r="IA93" s="1" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67030,8 +67309,11 @@
       <c r="HZ94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA94" t="n">
+      <c r="IA94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -67739,8 +68021,11 @@
       <c r="HZ95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA95" t="n">
+      <c r="IA95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -68448,8 +68733,11 @@
       <c r="HZ96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IA96" t="n">
+      <c r="IA96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69157,8 +69445,11 @@
       <c r="HZ97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IA97" t="n">
+      <c r="IA97" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -69866,8 +70157,11 @@
       <c r="HZ98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA98" t="n">
+      <c r="IA98" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IB98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -70575,8 +70869,11 @@
       <c r="HZ99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IA99" t="n">
+      <c r="IA99" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71284,8 +71581,11 @@
       <c r="HZ100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA100" t="n">
+      <c r="IA100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -71993,8 +72293,11 @@
       <c r="HZ101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA101" t="n">
+      <c r="IA101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -72702,8 +73005,11 @@
       <c r="HZ102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="IA102" t="n">
+      <c r="IA102" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1096,8 +1096,11 @@
       <c r="IA1" s="1" t="n">
         <v>10454</v>
       </c>
-      <c r="IB1" t="n">
+      <c r="IB1" s="1" t="n">
         <v>10464</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>10475</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1808,7 +1811,10 @@
       <c r="IA2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IB2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IC2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2520,8 +2526,11 @@
       <c r="IA3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IB3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3232,8 +3241,11 @@
       <c r="IA4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IB4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3944,8 +3956,11 @@
       <c r="IA5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IB5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4656,8 +4671,11 @@
       <c r="IA6" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IB6" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5368,8 +5386,11 @@
       <c r="IA7" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IB7" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6080,8 +6101,11 @@
       <c r="IA8" s="1" t="n">
         <v>-41</v>
       </c>
-      <c r="IB8" t="n">
+      <c r="IB8" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6792,7 +6816,10 @@
       <c r="IA9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IB9" t="n">
+      <c r="IB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7504,8 +7531,11 @@
       <c r="IA10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB10" t="n">
+      <c r="IB10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8216,8 +8246,11 @@
       <c r="IA11" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="IB11" t="n">
+      <c r="IB11" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8928,8 +8961,11 @@
       <c r="IA12" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="IB12" t="n">
+      <c r="IB12" s="1" t="n">
         <v>157</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9640,8 +9676,11 @@
       <c r="IA13" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="IB13" t="n">
+      <c r="IB13" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10352,8 +10391,11 @@
       <c r="IA14" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="IB14" t="n">
+      <c r="IB14" s="1" t="n">
         <v>1.43</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11064,8 +11106,11 @@
       <c r="IA15" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IB15" t="n">
+      <c r="IB15" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11776,8 +11821,11 @@
       <c r="IA16" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IB16" t="n">
+      <c r="IB16" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12488,8 +12536,11 @@
       <c r="IA17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IB17" t="n">
+      <c r="IB17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13200,8 +13251,11 @@
       <c r="IA18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IB18" t="n">
+      <c r="IB18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13912,8 +13966,11 @@
       <c r="IA19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IB19" t="n">
+      <c r="IB19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14624,8 +14681,11 @@
       <c r="IA20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IB20" t="n">
+      <c r="IB20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15336,8 +15396,11 @@
       <c r="IA21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB21" t="n">
+      <c r="IB21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16048,8 +16111,11 @@
       <c r="IA22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB22" t="n">
+      <c r="IB22" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16760,7 +16826,10 @@
       <c r="IA23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB23" t="n">
+      <c r="IB23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17472,8 +17541,11 @@
       <c r="IA24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB24" t="n">
+      <c r="IB24" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18184,8 +18256,11 @@
       <c r="IA25" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="IB25" t="n">
+      <c r="IB25" s="1" t="n">
         <v>37.9</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18896,8 +18971,11 @@
       <c r="IA26" s="1" t="n">
         <v>42.38</v>
       </c>
-      <c r="IB26" t="n">
+      <c r="IB26" s="1" t="n">
         <v>34.64</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>28.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19608,8 +19686,11 @@
       <c r="IA27" s="1" t="n">
         <v>19.94</v>
       </c>
-      <c r="IB27" t="n">
+      <c r="IB27" s="1" t="n">
         <v>13.14</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>13.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20320,8 +20401,11 @@
       <c r="IA28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IB28" t="n">
+      <c r="IB28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IC28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21032,8 +21116,11 @@
       <c r="IA29" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IB29" t="n">
+      <c r="IB29" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21744,8 +21831,11 @@
       <c r="IA30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IB30" t="n">
+      <c r="IB30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22456,8 +22546,11 @@
       <c r="IA31" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IB31" t="n">
+      <c r="IB31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23168,8 +23261,11 @@
       <c r="IA32" s="1" t="n">
         <v>3.65</v>
       </c>
-      <c r="IB32" t="n">
+      <c r="IB32" s="1" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23880,8 +23976,11 @@
       <c r="IA33" s="1" t="n">
         <v>7.75</v>
       </c>
-      <c r="IB33" t="n">
+      <c r="IB33" s="1" t="n">
         <v>5.55</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>4.08</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24592,8 +24691,11 @@
       <c r="IA34" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="IB34" t="n">
+      <c r="IB34" s="1" t="n">
         <v>42.6</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25304,8 +25406,11 @@
       <c r="IA35" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="IB35" t="n">
+      <c r="IB35" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IC35" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26016,8 +26121,11 @@
       <c r="IA36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IB36" t="n">
+      <c r="IB36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IC36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26728,8 +26836,11 @@
       <c r="IA37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IB37" t="n">
+      <c r="IB37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IC37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27440,7 +27551,10 @@
       <c r="IA38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IB38" t="n">
+      <c r="IB38" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IC38" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -28152,8 +28266,11 @@
       <c r="IA39" s="1" t="n">
         <v>78.8</v>
       </c>
-      <c r="IB39" t="n">
+      <c r="IB39" s="1" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IC39" t="n">
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28864,7 +28981,10 @@
       <c r="IA40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB40" t="n">
+      <c r="IB40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -29576,8 +29696,11 @@
       <c r="IA41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB41" t="n">
+      <c r="IB41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IC41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30288,7 +30411,10 @@
       <c r="IA42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB42" t="n">
+      <c r="IB42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31000,8 +31126,11 @@
       <c r="IA43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB43" t="n">
+      <c r="IB43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31712,8 +31841,11 @@
       <c r="IA44" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="IB44" t="n">
+      <c r="IB44" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32424,8 +32556,11 @@
       <c r="IA45" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="IB45" t="n">
+      <c r="IB45" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33136,8 +33271,11 @@
       <c r="IA46" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IB46" t="n">
+      <c r="IB46" s="1" t="n">
         <v>292</v>
+      </c>
+      <c r="IC46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33848,8 +33986,11 @@
       <c r="IA47" s="1" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="IB47" t="n">
+      <c r="IB47" s="1" t="n">
         <v>76.59999999999999</v>
+      </c>
+      <c r="IC47" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34560,8 +34701,11 @@
       <c r="IA48" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IB48" t="n">
+      <c r="IB48" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IC48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35272,8 +35416,11 @@
       <c r="IA49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IB49" t="n">
+      <c r="IB49" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IC49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35984,7 +36131,10 @@
       <c r="IA50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB50" t="n">
+      <c r="IB50" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IC50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -36696,8 +36846,11 @@
       <c r="IA51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IB51" t="n">
+      <c r="IB51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IC51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37408,8 +37561,11 @@
       <c r="IA52" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IB52" t="n">
+      <c r="IB52" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38120,8 +38276,11 @@
       <c r="IA53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IB53" t="n">
+      <c r="IB53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38832,8 +38991,11 @@
       <c r="IA54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IB54" t="n">
+      <c r="IB54" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39544,8 +39706,11 @@
       <c r="IA55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB55" t="n">
+      <c r="IB55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40256,8 +40421,11 @@
       <c r="IA56" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="IB56" t="n">
+      <c r="IB56" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IC56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40968,8 +41136,11 @@
       <c r="IA57" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="IB57" t="n">
+      <c r="IB57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="IC57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41680,8 +41851,11 @@
       <c r="IA58" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="IB58" t="n">
+      <c r="IB58" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="IC58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42392,8 +42566,11 @@
       <c r="IA59" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="IB59" t="n">
+      <c r="IB59" s="1" t="n">
         <v>330</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43104,7 +43281,10 @@
       <c r="IA60" s="1" t="n">
         <v>1.75</v>
       </c>
-      <c r="IB60" t="n">
+      <c r="IB60" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="IC60" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -43816,8 +43996,11 @@
       <c r="IA61" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="IB61" t="n">
+      <c r="IB61" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44528,8 +44711,11 @@
       <c r="IA62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IB62" t="n">
+      <c r="IB62" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45240,8 +45426,11 @@
       <c r="IA63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IB63" t="n">
+      <c r="IB63" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45952,8 +46141,11 @@
       <c r="IA64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IB64" t="n">
+      <c r="IB64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IC64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46664,8 +46856,11 @@
       <c r="IA65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IB65" t="n">
+      <c r="IB65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IC65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47376,8 +47571,11 @@
       <c r="IA66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IB66" t="n">
+      <c r="IB66" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48088,8 +48286,11 @@
       <c r="IA67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IB67" t="n">
+      <c r="IB67" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48800,7 +49001,10 @@
       <c r="IA68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB68" t="n">
+      <c r="IB68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -49512,8 +49716,11 @@
       <c r="IA69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IB69" t="n">
+      <c r="IB69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IC69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50224,8 +50431,11 @@
       <c r="IA70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IB70" t="n">
+      <c r="IB70" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IC70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50936,8 +51146,11 @@
       <c r="IA71" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="IB71" t="n">
+      <c r="IB71" s="1" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51648,8 +51861,11 @@
       <c r="IA72" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="IB72" t="n">
+      <c r="IB72" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="IC72" t="n">
+        <v>31.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52360,8 +52576,11 @@
       <c r="IA73" s="1" t="n">
         <v>16.04</v>
       </c>
-      <c r="IB73" t="n">
+      <c r="IB73" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IC73" t="n">
+        <v>18.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53072,8 +53291,11 @@
       <c r="IA74" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IB74" t="n">
+      <c r="IB74" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IC74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53784,8 +54006,11 @@
       <c r="IA75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IB75" t="n">
+      <c r="IB75" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IC75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54496,8 +54721,11 @@
       <c r="IA76" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IB76" t="n">
+      <c r="IB76" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55208,8 +55436,11 @@
       <c r="IA77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IB77" t="n">
+      <c r="IB77" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IC77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55920,8 +56151,11 @@
       <c r="IA78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="IB78" t="n">
+      <c r="IB78" s="1" t="n">
         <v>2.82</v>
+      </c>
+      <c r="IC78" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56632,8 +56866,11 @@
       <c r="IA79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB79" t="n">
+      <c r="IB79" s="1" t="n">
         <v>15.5</v>
+      </c>
+      <c r="IC79" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57344,8 +57581,11 @@
       <c r="IA80" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="IB80" t="n">
+      <c r="IB80" s="1" t="n">
         <v>32.3</v>
+      </c>
+      <c r="IC80" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58056,8 +58296,11 @@
       <c r="IA81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IB81" t="n">
+      <c r="IB81" s="1" t="n">
         <v>6.5</v>
+      </c>
+      <c r="IC81" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58768,8 +59011,11 @@
       <c r="IA82" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="IB82" t="n">
+      <c r="IB82" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="IC82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59480,8 +59726,11 @@
       <c r="IA83" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IB83" t="n">
+      <c r="IB83" s="1" t="n">
         <v>83.40000000000001</v>
+      </c>
+      <c r="IC83" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60192,8 +60441,11 @@
       <c r="IA84" s="1" t="n">
         <v>27.8</v>
       </c>
-      <c r="IB84" t="n">
+      <c r="IB84" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="IC84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60904,8 +61156,11 @@
       <c r="IA85" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="IB85" t="n">
+      <c r="IB85" s="1" t="n">
         <v>64.90000000000001</v>
+      </c>
+      <c r="IC85" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61616,8 +61871,11 @@
       <c r="IA86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB86" t="n">
+      <c r="IB86" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62328,8 +62586,11 @@
       <c r="IA87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB87" t="n">
+      <c r="IB87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IC87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63040,8 +63301,11 @@
       <c r="IA88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB88" t="n">
+      <c r="IB88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -63752,7 +64016,10 @@
       <c r="IA89" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IB89" t="n">
+      <c r="IB89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -64464,8 +64731,11 @@
       <c r="IA90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IB90" t="n">
+      <c r="IB90" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="IC90" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65176,8 +65446,11 @@
       <c r="IA91" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="IB91" t="n">
+      <c r="IB91" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IC91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65888,8 +66161,11 @@
       <c r="IA92" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="IB92" t="n">
+      <c r="IB92" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="IC92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66600,8 +66876,11 @@
       <c r="IA93" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="IB93" t="n">
+      <c r="IB93" s="1" t="n">
         <v>74.8</v>
+      </c>
+      <c r="IC93" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67312,8 +67591,11 @@
       <c r="IA94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IB94" t="n">
+      <c r="IB94" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IC94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68024,7 +68306,10 @@
       <c r="IA95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB95" t="n">
+      <c r="IB95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -68736,8 +69021,11 @@
       <c r="IA96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IB96" t="n">
+      <c r="IB96" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69448,8 +69736,11 @@
       <c r="IA97" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IB97" t="n">
+      <c r="IB97" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IC97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70160,8 +70451,11 @@
       <c r="IA98" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IB98" t="n">
+      <c r="IB98" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IC98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -70872,8 +71166,11 @@
       <c r="IA99" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IB99" t="n">
+      <c r="IB99" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IC99" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71584,8 +71881,11 @@
       <c r="IA100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB100" t="n">
+      <c r="IB100" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72296,8 +72596,11 @@
       <c r="IA101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IB101" t="n">
+      <c r="IB101" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73008,8 +73311,11 @@
       <c r="IA102" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="IB102" t="n">
+      <c r="IB102" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1099,8 +1099,11 @@
       <c r="IB1" s="1" t="n">
         <v>10464</v>
       </c>
-      <c r="IC1" t="n">
+      <c r="IC1" s="1" t="n">
         <v>10475</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>10481</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1814,7 +1817,10 @@
       <c r="IB2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IC2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="ID2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2529,8 +2535,11 @@
       <c r="IB3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IC3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3244,8 +3253,11 @@
       <c r="IB4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IC4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3959,7 +3971,10 @@
       <c r="IB5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,8 +4689,11 @@
       <c r="IB6" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="IC6" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5389,8 +5407,11 @@
       <c r="IB7" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="IC7" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6104,8 +6125,11 @@
       <c r="IB8" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IC8" t="n">
+      <c r="IC8" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6819,8 +6843,11 @@
       <c r="IB9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC9" t="n">
+      <c r="IC9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7534,8 +7561,11 @@
       <c r="IB10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC10" t="n">
+      <c r="IC10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8249,8 +8279,11 @@
       <c r="IB11" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="IC11" t="n">
+      <c r="IC11" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8964,8 +8997,11 @@
       <c r="IB12" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="IC12" t="n">
+      <c r="IC12" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9679,8 +9715,11 @@
       <c r="IB13" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IC13" t="n">
+      <c r="IC13" s="1" t="n">
         <v>369</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10394,8 +10433,11 @@
       <c r="IB14" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="IC14" t="n">
+      <c r="IC14" s="1" t="n">
         <v>1.13</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11109,8 +11151,11 @@
       <c r="IB15" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="IC15" t="n">
+      <c r="IC15" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11824,8 +11869,11 @@
       <c r="IB16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IC16" t="n">
+      <c r="IC16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12539,8 +12587,11 @@
       <c r="IB17" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IC17" t="n">
+      <c r="IC17" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13254,8 +13305,11 @@
       <c r="IB18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IC18" t="n">
+      <c r="IC18" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13969,8 +14023,11 @@
       <c r="IB19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IC19" t="n">
+      <c r="IC19" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14684,8 +14741,11 @@
       <c r="IB20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IC20" t="n">
+      <c r="IC20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15399,8 +15459,11 @@
       <c r="IB21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC21" t="n">
+      <c r="IC21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16114,8 +16177,11 @@
       <c r="IB22" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IC22" t="n">
+      <c r="IC22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16829,8 +16895,11 @@
       <c r="IB23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC23" t="n">
+      <c r="IC23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17544,8 +17613,11 @@
       <c r="IB24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IC24" t="n">
+      <c r="IC24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18259,8 +18331,11 @@
       <c r="IB25" s="1" t="n">
         <v>37.9</v>
       </c>
-      <c r="IC25" t="n">
+      <c r="IC25" s="1" t="n">
         <v>48.1</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18974,8 +19049,11 @@
       <c r="IB26" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="IC26" t="n">
+      <c r="IC26" s="1" t="n">
         <v>28.38</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>44.86</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19689,8 +19767,11 @@
       <c r="IB27" s="1" t="n">
         <v>13.14</v>
       </c>
-      <c r="IC27" t="n">
+      <c r="IC27" s="1" t="n">
         <v>13.67</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20404,8 +20485,11 @@
       <c r="IB28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IC28" t="n">
+      <c r="IC28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="ID28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21119,8 +21203,11 @@
       <c r="IB29" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IC29" t="n">
+      <c r="IC29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="ID29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21834,8 +21921,11 @@
       <c r="IB30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC30" t="n">
+      <c r="IC30" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22549,8 +22639,11 @@
       <c r="IB31" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IC31" t="n">
+      <c r="IC31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23264,8 +23357,11 @@
       <c r="IB32" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IC32" t="n">
+      <c r="IC32" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23979,8 +24075,11 @@
       <c r="IB33" s="1" t="n">
         <v>5.55</v>
       </c>
-      <c r="IC33" t="n">
+      <c r="IC33" s="1" t="n">
         <v>4.08</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24694,8 +24793,11 @@
       <c r="IB34" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="IC34" t="n">
+      <c r="IC34" s="1" t="n">
         <v>45.3</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25409,8 +25511,11 @@
       <c r="IB35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IC35" t="n">
+      <c r="IC35" s="1" t="n">
         <v>24.5</v>
+      </c>
+      <c r="ID35" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26124,8 +26229,11 @@
       <c r="IB36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="IC36" t="n">
+      <c r="IC36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="ID36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26839,8 +26947,11 @@
       <c r="IB37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IC37" t="n">
+      <c r="IC37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="ID37" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27554,8 +27665,11 @@
       <c r="IB38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IC38" t="n">
+      <c r="IC38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="ID38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28269,8 +28383,11 @@
       <c r="IB39" s="1" t="n">
         <v>74.7</v>
       </c>
-      <c r="IC39" t="n">
+      <c r="IC39" s="1" t="n">
         <v>78.09999999999999</v>
+      </c>
+      <c r="ID39" t="n">
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28984,8 +29101,11 @@
       <c r="IB40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC40" t="n">
+      <c r="IC40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="ID40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29699,8 +29819,11 @@
       <c r="IB41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC41" t="n">
+      <c r="IC41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30414,7 +30537,10 @@
       <c r="IB42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC42" t="n">
+      <c r="IC42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31129,8 +31255,11 @@
       <c r="IB43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC43" t="n">
+      <c r="IC43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31844,8 +31973,11 @@
       <c r="IB44" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IC44" t="n">
+      <c r="IC44" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32559,8 +32691,11 @@
       <c r="IB45" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="IC45" t="n">
+      <c r="IC45" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33274,8 +33409,11 @@
       <c r="IB46" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="IC46" t="n">
+      <c r="IC46" s="1" t="n">
         <v>286</v>
+      </c>
+      <c r="ID46" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33989,8 +34127,11 @@
       <c r="IB47" s="1" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="IC47" t="n">
+      <c r="IC47" s="1" t="n">
         <v>77.5</v>
+      </c>
+      <c r="ID47" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34704,8 +34845,11 @@
       <c r="IB48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IC48" t="n">
+      <c r="IC48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="ID48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35419,8 +35563,11 @@
       <c r="IB49" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IC49" t="n">
+      <c r="IC49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="ID49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36134,7 +36281,10 @@
       <c r="IB50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IC50" t="n">
+      <c r="IC50" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="ID50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -36849,8 +36999,11 @@
       <c r="IB51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IC51" t="n">
+      <c r="IC51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="ID51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37564,8 +37717,11 @@
       <c r="IB52" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC52" t="n">
+      <c r="IC52" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38279,8 +38435,11 @@
       <c r="IB53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IC53" t="n">
+      <c r="IC53" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38994,8 +39153,11 @@
       <c r="IB54" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IC54" t="n">
+      <c r="IC54" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39709,8 +39871,11 @@
       <c r="IB55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC55" t="n">
+      <c r="IC55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40424,8 +40589,11 @@
       <c r="IB56" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IC56" t="n">
+      <c r="IC56" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="ID56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41139,8 +41307,11 @@
       <c r="IB57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="IC57" t="n">
+      <c r="IC57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="ID57" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41854,8 +42025,11 @@
       <c r="IB58" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="IC58" t="n">
+      <c r="IC58" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="ID58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42569,8 +42743,11 @@
       <c r="IB59" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="IC59" t="n">
+      <c r="IC59" s="1" t="n">
         <v>343</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43284,8 +43461,11 @@
       <c r="IB60" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="IC60" t="n">
+      <c r="IC60" s="1" t="n">
         <v>1.7</v>
+      </c>
+      <c r="ID60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43999,8 +44179,11 @@
       <c r="IB61" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IC61" t="n">
+      <c r="IC61" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44714,8 +44897,11 @@
       <c r="IB62" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IC62" t="n">
+      <c r="IC62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45429,8 +45615,11 @@
       <c r="IB63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IC63" t="n">
+      <c r="IC63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46144,8 +46333,11 @@
       <c r="IB64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IC64" t="n">
+      <c r="IC64" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="ID64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46859,8 +47051,11 @@
       <c r="IB65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IC65" t="n">
+      <c r="IC65" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47574,8 +47769,11 @@
       <c r="IB66" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC66" t="n">
+      <c r="IC66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48289,8 +48487,11 @@
       <c r="IB67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC67" t="n">
+      <c r="IC67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49004,8 +49205,11 @@
       <c r="IB68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC68" t="n">
+      <c r="IC68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49719,8 +49923,11 @@
       <c r="IB69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC69" t="n">
+      <c r="IC69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="ID69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50434,8 +50641,11 @@
       <c r="IB70" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IC70" t="n">
+      <c r="IC70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="ID70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51149,8 +51359,11 @@
       <c r="IB71" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="IC71" t="n">
+      <c r="IC71" s="1" t="n">
         <v>57.9</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51864,8 +52077,11 @@
       <c r="IB72" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="IC72" t="n">
+      <c r="IC72" s="1" t="n">
         <v>31.18</v>
+      </c>
+      <c r="ID72" t="n">
+        <v>41.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52579,8 +52795,11 @@
       <c r="IB73" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IC73" t="n">
+      <c r="IC73" s="1" t="n">
         <v>18.05</v>
+      </c>
+      <c r="ID73" t="n">
+        <v>17.81</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53294,8 +53513,11 @@
       <c r="IB74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IC74" t="n">
+      <c r="IC74" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="ID74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54009,8 +54231,11 @@
       <c r="IB75" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IC75" t="n">
+      <c r="IC75" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="ID75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54724,8 +54949,11 @@
       <c r="IB76" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IC76" t="n">
+      <c r="IC76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55439,8 +55667,11 @@
       <c r="IB77" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IC77" t="n">
+      <c r="IC77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="ID77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56154,8 +56385,11 @@
       <c r="IB78" s="1" t="n">
         <v>2.82</v>
       </c>
-      <c r="IC78" t="n">
+      <c r="IC78" s="1" t="n">
         <v>2.58</v>
+      </c>
+      <c r="ID78" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56869,8 +57103,11 @@
       <c r="IB79" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="IC79" t="n">
+      <c r="IC79" s="1" t="n">
         <v>4.45</v>
+      </c>
+      <c r="ID79" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57584,8 +57821,11 @@
       <c r="IB80" s="1" t="n">
         <v>32.3</v>
       </c>
-      <c r="IC80" t="n">
+      <c r="IC80" s="1" t="n">
         <v>38.8</v>
+      </c>
+      <c r="ID80" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58299,8 +58539,11 @@
       <c r="IB81" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="IC81" t="n">
+      <c r="IC81" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="ID81" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59014,8 +59257,11 @@
       <c r="IB82" s="1" t="n">
         <v>186.3</v>
       </c>
-      <c r="IC82" t="n">
+      <c r="IC82" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="ID82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59729,8 +59975,11 @@
       <c r="IB83" s="1" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="IC83" t="n">
+      <c r="IC83" s="1" t="n">
         <v>84.8</v>
+      </c>
+      <c r="ID83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60444,8 +60693,11 @@
       <c r="IB84" s="1" t="n">
         <v>23.91</v>
       </c>
-      <c r="IC84" t="n">
+      <c r="IC84" s="1" t="n">
         <v>24.58</v>
+      </c>
+      <c r="ID84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61159,8 +61411,11 @@
       <c r="IB85" s="1" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="IC85" t="n">
+      <c r="IC85" s="1" t="n">
         <v>86.8</v>
+      </c>
+      <c r="ID85" t="n">
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61874,8 +62129,11 @@
       <c r="IB86" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IC86" t="n">
+      <c r="IC86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62589,8 +62847,11 @@
       <c r="IB87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC87" t="n">
+      <c r="IC87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63304,8 +63565,11 @@
       <c r="IB88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC88" t="n">
+      <c r="IC88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64019,8 +64283,11 @@
       <c r="IB89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC89" t="n">
+      <c r="IC89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64734,8 +65001,11 @@
       <c r="IB90" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="IC90" t="n">
+      <c r="IC90" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="ID90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65449,8 +65719,11 @@
       <c r="IB91" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="IC91" t="n">
+      <c r="IC91" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="ID91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66164,8 +66437,11 @@
       <c r="IB92" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="IC92" t="n">
+      <c r="IC92" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="ID92" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66879,8 +67155,11 @@
       <c r="IB93" s="1" t="n">
         <v>74.8</v>
       </c>
-      <c r="IC93" t="n">
+      <c r="IC93" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="ID93" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67594,8 +67873,11 @@
       <c r="IB94" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IC94" t="n">
+      <c r="IC94" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="ID94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68309,8 +68591,11 @@
       <c r="IB95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC95" t="n">
+      <c r="IC95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="ID95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69024,8 +69309,11 @@
       <c r="IB96" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC96" t="n">
+      <c r="IC96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="ID96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69739,8 +70027,11 @@
       <c r="IB97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IC97" t="n">
+      <c r="IC97" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="ID97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70454,8 +70745,11 @@
       <c r="IB98" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IC98" t="n">
+      <c r="IC98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="ID98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71169,8 +71463,11 @@
       <c r="IB99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IC99" t="n">
+      <c r="IC99" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="ID99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71884,8 +72181,11 @@
       <c r="IB100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC100" t="n">
+      <c r="IC100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72599,8 +72899,11 @@
       <c r="IB101" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC101" t="n">
+      <c r="IC101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73314,8 +73617,11 @@
       <c r="IB102" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC102" t="n">
+      <c r="IC102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="ID102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1102,8 +1102,11 @@
       <c r="IC1" s="1" t="n">
         <v>10475</v>
       </c>
-      <c r="ID1" t="n">
+      <c r="ID1" s="1" t="n">
         <v>10481</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>10491</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1820,7 +1823,10 @@
       <c r="IC2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="ID2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IE2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2538,8 +2544,11 @@
       <c r="IC3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="ID3" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3256,7 +3265,10 @@
       <c r="IC4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="ID4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3974,7 +3986,10 @@
       <c r="IC5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="ID5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,8 +4707,11 @@
       <c r="IC6" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="ID6" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5410,8 +5428,11 @@
       <c r="IC7" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="ID7" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6128,8 +6149,11 @@
       <c r="IC8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="ID8" s="1" t="n">
         <v>-13</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6846,7 +6870,10 @@
       <c r="IC9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="ID9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7564,8 +7591,11 @@
       <c r="IC10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="ID10" t="n">
+      <c r="ID10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8282,8 +8312,11 @@
       <c r="IC11" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="ID11" t="n">
+      <c r="ID11" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9000,8 +9033,11 @@
       <c r="IC12" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="ID12" t="n">
+      <c r="ID12" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9718,8 +9754,11 @@
       <c r="IC13" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="ID13" t="n">
+      <c r="ID13" s="1" t="n">
         <v>314</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10436,8 +10475,11 @@
       <c r="IC14" s="1" t="n">
         <v>1.13</v>
       </c>
-      <c r="ID14" t="n">
+      <c r="ID14" s="1" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11154,8 +11196,11 @@
       <c r="IC15" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="ID15" t="n">
+      <c r="ID15" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11872,8 +11917,11 @@
       <c r="IC16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="ID16" t="n">
+      <c r="ID16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12590,8 +12638,11 @@
       <c r="IC17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="ID17" t="n">
+      <c r="ID17" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13308,8 +13359,11 @@
       <c r="IC18" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID18" t="n">
+      <c r="ID18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14026,8 +14080,11 @@
       <c r="IC19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="ID19" t="n">
+      <c r="ID19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14744,8 +14801,11 @@
       <c r="IC20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID20" t="n">
+      <c r="ID20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15462,8 +15522,11 @@
       <c r="IC21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID21" t="n">
+      <c r="ID21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16180,8 +16243,11 @@
       <c r="IC22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID22" t="n">
+      <c r="ID22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16898,7 +16964,10 @@
       <c r="IC23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID23" t="n">
+      <c r="ID23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17616,8 +17685,11 @@
       <c r="IC24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="ID24" t="n">
+      <c r="ID24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18334,8 +18406,11 @@
       <c r="IC25" s="1" t="n">
         <v>48.1</v>
       </c>
-      <c r="ID25" t="n">
+      <c r="ID25" s="1" t="n">
         <v>38.9</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19052,8 +19127,11 @@
       <c r="IC26" s="1" t="n">
         <v>28.38</v>
       </c>
-      <c r="ID26" t="n">
+      <c r="ID26" s="1" t="n">
         <v>44.86</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>20.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19770,8 +19848,11 @@
       <c r="IC27" s="1" t="n">
         <v>13.67</v>
       </c>
-      <c r="ID27" t="n">
+      <c r="ID27" s="1" t="n">
         <v>17.44</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20488,8 +20569,11 @@
       <c r="IC28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="ID28" t="n">
+      <c r="ID28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IE28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21206,8 +21290,11 @@
       <c r="IC29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="ID29" t="n">
+      <c r="ID29" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21924,8 +22011,11 @@
       <c r="IC30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="ID30" t="n">
+      <c r="ID30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22642,8 +22732,11 @@
       <c r="IC31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="ID31" t="n">
+      <c r="ID31" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23360,8 +23453,11 @@
       <c r="IC32" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="ID32" t="n">
+      <c r="ID32" s="1" t="n">
         <v>2.39</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24078,8 +24174,11 @@
       <c r="IC33" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="ID33" t="n">
+      <c r="ID33" s="1" t="n">
         <v>6.14</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24796,8 +24895,11 @@
       <c r="IC34" s="1" t="n">
         <v>45.3</v>
       </c>
-      <c r="ID34" t="n">
+      <c r="ID34" s="1" t="n">
         <v>39.5</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25514,8 +25616,11 @@
       <c r="IC35" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="ID35" t="n">
+      <c r="ID35" s="1" t="n">
         <v>16.3</v>
+      </c>
+      <c r="IE35" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26232,8 +26337,11 @@
       <c r="IC36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="ID36" t="n">
+      <c r="ID36" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IE36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26950,8 +27058,11 @@
       <c r="IC37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="ID37" t="n">
+      <c r="ID37" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="IE37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27668,8 +27779,11 @@
       <c r="IC38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="ID38" t="n">
+      <c r="ID38" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="IE38" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28386,8 +28500,11 @@
       <c r="IC39" s="1" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="ID39" t="n">
+      <c r="ID39" s="1" t="n">
         <v>94.09999999999999</v>
+      </c>
+      <c r="IE39" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29104,8 +29221,11 @@
       <c r="IC40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID40" t="n">
+      <c r="ID40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IE40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29822,8 +29942,11 @@
       <c r="IC41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID41" t="n">
+      <c r="ID41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30540,7 +30663,10 @@
       <c r="IC42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="ID42" t="n">
+      <c r="ID42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31258,8 +31384,11 @@
       <c r="IC43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID43" t="n">
+      <c r="ID43" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31976,8 +32105,11 @@
       <c r="IC44" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="ID44" t="n">
+      <c r="ID44" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32694,8 +32826,11 @@
       <c r="IC45" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="ID45" t="n">
+      <c r="ID45" s="1" t="n">
         <v>197</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33412,8 +33547,11 @@
       <c r="IC46" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="ID46" t="n">
+      <c r="ID46" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="IE46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34130,8 +34268,11 @@
       <c r="IC47" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="ID47" t="n">
+      <c r="ID47" s="1" t="n">
         <v>74.2</v>
+      </c>
+      <c r="IE47" t="n">
+        <v>77.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34848,8 +34989,11 @@
       <c r="IC48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="ID48" t="n">
+      <c r="ID48" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IE48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35566,8 +35710,11 @@
       <c r="IC49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID49" t="n">
+      <c r="ID49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36284,8 +36431,11 @@
       <c r="IC50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID50" t="n">
+      <c r="ID50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37002,8 +37152,11 @@
       <c r="IC51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="ID51" t="n">
+      <c r="ID51" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IE51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37720,8 +37873,11 @@
       <c r="IC52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="ID52" t="n">
+      <c r="ID52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38438,8 +38594,11 @@
       <c r="IC53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="ID53" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39156,8 +39315,11 @@
       <c r="IC54" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="ID54" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IE54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39874,8 +40036,11 @@
       <c r="IC55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID55" t="n">
+      <c r="ID55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40592,8 +40757,11 @@
       <c r="IC56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="ID56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IE56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41310,8 +41478,11 @@
       <c r="IC57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="ID57" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="IE57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42028,8 +42199,11 @@
       <c r="IC58" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="ID58" t="n">
+      <c r="ID58" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="IE58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42746,8 +42920,11 @@
       <c r="IC59" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="ID59" t="n">
+      <c r="ID59" s="1" t="n">
         <v>374</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43464,8 +43641,11 @@
       <c r="IC60" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="ID60" t="n">
+      <c r="ID60" s="1" t="n">
         <v>1.88</v>
+      </c>
+      <c r="IE60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44182,8 +44362,11 @@
       <c r="IC61" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="ID61" t="n">
+      <c r="ID61" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44900,8 +45083,11 @@
       <c r="IC62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="ID62" t="n">
+      <c r="ID62" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45618,8 +45804,11 @@
       <c r="IC63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="ID63" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46336,8 +46525,11 @@
       <c r="IC64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="ID64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47054,8 +47246,11 @@
       <c r="IC65" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="ID65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IE65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47772,8 +47967,11 @@
       <c r="IC66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="ID66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48490,8 +48688,11 @@
       <c r="IC67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID67" t="n">
+      <c r="ID67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49208,8 +49409,11 @@
       <c r="IC68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID68" t="n">
+      <c r="ID68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49926,8 +50130,11 @@
       <c r="IC69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID69" t="n">
+      <c r="ID69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50644,8 +50851,11 @@
       <c r="IC70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="ID70" t="n">
+      <c r="ID70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51362,8 +51572,11 @@
       <c r="IC71" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="ID71" t="n">
+      <c r="ID71" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52080,8 +52293,11 @@
       <c r="IC72" s="1" t="n">
         <v>31.18</v>
       </c>
-      <c r="ID72" t="n">
+      <c r="ID72" s="1" t="n">
         <v>41.56</v>
+      </c>
+      <c r="IE72" t="n">
+        <v>22.65</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52798,8 +53014,11 @@
       <c r="IC73" s="1" t="n">
         <v>18.05</v>
       </c>
-      <c r="ID73" t="n">
+      <c r="ID73" s="1" t="n">
         <v>17.81</v>
+      </c>
+      <c r="IE73" t="n">
+        <v>16.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53516,8 +53735,11 @@
       <c r="IC74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="ID74" t="n">
+      <c r="ID74" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IE74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54234,8 +54456,11 @@
       <c r="IC75" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID75" t="n">
+      <c r="ID75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54952,8 +55177,11 @@
       <c r="IC76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID76" t="n">
+      <c r="ID76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55670,8 +55898,11 @@
       <c r="IC77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="ID77" t="n">
+      <c r="ID77" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IE77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56388,8 +56619,11 @@
       <c r="IC78" s="1" t="n">
         <v>2.58</v>
       </c>
-      <c r="ID78" t="n">
+      <c r="ID78" s="1" t="n">
         <v>2.05</v>
+      </c>
+      <c r="IE78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57106,8 +57340,11 @@
       <c r="IC79" s="1" t="n">
         <v>4.45</v>
       </c>
-      <c r="ID79" t="n">
+      <c r="ID79" s="1" t="n">
         <v>4.78</v>
+      </c>
+      <c r="IE79" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57824,8 +58061,11 @@
       <c r="IC80" s="1" t="n">
         <v>38.8</v>
       </c>
-      <c r="ID80" t="n">
+      <c r="ID80" s="1" t="n">
         <v>46.5</v>
+      </c>
+      <c r="IE80" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58542,8 +58782,11 @@
       <c r="IC81" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="ID81" t="n">
+      <c r="ID81" s="1" t="n">
         <v>20.9</v>
+      </c>
+      <c r="IE81" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59260,8 +59503,11 @@
       <c r="IC82" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="ID82" t="n">
+      <c r="ID82" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IE82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59978,8 +60224,11 @@
       <c r="IC83" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="ID83" t="n">
+      <c r="ID83" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IE83" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60696,8 +60945,11 @@
       <c r="IC84" s="1" t="n">
         <v>24.58</v>
       </c>
-      <c r="ID84" t="n">
+      <c r="ID84" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IE84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61414,8 +61666,11 @@
       <c r="IC85" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="ID85" t="n">
+      <c r="ID85" s="1" t="n">
         <v>94.59999999999999</v>
+      </c>
+      <c r="IE85" t="n">
+        <v>116.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62132,8 +62387,11 @@
       <c r="IC86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID86" t="n">
+      <c r="ID86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62850,8 +63108,11 @@
       <c r="IC87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID87" t="n">
+      <c r="ID87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63568,8 +63829,11 @@
       <c r="IC88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID88" t="n">
+      <c r="ID88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IE88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64286,7 +64550,10 @@
       <c r="IC89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID89" t="n">
+      <c r="ID89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -65004,8 +65271,11 @@
       <c r="IC90" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="ID90" t="n">
+      <c r="ID90" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="IE90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65722,8 +65992,11 @@
       <c r="IC91" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="ID91" t="n">
+      <c r="ID91" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IE91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66440,8 +66713,11 @@
       <c r="IC92" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="ID92" t="n">
+      <c r="ID92" s="1" t="n">
         <v>294</v>
+      </c>
+      <c r="IE92" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67158,8 +67434,11 @@
       <c r="IC93" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="ID93" t="n">
+      <c r="ID93" s="1" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="IE93" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67876,8 +68155,11 @@
       <c r="IC94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID94" t="n">
+      <c r="ID94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68594,8 +68876,11 @@
       <c r="IC95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID95" t="n">
+      <c r="ID95" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IE95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69312,8 +69597,11 @@
       <c r="IC96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID96" t="n">
+      <c r="ID96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IE96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70030,8 +70318,11 @@
       <c r="IC97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="ID97" t="n">
+      <c r="ID97" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IE97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70748,8 +71039,11 @@
       <c r="IC98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID98" t="n">
+      <c r="ID98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IE98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71466,8 +71760,11 @@
       <c r="IC99" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="ID99" t="n">
+      <c r="ID99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IE99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72184,8 +72481,11 @@
       <c r="IC100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID100" t="n">
+      <c r="ID100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72902,8 +73202,11 @@
       <c r="IC101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID101" t="n">
+      <c r="ID101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73620,8 +73923,11 @@
       <c r="IC102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="ID102" t="n">
+      <c r="ID102" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>76.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1105,8 +1105,11 @@
       <c r="ID1" s="1" t="n">
         <v>10481</v>
       </c>
-      <c r="IE1" t="n">
+      <c r="IE1" s="1" t="n">
         <v>10491</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>10504</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1826,7 +1829,10 @@
       <c r="ID2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IE2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IF2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2547,8 +2553,11 @@
       <c r="ID3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IE3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3268,8 +3277,11 @@
       <c r="ID4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IE4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3989,7 +4001,10 @@
       <c r="ID5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,8 +4725,11 @@
       <c r="ID6" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IE6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5431,8 +5449,11 @@
       <c r="ID7" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IE7" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6152,8 +6173,11 @@
       <c r="ID8" s="1" t="n">
         <v>-13</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IE8" s="1" t="n">
         <v>-7</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6873,8 +6897,11 @@
       <c r="ID9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="IE9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7594,8 +7621,11 @@
       <c r="ID10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE10" t="n">
+      <c r="IE10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8315,8 +8345,11 @@
       <c r="ID11" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="IE11" t="n">
+      <c r="IE11" s="1" t="n">
         <v>186</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9036,8 +9069,11 @@
       <c r="ID12" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IE12" t="n">
+      <c r="IE12" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9757,8 +9793,11 @@
       <c r="ID13" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="IE13" t="n">
+      <c r="IE13" s="1" t="n">
         <v>324</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10478,8 +10517,11 @@
       <c r="ID14" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="IE14" t="n">
+      <c r="IE14" s="1" t="n">
         <v>1.35</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11199,8 +11241,11 @@
       <c r="ID15" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="IE15" t="n">
+      <c r="IE15" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11920,8 +11965,11 @@
       <c r="ID16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IE16" t="n">
+      <c r="IE16" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12641,8 +12689,11 @@
       <c r="ID17" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IE17" t="n">
+      <c r="IE17" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13362,8 +13413,11 @@
       <c r="ID18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IE18" t="n">
+      <c r="IE18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14083,8 +14137,11 @@
       <c r="ID19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE19" t="n">
+      <c r="IE19" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14804,8 +14861,11 @@
       <c r="ID20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE20" t="n">
+      <c r="IE20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15525,8 +15585,11 @@
       <c r="ID21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE21" t="n">
+      <c r="IE21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16246,7 +16309,10 @@
       <c r="ID22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE22" t="n">
+      <c r="IE22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16967,8 +17033,11 @@
       <c r="ID23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE23" t="n">
+      <c r="IE23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17688,7 +17757,10 @@
       <c r="ID24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IE24" t="n">
+      <c r="IE24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="IF24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -18409,8 +18481,11 @@
       <c r="ID25" s="1" t="n">
         <v>38.9</v>
       </c>
-      <c r="IE25" t="n">
+      <c r="IE25" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19130,8 +19205,11 @@
       <c r="ID26" s="1" t="n">
         <v>44.86</v>
       </c>
-      <c r="IE26" t="n">
+      <c r="IE26" s="1" t="n">
         <v>20.25</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19851,8 +19929,11 @@
       <c r="ID27" s="1" t="n">
         <v>17.44</v>
       </c>
-      <c r="IE27" t="n">
+      <c r="IE27" s="1" t="n">
         <v>14.73</v>
+      </c>
+      <c r="IF27" t="n">
+        <v>14.59</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20572,8 +20653,11 @@
       <c r="ID28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IE28" t="n">
+      <c r="IE28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IF28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21293,8 +21377,11 @@
       <c r="ID29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IE29" t="n">
+      <c r="IE29" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IF29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22014,8 +22101,11 @@
       <c r="ID30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IE30" t="n">
+      <c r="IE30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22735,8 +22825,11 @@
       <c r="ID31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IE31" t="n">
+      <c r="IE31" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IF31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23456,8 +23549,11 @@
       <c r="ID32" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="IE32" t="n">
+      <c r="IE32" s="1" t="n">
         <v>2.27</v>
+      </c>
+      <c r="IF32" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24177,8 +24273,11 @@
       <c r="ID33" s="1" t="n">
         <v>6.14</v>
       </c>
-      <c r="IE33" t="n">
+      <c r="IE33" s="1" t="n">
         <v>3.12</v>
+      </c>
+      <c r="IF33" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24898,8 +24997,11 @@
       <c r="ID34" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="IE34" t="n">
+      <c r="IE34" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IF34" t="n">
+        <v>51.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25619,8 +25721,11 @@
       <c r="ID35" s="1" t="n">
         <v>16.3</v>
       </c>
-      <c r="IE35" t="n">
+      <c r="IE35" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IF35" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26340,7 +26445,10 @@
       <c r="ID36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="IE36" t="n">
+      <c r="IE36" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="IF36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -27061,8 +27169,11 @@
       <c r="ID37" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="IE37" t="n">
+      <c r="IE37" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IF37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27782,8 +27893,11 @@
       <c r="ID38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="IE38" t="n">
+      <c r="IE38" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="IF38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28503,8 +28617,11 @@
       <c r="ID39" s="1" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="IE39" t="n">
+      <c r="IE39" s="1" t="n">
         <v>78.8</v>
+      </c>
+      <c r="IF39" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29224,8 +29341,11 @@
       <c r="ID40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE40" t="n">
+      <c r="IE40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29945,8 +30065,11 @@
       <c r="ID41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE41" t="n">
+      <c r="IE41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30666,7 +30789,10 @@
       <c r="ID42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IE42" t="n">
+      <c r="IE42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31387,8 +31513,11 @@
       <c r="ID43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE43" t="n">
+      <c r="IE43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32108,8 +32237,11 @@
       <c r="ID44" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="IE44" t="n">
+      <c r="IE44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32829,8 +32961,11 @@
       <c r="ID45" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="IE45" t="n">
+      <c r="IE45" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33550,8 +33685,11 @@
       <c r="ID46" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="IE46" t="n">
+      <c r="IE46" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="IF46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34271,8 +34409,11 @@
       <c r="ID47" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="IE47" t="n">
+      <c r="IE47" s="1" t="n">
         <v>77.2</v>
+      </c>
+      <c r="IF47" t="n">
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34992,8 +35133,11 @@
       <c r="ID48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IE48" t="n">
+      <c r="IE48" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IF48" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35713,8 +35857,11 @@
       <c r="ID49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE49" t="n">
+      <c r="IE49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IF49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36434,8 +36581,11 @@
       <c r="ID50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE50" t="n">
+      <c r="IE50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IF50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37155,8 +37305,11 @@
       <c r="ID51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IE51" t="n">
+      <c r="IE51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IF51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37876,8 +38029,11 @@
       <c r="ID52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IE52" t="n">
+      <c r="IE52" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38597,8 +38753,11 @@
       <c r="ID53" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IE53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IF53" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39318,7 +39477,10 @@
       <c r="ID54" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IE54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40039,8 +40201,11 @@
       <c r="ID55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE55" t="n">
+      <c r="IE55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40760,8 +40925,11 @@
       <c r="ID56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IE56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IF56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41481,8 +41649,11 @@
       <c r="ID57" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IE57" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="IF57" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42202,8 +42373,11 @@
       <c r="ID58" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IE58" t="n">
+      <c r="IE58" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="IF58" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42923,8 +43097,11 @@
       <c r="ID59" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="IE59" t="n">
+      <c r="IE59" s="1" t="n">
         <v>385</v>
+      </c>
+      <c r="IF59" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43644,8 +43821,11 @@
       <c r="ID60" s="1" t="n">
         <v>1.88</v>
       </c>
-      <c r="IE60" t="n">
+      <c r="IE60" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IF60" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44365,8 +44545,11 @@
       <c r="ID61" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="IE61" t="n">
+      <c r="IE61" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="IF61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45086,8 +45269,11 @@
       <c r="ID62" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IE62" t="n">
+      <c r="IE62" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IF62" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45807,8 +45993,11 @@
       <c r="ID63" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IE63" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IF63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46528,8 +46717,11 @@
       <c r="ID64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IE64" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47249,8 +47441,11 @@
       <c r="ID65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IE65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IF65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47970,8 +48165,11 @@
       <c r="ID66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IE66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IF66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48691,8 +48889,11 @@
       <c r="ID67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE67" t="n">
+      <c r="IE67" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49412,8 +49613,11 @@
       <c r="ID68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IE68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50133,7 +50337,10 @@
       <c r="ID69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE69" t="n">
+      <c r="IE69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -50854,7 +51061,10 @@
       <c r="ID70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE70" t="n">
+      <c r="IE70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IF70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -51575,8 +51785,11 @@
       <c r="ID71" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="IE71" t="n">
+      <c r="IE71" s="1" t="n">
         <v>70.8</v>
+      </c>
+      <c r="IF71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52296,8 +52509,11 @@
       <c r="ID72" s="1" t="n">
         <v>41.56</v>
       </c>
-      <c r="IE72" t="n">
+      <c r="IE72" s="1" t="n">
         <v>22.65</v>
+      </c>
+      <c r="IF72" t="n">
+        <v>30.92</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53017,8 +53233,11 @@
       <c r="ID73" s="1" t="n">
         <v>17.81</v>
       </c>
-      <c r="IE73" t="n">
+      <c r="IE73" s="1" t="n">
         <v>16.04</v>
+      </c>
+      <c r="IF73" t="n">
+        <v>15.46</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53738,8 +53957,11 @@
       <c r="ID74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE74" t="n">
+      <c r="IE74" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54459,8 +54681,11 @@
       <c r="ID75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE75" t="n">
+      <c r="IE75" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IF75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55180,8 +55405,11 @@
       <c r="ID76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IE76" t="n">
+      <c r="IE76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IF76" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55901,8 +56129,11 @@
       <c r="ID77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IE77" t="n">
+      <c r="IE77" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IF77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56622,8 +56853,11 @@
       <c r="ID78" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="IE78" t="n">
+      <c r="IE78" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IF78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57343,8 +57577,11 @@
       <c r="ID79" s="1" t="n">
         <v>4.78</v>
       </c>
-      <c r="IE79" t="n">
+      <c r="IE79" s="1" t="n">
         <v>2.76</v>
+      </c>
+      <c r="IF79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58064,8 +58301,11 @@
       <c r="ID80" s="1" t="n">
         <v>46.5</v>
       </c>
-      <c r="IE80" t="n">
+      <c r="IE80" s="1" t="n">
         <v>46.8</v>
+      </c>
+      <c r="IF80" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58785,8 +59025,11 @@
       <c r="ID81" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="IE81" t="n">
+      <c r="IE81" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="IF81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59506,8 +59749,11 @@
       <c r="ID82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="IE82" t="n">
+      <c r="IE82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IF82" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60227,8 +60473,11 @@
       <c r="ID83" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="IE83" t="n">
+      <c r="IE83" s="1" t="n">
         <v>84.8</v>
+      </c>
+      <c r="IF83" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60948,8 +61197,11 @@
       <c r="ID84" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="IE84" t="n">
+      <c r="IE84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IF84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61669,8 +61921,11 @@
       <c r="ID85" s="1" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="IE85" t="n">
+      <c r="IE85" s="1" t="n">
         <v>116.3</v>
+      </c>
+      <c r="IF85" t="n">
+        <v>105.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62390,8 +62645,11 @@
       <c r="ID86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE86" t="n">
+      <c r="IE86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63111,8 +63369,11 @@
       <c r="ID87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE87" t="n">
+      <c r="IE87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63832,8 +64093,11 @@
       <c r="ID88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE88" t="n">
+      <c r="IE88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64553,8 +64817,11 @@
       <c r="ID89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE89" t="n">
+      <c r="IE89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65274,8 +65541,11 @@
       <c r="ID90" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="IE90" t="n">
+      <c r="IE90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="IF90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65995,8 +66265,11 @@
       <c r="ID91" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IE91" t="n">
+      <c r="IE91" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="IF91" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66716,8 +66989,11 @@
       <c r="ID92" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="IE92" t="n">
+      <c r="IE92" s="1" t="n">
         <v>304</v>
+      </c>
+      <c r="IF92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67437,8 +67713,11 @@
       <c r="ID93" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IE93" t="n">
+      <c r="IE93" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IF93" t="n">
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68158,8 +68437,11 @@
       <c r="ID94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE94" t="n">
+      <c r="IE94" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IF94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68879,8 +69161,11 @@
       <c r="ID95" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IE95" t="n">
+      <c r="IE95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IF95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69600,8 +69885,11 @@
       <c r="ID96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IE96" t="n">
+      <c r="IE96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IF96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70321,8 +70609,11 @@
       <c r="ID97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE97" t="n">
+      <c r="IE97" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IF97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71042,8 +71333,11 @@
       <c r="ID98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IE98" t="n">
+      <c r="IE98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IF98" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71763,8 +72057,11 @@
       <c r="ID99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IE99" t="n">
+      <c r="IE99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IF99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72484,8 +72781,11 @@
       <c r="ID100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE100" t="n">
+      <c r="IE100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73205,8 +73505,11 @@
       <c r="ID101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE101" t="n">
+      <c r="IE101" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73926,8 +74229,11 @@
       <c r="ID102" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="IE102" t="n">
+      <c r="IE102" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="IF102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1108,8 +1176,11 @@
       <c r="IE1" s="1" t="n">
         <v>10491</v>
       </c>
-      <c r="IF1" t="n">
+      <c r="IF1" s="1" t="n">
         <v>10504</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>10509</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1832,7 +1903,10 @@
       <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IF2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IG2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2556,8 +2630,11 @@
       <c r="IE3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IF3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3280,7 +3357,10 @@
       <c r="IE4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IF4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,7 +4084,10 @@
       <c r="IE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,8 +4811,11 @@
       <c r="IE6" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IF6" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5452,8 +5538,11 @@
       <c r="IE7" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IF7" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6176,8 +6265,11 @@
       <c r="IE8" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="IF8" t="n">
+      <c r="IF8" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6900,7 +6992,10 @@
       <c r="IE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IF9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,8 +7719,11 @@
       <c r="IE10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF10" t="n">
+      <c r="IF10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8348,8 +8446,11 @@
       <c r="IE11" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="IF11" t="n">
+      <c r="IF11" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9072,8 +9173,11 @@
       <c r="IE12" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="IF12" t="n">
+      <c r="IF12" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9796,8 +9900,11 @@
       <c r="IE13" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="IF13" t="n">
+      <c r="IF13" s="1" t="n">
         <v>321</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10520,8 +10627,11 @@
       <c r="IE14" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="IF14" t="n">
+      <c r="IF14" s="1" t="n">
         <v>1.4</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11244,8 +11354,11 @@
       <c r="IE15" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IF15" t="n">
+      <c r="IF15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11968,8 +12081,11 @@
       <c r="IE16" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IF16" t="n">
+      <c r="IF16" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12692,8 +12808,11 @@
       <c r="IE17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF17" t="n">
+      <c r="IF17" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13416,8 +13535,11 @@
       <c r="IE18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IF18" t="n">
+      <c r="IF18" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IG18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14140,7 +14262,10 @@
       <c r="IE19" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF19" t="n">
+      <c r="IF19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IG19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -14864,8 +14989,11 @@
       <c r="IE20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF20" t="n">
+      <c r="IF20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IG20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15588,8 +15716,11 @@
       <c r="IE21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF21" t="n">
+      <c r="IF21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16312,8 +16443,11 @@
       <c r="IE22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF22" t="n">
+      <c r="IF22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17036,8 +17170,11 @@
       <c r="IE23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF23" t="n">
+      <c r="IF23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17760,8 +17897,11 @@
       <c r="IE24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IF24" t="n">
+      <c r="IF24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18484,8 +18624,11 @@
       <c r="IE25" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="IF25" t="n">
+      <c r="IF25" s="1" t="n">
         <v>68.2</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19208,8 +19351,11 @@
       <c r="IE26" s="1" t="n">
         <v>20.25</v>
       </c>
-      <c r="IF26" t="n">
+      <c r="IF26" s="1" t="n">
         <v>21.4</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>28.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19932,8 +20078,11 @@
       <c r="IE27" s="1" t="n">
         <v>14.73</v>
       </c>
-      <c r="IF27" t="n">
+      <c r="IF27" s="1" t="n">
         <v>14.59</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>14.46</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20656,8 +20805,11 @@
       <c r="IE28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF28" t="n">
+      <c r="IF28" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IG28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21380,8 +21532,11 @@
       <c r="IE29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IF29" t="n">
+      <c r="IF29" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IG29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22104,8 +22259,11 @@
       <c r="IE30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF30" t="n">
+      <c r="IF30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IG30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22828,8 +22986,11 @@
       <c r="IE31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IF31" t="n">
+      <c r="IF31" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IG31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23552,8 +23713,11 @@
       <c r="IE32" s="1" t="n">
         <v>2.27</v>
       </c>
-      <c r="IF32" t="n">
+      <c r="IF32" s="1" t="n">
         <v>1.77</v>
+      </c>
+      <c r="IG32" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24276,8 +24440,11 @@
       <c r="IE33" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="IF33" t="n">
+      <c r="IF33" s="1" t="n">
         <v>2.6</v>
+      </c>
+      <c r="IG33" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25000,8 +25167,11 @@
       <c r="IE34" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IF34" t="n">
+      <c r="IF34" s="1" t="n">
         <v>51.3</v>
+      </c>
+      <c r="IG34" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25724,8 +25894,11 @@
       <c r="IE35" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IF35" t="n">
+      <c r="IF35" s="1" t="n">
         <v>38.5</v>
+      </c>
+      <c r="IG35" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26448,8 +26621,11 @@
       <c r="IE36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="IF36" t="n">
+      <c r="IF36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="IG36" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27172,8 +27348,11 @@
       <c r="IE37" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="IF37" t="n">
+      <c r="IF37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IG37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27896,8 +28075,11 @@
       <c r="IE38" s="1" t="n">
         <v>23.91</v>
       </c>
-      <c r="IF38" t="n">
+      <c r="IF38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IG38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28620,8 +28802,11 @@
       <c r="IE39" s="1" t="n">
         <v>78.8</v>
       </c>
-      <c r="IF39" t="n">
+      <c r="IF39" s="1" t="n">
         <v>75.5</v>
+      </c>
+      <c r="IG39" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29344,7 +29529,10 @@
       <c r="IE40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF40" t="n">
+      <c r="IF40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IG40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -30068,7 +30256,10 @@
       <c r="IE41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF41" t="n">
+      <c r="IF41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30792,8 +30983,11 @@
       <c r="IE42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF42" t="n">
+      <c r="IF42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31516,8 +31710,11 @@
       <c r="IE43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF43" t="n">
+      <c r="IF43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IG43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32240,8 +32437,11 @@
       <c r="IE44" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IF44" t="n">
+      <c r="IF44" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="IG44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32964,8 +33164,11 @@
       <c r="IE45" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="IF45" t="n">
+      <c r="IF45" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33688,8 +33891,11 @@
       <c r="IE46" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="IF46" t="n">
+      <c r="IF46" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="IG46" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34412,8 +34618,11 @@
       <c r="IE47" s="1" t="n">
         <v>77.2</v>
       </c>
-      <c r="IF47" t="n">
+      <c r="IF47" s="1" t="n">
         <v>80.09999999999999</v>
+      </c>
+      <c r="IG47" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35136,8 +35345,11 @@
       <c r="IE48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IF48" t="n">
+      <c r="IF48" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IG48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35860,8 +36072,11 @@
       <c r="IE49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF49" t="n">
+      <c r="IF49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36584,8 +36799,11 @@
       <c r="IE50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IF50" t="n">
+      <c r="IF50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37308,8 +37526,11 @@
       <c r="IE51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF51" t="n">
+      <c r="IF51" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IG51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38032,8 +38253,11 @@
       <c r="IE52" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF52" t="n">
+      <c r="IF52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IG52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38756,8 +38980,11 @@
       <c r="IE53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IF53" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IG53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39480,8 +39707,11 @@
       <c r="IE54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IF54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40204,8 +40434,11 @@
       <c r="IE55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF55" t="n">
+      <c r="IF55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40928,8 +41161,11 @@
       <c r="IE56" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IF56" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IG56" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41652,8 +41888,11 @@
       <c r="IE57" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IF57" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="IG57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42376,8 +42615,11 @@
       <c r="IE58" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="IF58" t="n">
+      <c r="IF58" s="1" t="n">
         <v>182</v>
+      </c>
+      <c r="IG58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43100,8 +43342,11 @@
       <c r="IE59" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="IF59" t="n">
+      <c r="IF59" s="1" t="n">
         <v>371</v>
+      </c>
+      <c r="IG59" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43824,8 +44069,11 @@
       <c r="IE60" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="IF60" t="n">
+      <c r="IF60" s="1" t="n">
         <v>1.04</v>
+      </c>
+      <c r="IG60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44548,8 +44796,11 @@
       <c r="IE61" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IF61" t="n">
+      <c r="IF61" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IG61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45272,8 +45523,11 @@
       <c r="IE62" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IF62" t="n">
+      <c r="IF62" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IG62" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45996,8 +46250,11 @@
       <c r="IE63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IF63" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IG63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46720,7 +46977,10 @@
       <c r="IE64" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IF64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IG64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -47444,8 +47704,11 @@
       <c r="IE65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IF65" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IG65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48168,8 +48431,11 @@
       <c r="IE66" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IF66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48892,8 +49158,11 @@
       <c r="IE67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF67" t="n">
+      <c r="IF67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49616,8 +49885,11 @@
       <c r="IE68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF68" t="n">
+      <c r="IF68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IG68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50340,8 +50612,11 @@
       <c r="IE69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF69" t="n">
+      <c r="IF69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51064,8 +51339,11 @@
       <c r="IE70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IF70" t="n">
+      <c r="IF70" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IG70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51788,8 +52066,11 @@
       <c r="IE71" s="1" t="n">
         <v>70.8</v>
       </c>
-      <c r="IF71" t="n">
+      <c r="IF71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IG71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52512,8 +52793,11 @@
       <c r="IE72" s="1" t="n">
         <v>22.65</v>
       </c>
-      <c r="IF72" t="n">
+      <c r="IF72" s="1" t="n">
         <v>30.92</v>
+      </c>
+      <c r="IG72" t="n">
+        <v>86.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53236,8 +53520,11 @@
       <c r="IE73" s="1" t="n">
         <v>16.04</v>
       </c>
-      <c r="IF73" t="n">
+      <c r="IF73" s="1" t="n">
         <v>15.46</v>
+      </c>
+      <c r="IG73" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53960,7 +54247,10 @@
       <c r="IE74" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF74" t="n">
+      <c r="IF74" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IG74" t="n">
         <v>31</v>
       </c>
     </row>
@@ -54684,8 +54974,11 @@
       <c r="IE75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IF75" t="n">
+      <c r="IF75" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IG75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55408,8 +55701,11 @@
       <c r="IE76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF76" t="n">
+      <c r="IF76" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56132,8 +56428,11 @@
       <c r="IE77" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IF77" t="n">
+      <c r="IF77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IG77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56856,8 +57155,11 @@
       <c r="IE78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="IF78" t="n">
+      <c r="IF78" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IG78" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57580,8 +57882,11 @@
       <c r="IE79" s="1" t="n">
         <v>2.76</v>
       </c>
-      <c r="IF79" t="n">
+      <c r="IF79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG79" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58304,8 +58609,11 @@
       <c r="IE80" s="1" t="n">
         <v>46.8</v>
       </c>
-      <c r="IF80" t="n">
+      <c r="IF80" s="1" t="n">
         <v>36.7</v>
+      </c>
+      <c r="IG80" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59028,8 +59336,11 @@
       <c r="IE81" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="IF81" t="n">
+      <c r="IF81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IG81" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59752,8 +60063,11 @@
       <c r="IE82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="IF82" t="n">
+      <c r="IF82" s="1" t="n">
         <v>187.1</v>
+      </c>
+      <c r="IG82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60476,8 +60790,11 @@
       <c r="IE83" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="IF83" t="n">
+      <c r="IF83" s="1" t="n">
         <v>84.7</v>
+      </c>
+      <c r="IG83" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61200,8 +61517,11 @@
       <c r="IE84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IF84" t="n">
+      <c r="IF84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IG84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61924,8 +62244,11 @@
       <c r="IE85" s="1" t="n">
         <v>116.3</v>
       </c>
-      <c r="IF85" t="n">
+      <c r="IF85" s="1" t="n">
         <v>105.4</v>
+      </c>
+      <c r="IG85" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62648,8 +62971,11 @@
       <c r="IE86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF86" t="n">
+      <c r="IF86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63372,8 +63698,11 @@
       <c r="IE87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF87" t="n">
+      <c r="IF87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64096,8 +64425,11 @@
       <c r="IE88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF88" t="n">
+      <c r="IF88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64820,8 +65152,11 @@
       <c r="IE89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF89" t="n">
+      <c r="IF89" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65544,8 +65879,11 @@
       <c r="IE90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IF90" t="n">
+      <c r="IF90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="IG90" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66268,8 +66606,11 @@
       <c r="IE91" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="IF91" t="n">
+      <c r="IF91" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="IG91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66992,8 +67333,11 @@
       <c r="IE92" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="IF92" t="n">
+      <c r="IF92" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="IG92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67716,8 +68060,11 @@
       <c r="IE93" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IF93" t="n">
+      <c r="IF93" s="1" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="IG93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68440,8 +68787,11 @@
       <c r="IE94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IF94" t="n">
+      <c r="IF94" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IG94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69164,8 +69514,11 @@
       <c r="IE95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF95" t="n">
+      <c r="IF95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IG95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69888,8 +70241,11 @@
       <c r="IE96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF96" t="n">
+      <c r="IF96" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IG96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70612,7 +70968,10 @@
       <c r="IE97" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IF97" t="n">
+      <c r="IF97" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IG97" t="n">
         <v>31</v>
       </c>
     </row>
@@ -71336,8 +71695,11 @@
       <c r="IE98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IF98" t="n">
+      <c r="IF98" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72060,8 +72422,11 @@
       <c r="IE99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IF99" t="n">
+      <c r="IF99" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IG99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72784,8 +73149,11 @@
       <c r="IE100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF100" t="n">
+      <c r="IF100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73508,8 +73876,11 @@
       <c r="IE101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF101" t="n">
+      <c r="IF101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74232,8 +74603,11 @@
       <c r="IE102" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="IF102" t="n">
+      <c r="IF102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IG102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1179,8 +1179,11 @@
       <c r="IF1" s="1" t="n">
         <v>10504</v>
       </c>
-      <c r="IG1" t="n">
+      <c r="IG1" s="1" t="n">
         <v>10509</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>10518</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1906,7 +1909,10 @@
       <c r="IF2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IG2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IH2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2633,8 +2639,11 @@
       <c r="IF3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IG3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3360,8 +3369,11 @@
       <c r="IF4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IG4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4087,8 +4099,11 @@
       <c r="IF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IG5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4814,8 +4829,11 @@
       <c r="IF6" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="IG6" t="n">
+      <c r="IG6" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5541,8 +5559,11 @@
       <c r="IF7" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IG7" t="n">
+      <c r="IG7" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6268,8 +6289,11 @@
       <c r="IF8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG8" t="n">
+      <c r="IG8" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6995,7 +7019,10 @@
       <c r="IF9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG9" t="n">
+      <c r="IG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7722,8 +7749,11 @@
       <c r="IF10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IG10" t="n">
+      <c r="IG10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8449,8 +8479,11 @@
       <c r="IF11" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="IG11" t="n">
+      <c r="IG11" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9176,8 +9209,11 @@
       <c r="IF12" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="IG12" t="n">
+      <c r="IG12" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9903,8 +9939,11 @@
       <c r="IF13" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="IG13" t="n">
+      <c r="IG13" s="1" t="n">
         <v>405</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10630,8 +10669,11 @@
       <c r="IF14" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="IG14" t="n">
+      <c r="IG14" s="1" t="n">
         <v>1.21</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11357,8 +11399,11 @@
       <c r="IF15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IG15" t="n">
+      <c r="IG15" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12084,8 +12129,11 @@
       <c r="IF16" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IG16" t="n">
+      <c r="IG16" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12811,8 +12859,11 @@
       <c r="IF17" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IG17" t="n">
+      <c r="IG17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13538,8 +13589,11 @@
       <c r="IF18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IG18" t="n">
+      <c r="IG18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14265,8 +14319,11 @@
       <c r="IF19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IG19" t="n">
+      <c r="IG19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14992,8 +15049,11 @@
       <c r="IF20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IG20" t="n">
+      <c r="IG20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15719,8 +15779,11 @@
       <c r="IF21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG21" t="n">
+      <c r="IG21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16446,8 +16509,11 @@
       <c r="IF22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG22" t="n">
+      <c r="IG22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17173,8 +17239,11 @@
       <c r="IF23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG23" t="n">
+      <c r="IG23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17900,8 +17969,11 @@
       <c r="IF24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG24" t="n">
+      <c r="IG24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18627,8 +18699,11 @@
       <c r="IF25" s="1" t="n">
         <v>68.2</v>
       </c>
-      <c r="IG25" t="n">
+      <c r="IG25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19354,8 +19429,11 @@
       <c r="IF26" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="IG26" t="n">
+      <c r="IG26" s="1" t="n">
         <v>28.93</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20081,8 +20159,11 @@
       <c r="IF27" s="1" t="n">
         <v>14.59</v>
       </c>
-      <c r="IG27" t="n">
+      <c r="IG27" s="1" t="n">
         <v>14.46</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>17.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20808,8 +20889,11 @@
       <c r="IF28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IG28" t="n">
+      <c r="IG28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21535,8 +21619,11 @@
       <c r="IF29" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IG29" t="n">
+      <c r="IG29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22262,8 +22349,11 @@
       <c r="IF30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IG30" t="n">
+      <c r="IG30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22989,8 +23079,11 @@
       <c r="IF31" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IG31" t="n">
+      <c r="IG31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23716,8 +23809,11 @@
       <c r="IF32" s="1" t="n">
         <v>1.77</v>
       </c>
-      <c r="IG32" t="n">
+      <c r="IG32" s="1" t="n">
         <v>2.18</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24443,8 +24539,11 @@
       <c r="IF33" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="IG33" t="n">
+      <c r="IG33" s="1" t="n">
         <v>4.36</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25170,8 +25269,11 @@
       <c r="IF34" s="1" t="n">
         <v>51.3</v>
       </c>
-      <c r="IG34" t="n">
+      <c r="IG34" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25897,8 +25999,11 @@
       <c r="IF35" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="IG35" t="n">
+      <c r="IG35" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IH35" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26624,7 +26729,10 @@
       <c r="IF36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="IG36" t="n">
+      <c r="IG36" s="1" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="IH36" t="n">
         <v>187.1</v>
       </c>
     </row>
@@ -27351,7 +27459,10 @@
       <c r="IF37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IG37" t="n">
+      <c r="IG37" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IH37" t="n">
         <v>86.5</v>
       </c>
     </row>
@@ -28078,8 +28189,11 @@
       <c r="IF38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IG38" t="n">
+      <c r="IG38" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IH38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28805,8 +28919,11 @@
       <c r="IF39" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IG39" t="n">
+      <c r="IG39" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IH39" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29532,7 +29649,10 @@
       <c r="IF40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG40" t="n">
+      <c r="IG40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IH40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -30259,7 +30379,10 @@
       <c r="IF41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG41" t="n">
+      <c r="IG41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30986,7 +31109,10 @@
       <c r="IF42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG42" t="n">
+      <c r="IG42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31713,7 +31839,10 @@
       <c r="IF43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG43" t="n">
+      <c r="IG43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32440,8 +32569,11 @@
       <c r="IF44" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="IG44" t="n">
+      <c r="IG44" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33167,8 +33299,11 @@
       <c r="IF45" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="IG45" t="n">
+      <c r="IG45" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33894,8 +34029,11 @@
       <c r="IF46" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="IG46" t="n">
+      <c r="IG46" s="1" t="n">
         <v>313</v>
+      </c>
+      <c r="IH46" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34621,8 +34759,11 @@
       <c r="IF47" s="1" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="IG47" t="n">
+      <c r="IG47" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="IH47" t="n">
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35348,8 +35489,11 @@
       <c r="IF48" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IG48" t="n">
+      <c r="IG48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IH48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36075,8 +36219,11 @@
       <c r="IF49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG49" t="n">
+      <c r="IG49" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IH49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36802,8 +36949,11 @@
       <c r="IF50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG50" t="n">
+      <c r="IG50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IH50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37529,8 +37679,11 @@
       <c r="IF51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IG51" t="n">
+      <c r="IG51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38256,8 +38409,11 @@
       <c r="IF52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IG52" t="n">
+      <c r="IG52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38983,8 +39139,11 @@
       <c r="IF53" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IG53" t="n">
+      <c r="IG53" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39710,7 +39869,10 @@
       <c r="IF54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG54" t="n">
+      <c r="IG54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IH54" t="n">
         <v>10</v>
       </c>
     </row>
@@ -40437,8 +40599,11 @@
       <c r="IF55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG55" t="n">
+      <c r="IG55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41164,8 +41329,11 @@
       <c r="IF56" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="IG56" t="n">
+      <c r="IG56" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IH56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41891,8 +42059,11 @@
       <c r="IF57" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="IG57" t="n">
+      <c r="IG57" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="IH57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42618,8 +42789,11 @@
       <c r="IF58" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="IG58" t="n">
+      <c r="IG58" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IH58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43345,8 +43519,11 @@
       <c r="IF59" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="IG59" t="n">
+      <c r="IG59" s="1" t="n">
         <v>345</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44072,8 +44249,11 @@
       <c r="IF60" s="1" t="n">
         <v>1.04</v>
       </c>
-      <c r="IG60" t="n">
+      <c r="IG60" s="1" t="n">
         <v>1.46</v>
+      </c>
+      <c r="IH60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44799,8 +44979,11 @@
       <c r="IF61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IG61" t="n">
+      <c r="IG61" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45526,8 +45709,11 @@
       <c r="IF62" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IG62" t="n">
+      <c r="IG62" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46253,8 +46439,11 @@
       <c r="IF63" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IG63" t="n">
+      <c r="IG63" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46980,8 +47169,11 @@
       <c r="IF64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IG64" t="n">
+      <c r="IG64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IH64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47707,8 +47899,11 @@
       <c r="IF65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IG65" t="n">
+      <c r="IG65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48434,8 +48629,11 @@
       <c r="IF66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IG66" t="n">
+      <c r="IG66" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49161,8 +49359,11 @@
       <c r="IF67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG67" t="n">
+      <c r="IG67" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49888,8 +50089,11 @@
       <c r="IF68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IG68" t="n">
+      <c r="IG68" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50615,8 +50819,11 @@
       <c r="IF69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG69" t="n">
+      <c r="IG69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51342,8 +51549,11 @@
       <c r="IF70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IG70" t="n">
+      <c r="IG70" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52069,8 +52279,11 @@
       <c r="IF71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IG71" t="n">
+      <c r="IG71" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52796,8 +53009,11 @@
       <c r="IF72" s="1" t="n">
         <v>30.92</v>
       </c>
-      <c r="IG72" t="n">
+      <c r="IG72" s="1" t="n">
         <v>86.25</v>
+      </c>
+      <c r="IH72" t="n">
+        <v>38.89</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53523,8 +53739,11 @@
       <c r="IF73" s="1" t="n">
         <v>15.46</v>
       </c>
-      <c r="IG73" t="n">
+      <c r="IG73" s="1" t="n">
         <v>34.5</v>
+      </c>
+      <c r="IH73" t="n">
+        <v>18.42</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54250,8 +54469,11 @@
       <c r="IF74" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IG74" t="n">
+      <c r="IG74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IH74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54977,8 +55199,11 @@
       <c r="IF75" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IG75" t="n">
+      <c r="IG75" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IH75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55704,8 +55929,11 @@
       <c r="IF76" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG76" t="n">
+      <c r="IG76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56431,8 +56659,11 @@
       <c r="IF77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IG77" t="n">
+      <c r="IG77" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57158,8 +57389,11 @@
       <c r="IF78" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="IG78" t="n">
+      <c r="IG78" s="1" t="n">
         <v>4.6</v>
+      </c>
+      <c r="IH78" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57885,8 +58119,11 @@
       <c r="IF79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG79" t="n">
+      <c r="IG79" s="1" t="n">
         <v>11.5</v>
+      </c>
+      <c r="IH79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58612,8 +58849,11 @@
       <c r="IF80" s="1" t="n">
         <v>36.7</v>
       </c>
-      <c r="IG80" t="n">
+      <c r="IG80" s="1" t="n">
         <v>15.2</v>
+      </c>
+      <c r="IH80" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59339,8 +59579,11 @@
       <c r="IF81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IG81" t="n">
+      <c r="IG81" s="1" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="IH81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60066,8 +60309,11 @@
       <c r="IF82" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="IG82" t="n">
+      <c r="IG82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IH82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60793,8 +61039,11 @@
       <c r="IF83" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="IG83" t="n">
+      <c r="IG83" s="1" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="IH83" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61520,8 +61769,11 @@
       <c r="IF84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="IG84" t="n">
+      <c r="IG84" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IH84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62247,8 +62499,11 @@
       <c r="IF85" s="1" t="n">
         <v>105.4</v>
       </c>
-      <c r="IG85" t="n">
+      <c r="IG85" s="1" t="n">
         <v>68.2</v>
+      </c>
+      <c r="IH85" t="n">
+        <v>100.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62974,8 +63229,11 @@
       <c r="IF86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG86" t="n">
+      <c r="IG86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63701,8 +63959,11 @@
       <c r="IF87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG87" t="n">
+      <c r="IG87" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64428,7 +64689,10 @@
       <c r="IF88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG88" t="n">
+      <c r="IG88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -65155,8 +65419,11 @@
       <c r="IF89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG89" t="n">
+      <c r="IG89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65882,8 +66149,11 @@
       <c r="IF90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="IG90" t="n">
+      <c r="IG90" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="IH90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66609,8 +66879,11 @@
       <c r="IF91" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="IG91" t="n">
+      <c r="IG91" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IH91" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67336,8 +67609,11 @@
       <c r="IF92" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="IG92" t="n">
+      <c r="IG92" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="IH92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68063,8 +68339,11 @@
       <c r="IF93" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="IG93" t="n">
+      <c r="IG93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IH93" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68790,8 +69069,11 @@
       <c r="IF94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IG94" t="n">
+      <c r="IG94" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IH94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69517,7 +69799,10 @@
       <c r="IF95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IG95" t="n">
+      <c r="IG95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IH95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -70244,8 +70529,11 @@
       <c r="IF96" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IG96" t="n">
+      <c r="IG96" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70971,8 +71259,11 @@
       <c r="IF97" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IG97" t="n">
+      <c r="IG97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IH97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71698,8 +71989,11 @@
       <c r="IF98" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG98" t="n">
+      <c r="IG98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IH98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72425,8 +72719,11 @@
       <c r="IF99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IG99" t="n">
+      <c r="IG99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IH99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73152,8 +73449,11 @@
       <c r="IF100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG100" t="n">
+      <c r="IG100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73879,8 +74179,11 @@
       <c r="IF101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG101" t="n">
+      <c r="IG101" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74606,8 +74909,11 @@
       <c r="IF102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IG102" t="n">
+      <c r="IG102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IH102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -85,74 +85,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -445,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GP77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV100" activeCellId="0" sqref="GV100"/>
@@ -1182,8 +1114,11 @@
       <c r="IG1" s="1" t="n">
         <v>10509</v>
       </c>
-      <c r="IH1" t="n">
+      <c r="IH1" s="1" t="n">
         <v>10518</v>
+      </c>
+      <c r="II1" t="n">
+        <v>10538</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1912,7 +1847,10 @@
       <c r="IG2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IH2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="II2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2642,8 +2580,11 @@
       <c r="IG3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IH3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="II3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3372,8 +3313,11 @@
       <c r="IG4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IH4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4102,7 +4046,10 @@
       <c r="IG5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4832,8 +4779,11 @@
       <c r="IG6" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="IH6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="II6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5562,8 +5512,11 @@
       <c r="IG7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="IH7" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="II7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6292,8 +6245,11 @@
       <c r="IG8" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IH8" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="II8" t="n">
+        <v>-49</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7022,8 +6978,11 @@
       <c r="IG9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IH9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7752,8 +7711,11 @@
       <c r="IG10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH10" t="n">
+      <c r="IH10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8482,8 +8444,11 @@
       <c r="IG11" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="IH11" t="n">
+      <c r="IH11" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="II11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9212,8 +9177,11 @@
       <c r="IG12" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="IH12" t="n">
+      <c r="IH12" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="II12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9942,8 +9910,11 @@
       <c r="IG13" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="IH13" t="n">
+      <c r="IH13" s="1" t="n">
         <v>392</v>
+      </c>
+      <c r="II13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10672,8 +10643,11 @@
       <c r="IG14" s="1" t="n">
         <v>1.21</v>
       </c>
-      <c r="IH14" t="n">
+      <c r="IH14" s="1" t="n">
         <v>1.47</v>
+      </c>
+      <c r="II14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11402,8 +11376,11 @@
       <c r="IG15" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IH15" t="n">
+      <c r="IH15" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="II15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12132,8 +12109,11 @@
       <c r="IG16" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IH16" t="n">
+      <c r="IH16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="II16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12862,8 +12842,11 @@
       <c r="IG17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IH17" t="n">
+      <c r="IH17" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="II17" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13592,8 +13575,11 @@
       <c r="IG18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH18" t="n">
+      <c r="IH18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="II18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14322,8 +14308,11 @@
       <c r="IG19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IH19" t="n">
+      <c r="IH19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15052,8 +15041,11 @@
       <c r="IG20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IH20" t="n">
+      <c r="IH20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="II20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15782,8 +15774,11 @@
       <c r="IG21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH21" t="n">
+      <c r="IH21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16512,8 +16507,11 @@
       <c r="IG22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IH22" t="n">
+      <c r="IH22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17242,8 +17240,11 @@
       <c r="IG23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH23" t="n">
+      <c r="IH23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17972,8 +17973,11 @@
       <c r="IG24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IH24" t="n">
+      <c r="IH24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="II24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18702,8 +18706,11 @@
       <c r="IG25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH25" t="n">
+      <c r="IH25" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="II25" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19432,8 +19439,11 @@
       <c r="IG26" s="1" t="n">
         <v>28.93</v>
       </c>
-      <c r="IH26" t="n">
+      <c r="IH26" s="1" t="n">
         <v>24.5</v>
+      </c>
+      <c r="II26" t="n">
+        <v>91.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20162,8 +20172,11 @@
       <c r="IG27" s="1" t="n">
         <v>14.46</v>
       </c>
-      <c r="IH27" t="n">
+      <c r="IH27" s="1" t="n">
         <v>17.82</v>
+      </c>
+      <c r="II27" t="n">
+        <v>22.94</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20892,8 +20905,11 @@
       <c r="IG28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH28" t="n">
+      <c r="IH28" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="II28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21622,8 +21638,11 @@
       <c r="IG29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IH29" t="n">
+      <c r="IH29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="II29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22352,8 +22371,11 @@
       <c r="IG30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH30" t="n">
+      <c r="IH30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="II30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23082,8 +23104,11 @@
       <c r="IG31" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IH31" t="n">
+      <c r="IH31" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="II31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23812,8 +23837,11 @@
       <c r="IG32" s="1" t="n">
         <v>2.18</v>
       </c>
-      <c r="IH32" t="n">
+      <c r="IH32" s="1" t="n">
         <v>2.45</v>
+      </c>
+      <c r="II32" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24542,8 +24570,11 @@
       <c r="IG33" s="1" t="n">
         <v>4.36</v>
       </c>
-      <c r="IH33" t="n">
+      <c r="IH33" s="1" t="n">
         <v>3.38</v>
+      </c>
+      <c r="II33" t="n">
+        <v>12.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25272,8 +25303,11 @@
       <c r="IG34" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IH34" t="n">
+      <c r="IH34" s="1" t="n">
         <v>40.7</v>
+      </c>
+      <c r="II34" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26002,8 +26036,11 @@
       <c r="IG35" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IH35" t="n">
+      <c r="IH35" s="1" t="n">
         <v>29.6</v>
+      </c>
+      <c r="II35" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26732,8 +26769,11 @@
       <c r="IG36" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="IH36" t="n">
+      <c r="IH36" s="1" t="n">
         <v>187.1</v>
+      </c>
+      <c r="II36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27462,8 +27502,11 @@
       <c r="IG37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="IH37" t="n">
+      <c r="IH37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="II37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28192,7 +28235,10 @@
       <c r="IG38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IH38" t="n">
+      <c r="IH38" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="II38" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -28922,8 +28968,11 @@
       <c r="IG39" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IH39" t="n">
+      <c r="IH39" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="II39" t="n">
+        <v>82.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29652,8 +29701,11 @@
       <c r="IG40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IH40" t="n">
+      <c r="IH40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30382,8 +30434,11 @@
       <c r="IG41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH41" t="n">
+      <c r="IH41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="II41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31112,7 +31167,10 @@
       <c r="IG42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH42" t="n">
+      <c r="IH42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="II42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31842,7 +31900,10 @@
       <c r="IG43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH43" t="n">
+      <c r="IH43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="II43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32572,8 +32633,11 @@
       <c r="IG44" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="IH44" t="n">
+      <c r="IH44" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="II44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33302,8 +33366,11 @@
       <c r="IG45" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="IH45" t="n">
+      <c r="IH45" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="II45" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34032,8 +34099,11 @@
       <c r="IG46" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="IH46" t="n">
+      <c r="IH46" s="1" t="n">
         <v>321</v>
+      </c>
+      <c r="II46" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34762,8 +34832,11 @@
       <c r="IG47" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="IH47" t="n">
+      <c r="IH47" s="1" t="n">
         <v>81.90000000000001</v>
+      </c>
+      <c r="II47" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35492,8 +35565,11 @@
       <c r="IG48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IH48" t="n">
+      <c r="IH48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="II48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36222,8 +36298,11 @@
       <c r="IG49" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IH49" t="n">
+      <c r="IH49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36952,8 +37031,11 @@
       <c r="IG50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IH50" t="n">
+      <c r="IH50" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="II50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37682,8 +37764,11 @@
       <c r="IG51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH51" t="n">
+      <c r="IH51" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="II51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38412,8 +38497,11 @@
       <c r="IG52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH52" t="n">
+      <c r="IH52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="II52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39142,8 +39230,11 @@
       <c r="IG53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH53" t="n">
+      <c r="IH53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="II53" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39872,8 +39963,11 @@
       <c r="IG54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH54" t="n">
+      <c r="IH54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40602,8 +40696,11 @@
       <c r="IG55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH55" t="n">
+      <c r="IH55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41332,8 +41429,11 @@
       <c r="IG56" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="IH56" t="n">
+      <c r="IH56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="II56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42062,8 +42162,11 @@
       <c r="IG57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IH57" t="n">
+      <c r="IH57" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="II57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42792,8 +42895,11 @@
       <c r="IG58" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IH58" t="n">
+      <c r="IH58" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="II58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43522,8 +43628,11 @@
       <c r="IG59" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="IH59" t="n">
+      <c r="IH59" s="1" t="n">
         <v>350</v>
+      </c>
+      <c r="II59" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44252,8 +44361,11 @@
       <c r="IG60" s="1" t="n">
         <v>1.46</v>
       </c>
-      <c r="IH60" t="n">
+      <c r="IH60" s="1" t="n">
         <v>1.43</v>
+      </c>
+      <c r="II60" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44982,8 +45094,11 @@
       <c r="IG61" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IH61" t="n">
+      <c r="IH61" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="II61" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45712,8 +45827,11 @@
       <c r="IG62" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IH62" t="n">
+      <c r="IH62" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="II62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46442,8 +46560,11 @@
       <c r="IG63" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IH63" t="n">
+      <c r="IH63" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="II63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47172,8 +47293,11 @@
       <c r="IG64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IH64" t="n">
+      <c r="IH64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47902,8 +48026,11 @@
       <c r="IG65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH65" t="n">
+      <c r="IH65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="II65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48632,8 +48759,11 @@
       <c r="IG66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH66" t="n">
+      <c r="IH66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49362,8 +49492,11 @@
       <c r="IG67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH67" t="n">
+      <c r="IH67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50092,8 +50225,11 @@
       <c r="IG68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH68" t="n">
+      <c r="IH68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50822,8 +50958,11 @@
       <c r="IG69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH69" t="n">
+      <c r="IH69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51552,8 +51691,11 @@
       <c r="IG70" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH70" t="n">
+      <c r="IH70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="II70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52282,8 +52424,11 @@
       <c r="IG71" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IH71" t="n">
+      <c r="IH71" s="1" t="n">
         <v>47.4</v>
+      </c>
+      <c r="II71" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53012,8 +53157,11 @@
       <c r="IG72" s="1" t="n">
         <v>86.25</v>
       </c>
-      <c r="IH72" t="n">
+      <c r="IH72" s="1" t="n">
         <v>38.89</v>
+      </c>
+      <c r="II72" t="n">
+        <v>28.23</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53742,8 +53890,11 @@
       <c r="IG73" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="IH73" t="n">
+      <c r="IH73" s="1" t="n">
         <v>18.42</v>
+      </c>
+      <c r="II73" t="n">
+        <v>18.35</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54472,8 +54623,11 @@
       <c r="IG74" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IH74" t="n">
+      <c r="IH74" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="II74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55202,8 +55356,11 @@
       <c r="IG75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IH75" t="n">
+      <c r="IH75" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="II75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55932,8 +56089,11 @@
       <c r="IG76" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IH76" t="n">
+      <c r="IH76" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="II76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56662,8 +56822,11 @@
       <c r="IG77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH77" t="n">
+      <c r="IH77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="II77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57392,8 +57555,11 @@
       <c r="IG78" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="IH78" t="n">
+      <c r="IH78" s="1" t="n">
         <v>2.37</v>
+      </c>
+      <c r="II78" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58122,8 +58288,11 @@
       <c r="IG79" s="1" t="n">
         <v>11.5</v>
       </c>
-      <c r="IH79" t="n">
+      <c r="IH79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="II79" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58852,8 +59021,11 @@
       <c r="IG80" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="IH80" t="n">
+      <c r="IH80" s="1" t="n">
         <v>42.2</v>
+      </c>
+      <c r="II80" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59582,8 +59754,11 @@
       <c r="IG81" s="1" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="IH81" t="n">
+      <c r="IH81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="II81" t="n">
+        <v>23.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60312,8 +60487,11 @@
       <c r="IG82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="IH82" t="n">
+      <c r="IH82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="II82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61042,8 +61220,11 @@
       <c r="IG83" s="1" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="IH83" t="n">
+      <c r="IH83" s="1" t="n">
         <v>84.5</v>
+      </c>
+      <c r="II83" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61772,8 +61953,11 @@
       <c r="IG84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IH84" t="n">
+      <c r="IH84" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="II84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62502,8 +62686,11 @@
       <c r="IG85" s="1" t="n">
         <v>68.2</v>
       </c>
-      <c r="IH85" t="n">
+      <c r="IH85" s="1" t="n">
         <v>100.7</v>
+      </c>
+      <c r="II85" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63232,8 +63419,11 @@
       <c r="IG86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH86" t="n">
+      <c r="IH86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63962,8 +64152,11 @@
       <c r="IG87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH87" t="n">
+      <c r="IH87" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64692,8 +64885,11 @@
       <c r="IG88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH88" t="n">
+      <c r="IH88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -65422,8 +65618,11 @@
       <c r="IG89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH89" t="n">
+      <c r="IH89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66152,8 +66351,11 @@
       <c r="IG90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IH90" t="n">
+      <c r="IH90" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="II90" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66882,8 +67084,11 @@
       <c r="IG91" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="IH91" t="n">
+      <c r="IH91" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="II91" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67612,8 +67817,11 @@
       <c r="IG92" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="IH92" t="n">
+      <c r="IH92" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="II92" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68342,8 +68550,11 @@
       <c r="IG93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="IH93" t="n">
+      <c r="IH93" s="1" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="II93" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69072,8 +69283,11 @@
       <c r="IG94" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IH94" t="n">
+      <c r="IH94" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="II94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69802,7 +70016,10 @@
       <c r="IG95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH95" t="n">
+      <c r="IH95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="II95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -70532,8 +70749,11 @@
       <c r="IG96" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH96" t="n">
+      <c r="IH96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71262,8 +71482,11 @@
       <c r="IG97" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IH97" t="n">
+      <c r="IH97" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="II97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71992,8 +72215,11 @@
       <c r="IG98" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IH98" t="n">
+      <c r="IH98" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="II98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72722,8 +72948,11 @@
       <c r="IG99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IH99" t="n">
+      <c r="IH99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="II99" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73452,7 +73681,10 @@
       <c r="IG100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH100" t="n">
+      <c r="IH100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="II100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -74182,8 +74414,11 @@
       <c r="IG101" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH101" t="n">
+      <c r="IH101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74912,8 +75147,11 @@
       <c r="IG102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH102" t="n">
+      <c r="IH102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="II102" t="n">
+        <v>53.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1188,8 +1188,11 @@
       <c r="IH1" s="2" t="n">
         <v>10518</v>
       </c>
-      <c r="II1" t="n">
+      <c r="II1" s="2" t="n">
         <v>10538</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>10547</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1921,8 +1924,11 @@
       <c r="IH2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="II2" t="n">
+      <c r="II2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -2654,8 +2660,11 @@
       <c r="IH3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="II3" t="n">
+      <c r="II3" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3387,7 +3396,10 @@
       <c r="IH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II4" t="n">
+      <c r="II4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,7 +4132,10 @@
       <c r="IH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II5" t="n">
+      <c r="II5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4853,8 +4868,11 @@
       <c r="IH6" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="II6" t="n">
+      <c r="II6" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5586,8 +5604,11 @@
       <c r="IH7" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="II7" t="n">
+      <c r="II7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6319,8 +6340,11 @@
       <c r="IH8" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="II8" t="n">
+      <c r="II8" s="2" t="n">
         <v>-49</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>-66</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7052,7 +7076,10 @@
       <c r="IH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="II9" t="n">
+      <c r="II9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7785,8 +7812,11 @@
       <c r="IH10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="II10" t="n">
+      <c r="II10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8518,8 +8548,11 @@
       <c r="IH11" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="II11" t="n">
+      <c r="II11" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9251,8 +9284,11 @@
       <c r="IH12" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="II12" t="n">
+      <c r="II12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -9984,8 +10020,11 @@
       <c r="IH13" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="II13" t="n">
+      <c r="II13" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10717,8 +10756,11 @@
       <c r="IH14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="II14" t="n">
+      <c r="II14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11450,8 +11492,11 @@
       <c r="IH15" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="II15" t="n">
+      <c r="II15" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12183,8 +12228,11 @@
       <c r="IH16" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="II16" t="n">
+      <c r="II16" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -12916,8 +12964,11 @@
       <c r="IH17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="II17" t="n">
+      <c r="II17" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13649,8 +13700,11 @@
       <c r="IH18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="II18" t="n">
+      <c r="II18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14382,8 +14436,11 @@
       <c r="IH19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="II19" t="n">
+      <c r="II19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15115,8 +15172,11 @@
       <c r="IH20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="II20" t="n">
+      <c r="II20" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -15848,8 +15908,11 @@
       <c r="IH21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="II21" t="n">
+      <c r="II21" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16581,8 +16644,11 @@
       <c r="IH22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II22" t="n">
+      <c r="II22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IJ22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17314,8 +17380,11 @@
       <c r="IH23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II23" t="n">
+      <c r="II23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18047,8 +18116,11 @@
       <c r="IH24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="II24" t="n">
+      <c r="II24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18780,8 +18852,11 @@
       <c r="IH25" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="II25" t="n">
+      <c r="II25" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19513,8 +19588,11 @@
       <c r="IH26" s="2" t="n">
         <v>24.5</v>
       </c>
-      <c r="II26" t="n">
+      <c r="II26" s="2" t="n">
         <v>91.75</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>37.09</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20246,8 +20324,11 @@
       <c r="IH27" s="2" t="n">
         <v>17.82</v>
       </c>
-      <c r="II27" t="n">
+      <c r="II27" s="2" t="n">
         <v>22.94</v>
+      </c>
+      <c r="IJ27" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -20979,8 +21060,11 @@
       <c r="IH28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="II28" t="n">
+      <c r="II28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IJ28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21712,8 +21796,11 @@
       <c r="IH29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="II29" t="n">
+      <c r="II29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IJ29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22445,8 +22532,11 @@
       <c r="IH30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="II30" t="n">
+      <c r="II30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IJ30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23178,8 +23268,11 @@
       <c r="IH31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="II31" t="n">
+      <c r="II31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IJ31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -23911,8 +24004,11 @@
       <c r="IH32" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="II32" t="n">
+      <c r="II32" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="IJ32" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24644,8 +24740,11 @@
       <c r="IH33" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="II33" t="n">
+      <c r="II33" s="2" t="n">
         <v>12.75</v>
+      </c>
+      <c r="IJ33" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25377,8 +25476,11 @@
       <c r="IH34" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="II34" t="n">
+      <c r="II34" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="IJ34" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26110,8 +26212,11 @@
       <c r="IH35" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="II35" t="n">
+      <c r="II35" s="2" t="n">
         <v>7.8</v>
+      </c>
+      <c r="IJ35" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -26843,8 +26948,11 @@
       <c r="IH36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="II36" t="n">
+      <c r="II36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IJ36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27576,8 +27684,11 @@
       <c r="IH37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="II37" t="n">
+      <c r="II37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IJ37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28309,7 +28420,10 @@
       <c r="IH38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="II38" t="n">
+      <c r="II38" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IJ38" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -29042,8 +29156,11 @@
       <c r="IH39" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="II39" t="n">
+      <c r="II39" s="2" t="n">
         <v>82.8</v>
+      </c>
+      <c r="IJ39" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -29775,8 +29892,11 @@
       <c r="IH40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="II40" t="n">
+      <c r="II40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -30508,8 +30628,11 @@
       <c r="IH41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="II41" t="n">
+      <c r="II41" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31241,8 +31364,11 @@
       <c r="IH42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="II42" t="n">
+      <c r="II42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -31974,8 +32100,11 @@
       <c r="IH43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="II43" t="n">
+      <c r="II43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -32707,8 +32836,11 @@
       <c r="IH44" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="II44" t="n">
+      <c r="II44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IJ44" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33440,8 +33572,11 @@
       <c r="IH45" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="II45" t="n">
+      <c r="II45" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IJ45" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34173,8 +34308,11 @@
       <c r="IH46" s="2" t="n">
         <v>321</v>
       </c>
-      <c r="II46" t="n">
+      <c r="II46" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IJ46" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -34906,8 +35044,11 @@
       <c r="IH47" s="2" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="II47" t="n">
+      <c r="II47" s="2" t="n">
         <v>66.2</v>
+      </c>
+      <c r="IJ47" t="n">
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -35639,8 +35780,11 @@
       <c r="IH48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="II48" t="n">
+      <c r="II48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IJ48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36372,8 +36516,11 @@
       <c r="IH49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="II49" t="n">
+      <c r="II49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37105,8 +37252,11 @@
       <c r="IH50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="II50" t="n">
+      <c r="II50" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IJ50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -37838,8 +37988,11 @@
       <c r="IH51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="II51" t="n">
+      <c r="II51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IJ51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38571,8 +38724,11 @@
       <c r="IH52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="II52" t="n">
+      <c r="II52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IJ52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39304,8 +39460,11 @@
       <c r="IH53" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="II53" t="n">
+      <c r="II53" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IJ53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40037,8 +40196,11 @@
       <c r="IH54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="II54" t="n">
+      <c r="II54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -40770,8 +40932,11 @@
       <c r="IH55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="II55" t="n">
+      <c r="II55" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -41503,8 +41668,11 @@
       <c r="IH56" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="II56" t="n">
+      <c r="II56" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IJ56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42236,8 +42404,11 @@
       <c r="IH57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="II57" t="n">
+      <c r="II57" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IJ57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -42969,8 +43140,11 @@
       <c r="IH58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="II58" t="n">
+      <c r="II58" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IJ58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -43702,8 +43876,11 @@
       <c r="IH59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="II59" t="n">
+      <c r="II59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="IJ59" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44435,8 +44612,11 @@
       <c r="IH60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="II60" t="n">
+      <c r="II60" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IJ60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45168,8 +45348,11 @@
       <c r="IH61" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="II61" t="n">
+      <c r="II61" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IJ61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -45901,8 +46084,11 @@
       <c r="IH62" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="II62" t="n">
+      <c r="II62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IJ62" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -46634,8 +46820,11 @@
       <c r="IH63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="II63" t="n">
+      <c r="II63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IJ63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47367,8 +47556,11 @@
       <c r="IH64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="II64" t="n">
+      <c r="II64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IJ64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48100,8 +48292,11 @@
       <c r="IH65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="II65" t="n">
+      <c r="II65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IJ65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -48833,8 +49028,11 @@
       <c r="IH66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="II66" t="n">
+      <c r="II66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IJ66" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -49566,8 +49764,11 @@
       <c r="IH67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II67" t="n">
+      <c r="II67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50299,8 +50500,11 @@
       <c r="IH68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="II68" t="n">
+      <c r="II68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51032,8 +51236,11 @@
       <c r="IH69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II69" t="n">
+      <c r="II69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IJ69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -51765,8 +51972,11 @@
       <c r="IH70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="II70" t="n">
+      <c r="II70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IJ70" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -52498,8 +52708,11 @@
       <c r="IH71" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="II71" t="n">
+      <c r="II71" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IJ71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53231,8 +53444,11 @@
       <c r="IH72" s="2" t="n">
         <v>38.89</v>
       </c>
-      <c r="II72" t="n">
+      <c r="II72" s="2" t="n">
         <v>28.23</v>
+      </c>
+      <c r="IJ72" t="n">
+        <v>19.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -53964,8 +54180,11 @@
       <c r="IH73" s="2" t="n">
         <v>18.42</v>
       </c>
-      <c r="II73" t="n">
+      <c r="II73" s="2" t="n">
         <v>18.35</v>
+      </c>
+      <c r="IJ73" t="n">
+        <v>10.24</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -54697,8 +54916,11 @@
       <c r="IH74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="II74" t="n">
+      <c r="II74" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IJ74" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -55430,8 +55652,11 @@
       <c r="IH75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="II75" t="n">
+      <c r="II75" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IJ75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56163,8 +56388,11 @@
       <c r="IH76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="II76" t="n">
+      <c r="II76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IJ76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -56896,8 +57124,11 @@
       <c r="IH77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="II77" t="n">
+      <c r="II77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IJ77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -57629,8 +57860,11 @@
       <c r="IH78" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="II78" t="n">
+      <c r="II78" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="IJ78" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -58362,8 +58596,11 @@
       <c r="IH79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="II79" t="n">
+      <c r="II79" s="2" t="n">
         <v>4.31</v>
+      </c>
+      <c r="IJ79" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59095,8 +59332,11 @@
       <c r="IH80" s="2" t="n">
         <v>42.2</v>
       </c>
-      <c r="II80" t="n">
+      <c r="II80" s="2" t="n">
         <v>32.1</v>
+      </c>
+      <c r="IJ80" t="n">
+        <v>50.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -59828,8 +60068,11 @@
       <c r="IH81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="II81" t="n">
+      <c r="II81" s="2" t="n">
         <v>23.2</v>
+      </c>
+      <c r="IJ81" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -60561,8 +60804,11 @@
       <c r="IH82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="II82" t="n">
+      <c r="II82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IJ82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61294,8 +61540,11 @@
       <c r="IH83" s="2" t="n">
         <v>84.5</v>
       </c>
-      <c r="II83" t="n">
+      <c r="II83" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="IJ83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62027,8 +62276,11 @@
       <c r="IH84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="II84" t="n">
+      <c r="II84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IJ84" t="n">
+        <v>27.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -62760,8 +63012,11 @@
       <c r="IH85" s="2" t="n">
         <v>100.7</v>
       </c>
-      <c r="II85" t="n">
+      <c r="II85" s="2" t="n">
         <v>95.5</v>
+      </c>
+      <c r="IJ85" t="n">
+        <v>141.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -63493,8 +63748,11 @@
       <c r="IH86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="II86" t="n">
+      <c r="II86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64226,8 +64484,11 @@
       <c r="IH87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="II87" t="n">
+      <c r="II87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -64959,8 +65220,11 @@
       <c r="IH88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="II88" t="n">
+      <c r="II88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -65692,8 +65956,11 @@
       <c r="IH89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="II89" t="n">
+      <c r="II89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -66425,8 +66692,11 @@
       <c r="IH90" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="II90" t="n">
+      <c r="II90" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="IJ90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67158,8 +67428,11 @@
       <c r="IH91" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="II91" t="n">
+      <c r="II91" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="IJ91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -67891,8 +68164,11 @@
       <c r="IH92" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="II92" t="n">
+      <c r="II92" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IJ92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -68624,8 +68900,11 @@
       <c r="IH93" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="II93" t="n">
+      <c r="II93" s="2" t="n">
         <v>66.2</v>
+      </c>
+      <c r="IJ93" t="n">
+        <v>74.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -69357,8 +69636,11 @@
       <c r="IH94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="II94" t="n">
+      <c r="II94" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IJ94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70090,8 +70372,11 @@
       <c r="IH95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="II95" t="n">
+      <c r="II95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IJ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -70823,8 +71108,11 @@
       <c r="IH96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="II96" t="n">
+      <c r="II96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IJ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -71556,8 +71844,11 @@
       <c r="IH97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="II97" t="n">
+      <c r="II97" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IJ97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -72289,8 +72580,11 @@
       <c r="IH98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="II98" t="n">
+      <c r="II98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IJ98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73022,8 +73316,11 @@
       <c r="IH99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="II99" t="n">
+      <c r="II99" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IJ99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -73755,8 +74052,11 @@
       <c r="IH100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="II100" t="n">
+      <c r="II100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IJ100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -74488,8 +74788,11 @@
       <c r="IH101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II101" t="n">
+      <c r="II101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -75221,8 +75524,11 @@
       <c r="IH102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="II102" t="n">
+      <c r="II102" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IJ102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1191,8 +1191,11 @@
       <c r="II1" s="2" t="n">
         <v>10538</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="2" t="n">
         <v>10547</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>10556</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1927,7 +1930,10 @@
       <c r="II2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IK2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2663,8 +2669,11 @@
       <c r="II3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3399,8 +3408,11 @@
       <c r="II4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4135,8 +4147,11 @@
       <c r="II5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4871,8 +4886,11 @@
       <c r="II6" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5607,8 +5625,11 @@
       <c r="II7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6343,8 +6364,11 @@
       <c r="II8" s="2" t="n">
         <v>-49</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="2" t="n">
         <v>-66</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7079,7 +7103,10 @@
       <c r="II9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7815,8 +7842,11 @@
       <c r="II10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8551,8 +8581,11 @@
       <c r="II11" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9287,8 +9320,11 @@
       <c r="II12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10023,8 +10059,11 @@
       <c r="II13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="2" t="n">
         <v>408</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10759,8 +10798,11 @@
       <c r="II14" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="2" t="n">
         <v>1.19</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11495,8 +11537,11 @@
       <c r="II15" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12231,8 +12276,11 @@
       <c r="II16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -12967,8 +13015,11 @@
       <c r="II17" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13703,8 +13754,11 @@
       <c r="II18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14439,8 +14493,11 @@
       <c r="II19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15175,8 +15232,11 @@
       <c r="II20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -15911,7 +15971,10 @@
       <c r="II21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IK21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -16647,8 +16710,11 @@
       <c r="II22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IK22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17383,7 +17449,10 @@
       <c r="II23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18119,8 +18188,11 @@
       <c r="II24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18855,8 +18927,11 @@
       <c r="II25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19591,8 +19666,11 @@
       <c r="II26" s="2" t="n">
         <v>91.75</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="2" t="n">
         <v>37.09</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>34.3</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20327,8 +20405,11 @@
       <c r="II27" s="2" t="n">
         <v>22.94</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>13.72</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21063,8 +21144,11 @@
       <c r="II28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IK28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21799,8 +21883,11 @@
       <c r="II29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22535,8 +22622,11 @@
       <c r="II30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23271,8 +23361,11 @@
       <c r="II31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24007,8 +24100,11 @@
       <c r="II32" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24743,8 +24839,11 @@
       <c r="II33" s="2" t="n">
         <v>12.75</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="2" t="n">
         <v>4.36</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25479,8 +25578,11 @@
       <c r="II34" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26215,8 +26317,11 @@
       <c r="II35" s="2" t="n">
         <v>7.8</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="2" t="n">
         <v>22.9</v>
+      </c>
+      <c r="IK35" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -26951,8 +27056,11 @@
       <c r="II36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IK36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27687,8 +27795,11 @@
       <c r="II37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IK37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28423,8 +28534,11 @@
       <c r="II38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IK38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29159,8 +29273,11 @@
       <c r="II39" s="2" t="n">
         <v>82.8</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="2" t="n">
         <v>77.5</v>
+      </c>
+      <c r="IK39" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -29895,8 +30012,11 @@
       <c r="II40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IK40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -30631,8 +30751,11 @@
       <c r="II41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31367,7 +31490,10 @@
       <c r="II42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32103,7 +32229,10 @@
       <c r="II43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32839,8 +32968,11 @@
       <c r="II44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33575,8 +33707,11 @@
       <c r="II45" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="2" t="n">
         <v>290</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34311,8 +34446,11 @@
       <c r="II46" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="2" t="n">
         <v>332</v>
+      </c>
+      <c r="IK46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35047,8 +35185,11 @@
       <c r="II47" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="2" t="n">
         <v>81.40000000000001</v>
+      </c>
+      <c r="IK47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -35783,8 +35924,11 @@
       <c r="II48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IK48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36519,8 +36663,11 @@
       <c r="II49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IK49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37255,8 +37402,11 @@
       <c r="II50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IK50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -37991,8 +38141,11 @@
       <c r="II51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IK51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38727,8 +38880,11 @@
       <c r="II52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39463,8 +39619,11 @@
       <c r="II53" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40199,8 +40358,11 @@
       <c r="II54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IK54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -40935,7 +41097,10 @@
       <c r="II55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IK55" t="n">
         <v>9</v>
       </c>
     </row>
@@ -41671,8 +41836,11 @@
       <c r="II56" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IK56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42407,8 +42575,11 @@
       <c r="II57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="IK57" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43143,8 +43314,11 @@
       <c r="II58" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="IK58" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -43879,8 +44053,11 @@
       <c r="II59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="2" t="n">
         <v>389</v>
+      </c>
+      <c r="IK59" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44615,8 +44792,11 @@
       <c r="II60" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="IK60" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45351,8 +45531,11 @@
       <c r="II61" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46087,8 +46270,11 @@
       <c r="II62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -46823,8 +47009,11 @@
       <c r="II63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47559,8 +47748,11 @@
       <c r="II64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IK64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48295,8 +48487,11 @@
       <c r="II65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IK65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49031,8 +49226,11 @@
       <c r="II66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IK66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -49767,8 +49965,11 @@
       <c r="II67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IK67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50503,8 +50704,11 @@
       <c r="II68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51239,8 +51443,11 @@
       <c r="II69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IK69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -51975,8 +52182,11 @@
       <c r="II70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IK70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -52711,8 +52921,11 @@
       <c r="II71" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53447,8 +53660,11 @@
       <c r="II72" s="2" t="n">
         <v>28.23</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="2" t="n">
         <v>19.45</v>
+      </c>
+      <c r="IK72" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54183,8 +54399,11 @@
       <c r="II73" s="2" t="n">
         <v>18.35</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="2" t="n">
         <v>10.24</v>
+      </c>
+      <c r="IK73" t="n">
+        <v>15.95</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -54919,8 +55138,11 @@
       <c r="II74" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IK74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -55655,8 +55877,11 @@
       <c r="II75" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IK75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56391,8 +56616,11 @@
       <c r="II76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57127,8 +57355,11 @@
       <c r="II77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IK77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -57863,8 +58094,11 @@
       <c r="II78" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="IK78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -58599,8 +58833,11 @@
       <c r="II79" s="2" t="n">
         <v>4.31</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="2" t="n">
         <v>3.15</v>
+      </c>
+      <c r="IK79" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59335,8 +59572,11 @@
       <c r="II80" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="2" t="n">
         <v>50.8</v>
+      </c>
+      <c r="IK80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60071,8 +60311,11 @@
       <c r="II81" s="2" t="n">
         <v>23.2</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="IK81" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -60807,8 +61050,11 @@
       <c r="II82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IK82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61543,8 +61789,11 @@
       <c r="II83" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IK83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62279,8 +62528,11 @@
       <c r="II84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="2" t="n">
         <v>27.58</v>
+      </c>
+      <c r="IK84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63015,8 +63267,11 @@
       <c r="II85" s="2" t="n">
         <v>95.5</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="2" t="n">
         <v>141.5</v>
+      </c>
+      <c r="IK85" t="n">
+        <v>104.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -63751,8 +64006,11 @@
       <c r="II86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64487,8 +64745,11 @@
       <c r="II87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IK87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65223,8 +65484,11 @@
       <c r="II88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IK88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -65959,8 +66223,11 @@
       <c r="II89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IK89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -66695,8 +66962,11 @@
       <c r="II90" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="IK90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67431,8 +67701,11 @@
       <c r="II91" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="IK91" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68167,8 +68440,11 @@
       <c r="II92" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="2" t="n">
         <v>289</v>
+      </c>
+      <c r="IK92" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -68903,8 +69179,11 @@
       <c r="II93" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="IK93" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -69639,8 +69918,11 @@
       <c r="II94" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IK94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70375,8 +70657,11 @@
       <c r="II95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IK95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71111,8 +71396,11 @@
       <c r="II96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IK96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -71847,8 +72135,11 @@
       <c r="II97" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IK97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -72583,8 +72874,11 @@
       <c r="II98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IK98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73319,8 +73613,11 @@
       <c r="II99" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IK99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74055,8 +74352,11 @@
       <c r="II100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IK100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -74791,8 +75091,11 @@
       <c r="II101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IK101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -75527,8 +75830,11 @@
       <c r="II102" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1194,8 +1194,11 @@
       <c r="IJ1" s="2" t="n">
         <v>10547</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="2" t="n">
         <v>10556</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10563</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1933,7 +1936,10 @@
       <c r="IJ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IL2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2672,8 +2678,11 @@
       <c r="IJ3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3411,8 +3420,11 @@
       <c r="IJ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4150,8 +4162,11 @@
       <c r="IJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4889,8 +4904,11 @@
       <c r="IJ6" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5628,8 +5646,11 @@
       <c r="IJ7" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6367,8 +6388,11 @@
       <c r="IJ8" s="2" t="n">
         <v>-66</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="2" t="n">
         <v>-22</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7106,7 +7130,10 @@
       <c r="IJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7845,8 +7872,11 @@
       <c r="IJ10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8584,8 +8614,11 @@
       <c r="IJ11" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9323,8 +9356,11 @@
       <c r="IJ12" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10062,8 +10098,11 @@
       <c r="IJ13" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10801,8 +10840,11 @@
       <c r="IJ14" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11540,8 +11582,11 @@
       <c r="IJ15" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12279,8 +12324,11 @@
       <c r="IJ16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13018,8 +13066,11 @@
       <c r="IJ17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13757,8 +13808,11 @@
       <c r="IJ18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14496,8 +14550,11 @@
       <c r="IJ19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15235,7 +15292,10 @@
       <c r="IJ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IL20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15974,7 +16034,10 @@
       <c r="IJ21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -16713,8 +16776,11 @@
       <c r="IJ22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17452,8 +17518,11 @@
       <c r="IJ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18191,8 +18260,11 @@
       <c r="IJ24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18930,8 +19002,11 @@
       <c r="IJ25" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19669,8 +19744,11 @@
       <c r="IJ26" s="2" t="n">
         <v>37.09</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="2" t="n">
         <v>34.3</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20408,8 +20486,11 @@
       <c r="IJ27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="2" t="n">
         <v>13.72</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21147,8 +21228,11 @@
       <c r="IJ28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21886,8 +21970,11 @@
       <c r="IJ29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22625,8 +22712,11 @@
       <c r="IJ30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23364,8 +23454,11 @@
       <c r="IJ31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24103,8 +24196,11 @@
       <c r="IJ32" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24842,8 +24938,11 @@
       <c r="IJ33" s="2" t="n">
         <v>4.36</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="2" t="n">
         <v>5.6</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25581,8 +25680,11 @@
       <c r="IJ34" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="2" t="n">
         <v>41.1</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26320,8 +26422,11 @@
       <c r="IJ35" s="2" t="n">
         <v>22.9</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="2" t="n">
         <v>17.9</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27059,7 +27164,10 @@
       <c r="IJ36" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IL36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -27798,8 +27906,11 @@
       <c r="IJ37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28537,8 +28648,11 @@
       <c r="IJ38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29276,8 +29390,11 @@
       <c r="IJ39" s="2" t="n">
         <v>77.5</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="2" t="n">
         <v>78.90000000000001</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30015,8 +30132,11 @@
       <c r="IJ40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IL40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -30754,7 +30874,10 @@
       <c r="IJ41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -31493,7 +31616,10 @@
       <c r="IJ42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32232,8 +32358,11 @@
       <c r="IJ43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -32971,8 +33100,11 @@
       <c r="IJ44" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33710,8 +33842,11 @@
       <c r="IJ45" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34449,8 +34584,11 @@
       <c r="IJ46" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35188,8 +35326,11 @@
       <c r="IJ47" s="2" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -35927,8 +36068,11 @@
       <c r="IJ48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36666,8 +36810,11 @@
       <c r="IJ49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37405,8 +37552,11 @@
       <c r="IJ50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38144,8 +38294,11 @@
       <c r="IJ51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38883,8 +39036,11 @@
       <c r="IJ52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39622,8 +39778,11 @@
       <c r="IJ53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40361,8 +40520,11 @@
       <c r="IJ54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41100,7 +41262,10 @@
       <c r="IJ55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL55" t="n">
         <v>9</v>
       </c>
     </row>
@@ -41839,7 +42004,10 @@
       <c r="IJ56" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IL56" t="n">
         <v>90</v>
       </c>
     </row>
@@ -42578,8 +42746,11 @@
       <c r="IJ57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43317,8 +43488,11 @@
       <c r="IJ58" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44056,8 +44230,11 @@
       <c r="IJ59" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44795,8 +44972,11 @@
       <c r="IJ60" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45534,8 +45714,11 @@
       <c r="IJ61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46273,8 +46456,11 @@
       <c r="IJ62" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47012,8 +47198,11 @@
       <c r="IJ63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47751,8 +47940,11 @@
       <c r="IJ64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48490,8 +48682,11 @@
       <c r="IJ65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49229,8 +49424,11 @@
       <c r="IJ66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IL66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -49968,8 +50166,11 @@
       <c r="IJ67" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50707,8 +50908,11 @@
       <c r="IJ68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51446,7 +51650,10 @@
       <c r="IJ69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52185,8 +52392,11 @@
       <c r="IJ70" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -52924,8 +53134,11 @@
       <c r="IJ71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>48.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53663,8 +53876,11 @@
       <c r="IJ72" s="2" t="n">
         <v>19.45</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="2" t="n">
         <v>23.4</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>26.93</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54402,8 +54618,11 @@
       <c r="IJ73" s="2" t="n">
         <v>10.24</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="2" t="n">
         <v>15.95</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55141,8 +55360,11 @@
       <c r="IJ74" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IL74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -55880,8 +56102,11 @@
       <c r="IJ75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56619,8 +56844,11 @@
       <c r="IJ76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57358,8 +57586,11 @@
       <c r="IJ77" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58097,8 +58328,11 @@
       <c r="IJ78" s="2" t="n">
         <v>1.66</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -58836,8 +59070,11 @@
       <c r="IJ79" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="2" t="n">
         <v>3.47</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59575,8 +59812,11 @@
       <c r="IJ80" s="2" t="n">
         <v>50.8</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60314,8 +60554,11 @@
       <c r="IJ81" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61053,8 +61296,11 @@
       <c r="IJ82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61792,8 +62038,11 @@
       <c r="IJ83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="IL83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62531,8 +62780,11 @@
       <c r="IJ84" s="2" t="n">
         <v>27.58</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63270,8 +63522,11 @@
       <c r="IJ85" s="2" t="n">
         <v>141.5</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="2" t="n">
         <v>104.7</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64009,8 +64264,11 @@
       <c r="IJ86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64748,8 +65006,11 @@
       <c r="IJ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65487,8 +65748,11 @@
       <c r="IJ88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66226,7 +66490,10 @@
       <c r="IJ89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -66965,8 +67232,11 @@
       <c r="IJ90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67704,8 +67974,11 @@
       <c r="IJ91" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IL91" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68443,8 +68716,11 @@
       <c r="IJ92" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IL92" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69182,8 +69458,11 @@
       <c r="IJ93" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -69921,8 +70200,11 @@
       <c r="IJ94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70660,8 +70942,11 @@
       <c r="IJ95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71399,8 +71684,11 @@
       <c r="IJ96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72138,8 +72426,11 @@
       <c r="IJ97" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IL97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -72877,8 +73168,11 @@
       <c r="IJ98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73616,8 +73910,11 @@
       <c r="IJ99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74355,8 +74652,11 @@
       <c r="IJ100" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -75094,8 +75394,11 @@
       <c r="IJ101" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -75833,8 +76136,11 @@
       <c r="IJ102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>85.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1197,8 +1197,11 @@
       <c r="IK1" s="2" t="n">
         <v>10556</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="2" t="n">
         <v>10563</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10577</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1939,7 +1942,10 @@
       <c r="IK2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2681,8 +2687,11 @@
       <c r="IK3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3423,8 +3432,11 @@
       <c r="IK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4165,7 +4177,10 @@
       <c r="IK5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4907,8 +4922,11 @@
       <c r="IK6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5649,7 +5667,10 @@
       <c r="IK7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IM7" t="n">
         <v>99</v>
       </c>
     </row>
@@ -6391,8 +6412,11 @@
       <c r="IK8" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="2" t="n">
         <v>-29</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7133,8 +7157,11 @@
       <c r="IK9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7875,8 +7902,11 @@
       <c r="IK10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8617,8 +8647,11 @@
       <c r="IK11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9359,8 +9392,11 @@
       <c r="IK12" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10101,8 +10137,11 @@
       <c r="IK13" s="2" t="n">
         <v>343</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10843,8 +10882,11 @@
       <c r="IK14" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11585,8 +11627,11 @@
       <c r="IK15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12327,8 +12372,11 @@
       <c r="IK16" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13069,8 +13117,11 @@
       <c r="IK17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13811,8 +13862,11 @@
       <c r="IK18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14553,8 +14607,11 @@
       <c r="IK19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15295,8 +15352,11 @@
       <c r="IK20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16037,8 +16097,11 @@
       <c r="IK21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16779,8 +16842,11 @@
       <c r="IK22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17521,8 +17587,11 @@
       <c r="IK23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18263,8 +18332,11 @@
       <c r="IK24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19005,8 +19077,11 @@
       <c r="IK25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19747,8 +19822,11 @@
       <c r="IK26" s="2" t="n">
         <v>34.3</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20489,8 +20567,11 @@
       <c r="IK27" s="2" t="n">
         <v>13.72</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>13.04</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21231,7 +21312,10 @@
       <c r="IK28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IM28" t="n">
         <v>39</v>
       </c>
     </row>
@@ -21973,8 +22057,11 @@
       <c r="IK29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22715,8 +22802,11 @@
       <c r="IK30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23457,8 +23547,11 @@
       <c r="IK31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24199,8 +24292,11 @@
       <c r="IK32" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="2" t="n">
         <v>1.95</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24941,8 +25037,11 @@
       <c r="IK33" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="2" t="n">
         <v>3.9</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25683,8 +25782,11 @@
       <c r="IK34" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="2" t="n">
         <v>43.6</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>36.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26425,8 +26527,11 @@
       <c r="IK35" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27167,8 +27272,11 @@
       <c r="IK36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27909,8 +28017,11 @@
       <c r="IK37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28651,8 +28762,11 @@
       <c r="IK38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29393,8 +29507,11 @@
       <c r="IK39" s="2" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30135,8 +30252,11 @@
       <c r="IK40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -30877,8 +30997,11 @@
       <c r="IK41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31619,7 +31742,10 @@
       <c r="IK42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IM42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32361,7 +32487,10 @@
       <c r="IK43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33103,8 +33232,11 @@
       <c r="IK44" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33845,8 +33977,11 @@
       <c r="IK45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34587,8 +34722,11 @@
       <c r="IK46" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35329,8 +35467,11 @@
       <c r="IK47" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="2" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36071,8 +36212,11 @@
       <c r="IK48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36813,8 +36957,11 @@
       <c r="IK49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37555,8 +37702,11 @@
       <c r="IK50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38297,7 +38447,10 @@
       <c r="IK51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IM51" t="n">
         <v>39</v>
       </c>
     </row>
@@ -39039,8 +39192,11 @@
       <c r="IK52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39781,8 +39937,11 @@
       <c r="IK53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40523,8 +40682,11 @@
       <c r="IK54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41265,8 +41427,11 @@
       <c r="IK55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42007,8 +42172,11 @@
       <c r="IK56" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IM56" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42749,8 +42917,11 @@
       <c r="IK57" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43491,8 +43662,11 @@
       <c r="IK58" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44233,8 +44407,11 @@
       <c r="IK59" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="2" t="n">
         <v>377</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44975,8 +45152,11 @@
       <c r="IK60" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45717,8 +45897,11 @@
       <c r="IK61" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46459,8 +46642,11 @@
       <c r="IK62" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47201,8 +47387,11 @@
       <c r="IK63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47943,8 +48132,11 @@
       <c r="IK64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48685,8 +48877,11 @@
       <c r="IK65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49427,8 +49622,11 @@
       <c r="IK66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IM66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50169,8 +50367,11 @@
       <c r="IK67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50911,8 +51112,11 @@
       <c r="IK68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51653,8 +51857,11 @@
       <c r="IK69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52395,8 +52602,11 @@
       <c r="IK70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53137,8 +53347,11 @@
       <c r="IK71" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="2" t="n">
         <v>48.3</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53879,8 +54092,11 @@
       <c r="IK72" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="2" t="n">
         <v>26.93</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>24.87</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54621,8 +54837,11 @@
       <c r="IK73" s="2" t="n">
         <v>15.95</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>15.54</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55363,8 +55582,11 @@
       <c r="IK74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56105,8 +56327,11 @@
       <c r="IK75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56847,8 +57072,11 @@
       <c r="IK76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57589,8 +57817,11 @@
       <c r="IK77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58331,8 +58562,11 @@
       <c r="IK78" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59073,8 +59307,11 @@
       <c r="IK79" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59815,8 +60052,11 @@
       <c r="IK80" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60557,8 +60797,11 @@
       <c r="IK81" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="2" t="n">
         <v>21.5</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61299,8 +61542,11 @@
       <c r="IK82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62041,8 +62287,11 @@
       <c r="IK83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62783,8 +63032,11 @@
       <c r="IK84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63525,8 +63777,11 @@
       <c r="IK85" s="2" t="n">
         <v>104.7</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="2" t="n">
         <v>93.90000000000001</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64267,8 +64522,11 @@
       <c r="IK86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65009,8 +65267,11 @@
       <c r="IK87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65751,8 +66012,11 @@
       <c r="IK88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66493,7 +66757,10 @@
       <c r="IK89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -67235,8 +67502,11 @@
       <c r="IK90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67977,8 +68247,11 @@
       <c r="IK91" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68719,8 +68992,11 @@
       <c r="IK92" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69461,8 +69737,11 @@
       <c r="IK93" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70203,8 +70482,11 @@
       <c r="IK94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70945,8 +71227,11 @@
       <c r="IK95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71687,8 +71972,11 @@
       <c r="IK96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72429,8 +72717,11 @@
       <c r="IK97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73171,8 +73462,11 @@
       <c r="IK98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73913,8 +74207,11 @@
       <c r="IK99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74655,8 +74952,11 @@
       <c r="IK100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -75397,8 +75697,11 @@
       <c r="IK101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76139,8 +76442,11 @@
       <c r="IK102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1200,8 +1200,11 @@
       <c r="IL1" s="2" t="n">
         <v>10563</v>
       </c>
-      <c r="IM1" t="n">
+      <c r="IM1" s="2" t="n">
         <v>10577</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10587</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1945,7 +1948,10 @@
       <c r="IL2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2690,8 +2696,11 @@
       <c r="IL3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IM3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3435,7 +3444,10 @@
       <c r="IL4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4180,8 +4192,11 @@
       <c r="IL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IM5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4925,8 +4940,11 @@
       <c r="IL6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IM6" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5670,8 +5688,11 @@
       <c r="IL7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IM7" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6415,8 +6436,11 @@
       <c r="IL8" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="IM8" t="n">
+      <c r="IM8" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7160,8 +7184,11 @@
       <c r="IL9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM9" t="n">
+      <c r="IM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7905,8 +7932,11 @@
       <c r="IL10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IM10" t="n">
+      <c r="IM10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8650,8 +8680,11 @@
       <c r="IL11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IM11" t="n">
+      <c r="IM11" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9395,8 +9428,11 @@
       <c r="IL12" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IM12" t="n">
+      <c r="IM12" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10140,8 +10176,11 @@
       <c r="IL13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="IM13" t="n">
+      <c r="IM13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10885,8 +10924,11 @@
       <c r="IL14" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="IM14" t="n">
+      <c r="IM14" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11630,8 +11672,11 @@
       <c r="IL15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IM15" t="n">
+      <c r="IM15" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12375,8 +12420,11 @@
       <c r="IL16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IM16" t="n">
+      <c r="IM16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13120,8 +13168,11 @@
       <c r="IL17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IM17" t="n">
+      <c r="IM17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13865,8 +13916,11 @@
       <c r="IL18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM18" t="n">
+      <c r="IM18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14610,8 +14664,11 @@
       <c r="IL19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IM19" t="n">
+      <c r="IM19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15355,8 +15412,11 @@
       <c r="IL20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM20" t="n">
+      <c r="IM20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16100,8 +16160,11 @@
       <c r="IL21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM21" t="n">
+      <c r="IM21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16845,8 +16908,11 @@
       <c r="IL22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM22" t="n">
+      <c r="IM22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17590,8 +17656,11 @@
       <c r="IL23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM23" t="n">
+      <c r="IM23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18335,8 +18404,11 @@
       <c r="IL24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM24" t="n">
+      <c r="IM24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19080,8 +19152,11 @@
       <c r="IL25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IM25" t="n">
+      <c r="IM25" s="2" t="n">
         <v>53.6</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19825,8 +19900,11 @@
       <c r="IL26" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IM26" t="n">
+      <c r="IM26" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>45.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20570,8 +20648,11 @@
       <c r="IL27" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IM27" t="n">
+      <c r="IM27" s="2" t="n">
         <v>13.04</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21315,8 +21396,11 @@
       <c r="IL28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IM28" t="n">
+      <c r="IM28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22060,8 +22144,11 @@
       <c r="IL29" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IM29" t="n">
+      <c r="IM29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22805,7 +22892,10 @@
       <c r="IL30" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IM30" t="n">
+      <c r="IM30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IN30" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23550,8 +23640,11 @@
       <c r="IL31" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IM31" t="n">
+      <c r="IM31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24295,8 +24388,11 @@
       <c r="IL32" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="IM32" t="n">
+      <c r="IM32" s="2" t="n">
         <v>2.32</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25040,8 +25136,11 @@
       <c r="IL33" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="IM33" t="n">
+      <c r="IM33" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>5.12</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25785,8 +25884,11 @@
       <c r="IL34" s="2" t="n">
         <v>43.6</v>
       </c>
-      <c r="IM34" t="n">
+      <c r="IM34" s="2" t="n">
         <v>36.9</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26530,8 +26632,11 @@
       <c r="IL35" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="IM35" t="n">
+      <c r="IM35" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27275,8 +27380,11 @@
       <c r="IL36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IM36" t="n">
+      <c r="IM36" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28020,8 +28128,11 @@
       <c r="IL37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IM37" t="n">
+      <c r="IM37" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28765,7 +28876,10 @@
       <c r="IL38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IM38" t="n">
+      <c r="IM38" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="IN38" t="n">
         <v>24.74</v>
       </c>
     </row>
@@ -29510,8 +29624,11 @@
       <c r="IL39" s="2" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="IM39" t="n">
+      <c r="IM39" s="2" t="n">
         <v>66.3</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30255,8 +30372,11 @@
       <c r="IL40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM40" t="n">
+      <c r="IM40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31000,8 +31120,11 @@
       <c r="IL41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM41" t="n">
+      <c r="IM41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IN41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31745,7 +31868,10 @@
       <c r="IL42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM42" t="n">
+      <c r="IM42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32490,7 +32616,10 @@
       <c r="IL43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM43" t="n">
+      <c r="IM43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33235,8 +33364,11 @@
       <c r="IL44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IM44" t="n">
+      <c r="IM44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33980,8 +34112,11 @@
       <c r="IL45" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="IM45" t="n">
+      <c r="IM45" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34725,8 +34860,11 @@
       <c r="IL46" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IM46" t="n">
+      <c r="IM46" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35470,8 +35608,11 @@
       <c r="IL47" s="2" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="IM47" t="n">
+      <c r="IM47" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36215,8 +36356,11 @@
       <c r="IL48" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IM48" t="n">
+      <c r="IM48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36960,8 +37104,11 @@
       <c r="IL49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IM49" t="n">
+      <c r="IM49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37705,8 +37852,11 @@
       <c r="IL50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM50" t="n">
+      <c r="IM50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38450,8 +38600,11 @@
       <c r="IL51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IM51" t="n">
+      <c r="IM51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39195,7 +39348,10 @@
       <c r="IL52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IM52" t="n">
+      <c r="IM52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IN52" t="n">
         <v>37</v>
       </c>
     </row>
@@ -39940,8 +40096,11 @@
       <c r="IL53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IM53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40685,8 +40844,11 @@
       <c r="IL54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IM54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41430,8 +41592,11 @@
       <c r="IL55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM55" t="n">
+      <c r="IM55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42175,8 +42340,11 @@
       <c r="IL56" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IM56" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42920,8 +43088,11 @@
       <c r="IL57" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="IM57" t="n">
+      <c r="IM57" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43665,8 +43836,11 @@
       <c r="IL58" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="IM58" t="n">
+      <c r="IM58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44410,8 +44584,11 @@
       <c r="IL59" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="IM59" t="n">
+      <c r="IM59" s="2" t="n">
         <v>373</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45155,8 +45332,11 @@
       <c r="IL60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="IM60" t="n">
+      <c r="IM60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45900,8 +46080,11 @@
       <c r="IL61" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IM61" t="n">
+      <c r="IM61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46645,8 +46828,11 @@
       <c r="IL62" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IM62" t="n">
+      <c r="IM62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47390,8 +47576,11 @@
       <c r="IL63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IM63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48135,8 +48324,11 @@
       <c r="IL64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IM64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48880,8 +49072,11 @@
       <c r="IL65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM65" t="n">
+      <c r="IM65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49625,8 +49820,11 @@
       <c r="IL66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IM66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50370,8 +50568,11 @@
       <c r="IL67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM67" t="n">
+      <c r="IM67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51115,8 +51316,11 @@
       <c r="IL68" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IM68" t="n">
+      <c r="IM68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51860,8 +52064,11 @@
       <c r="IL69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM69" t="n">
+      <c r="IM69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52605,8 +52812,11 @@
       <c r="IL70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IM70" t="n">
+      <c r="IM70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53350,8 +53560,11 @@
       <c r="IL71" s="2" t="n">
         <v>48.3</v>
       </c>
-      <c r="IM71" t="n">
+      <c r="IM71" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54095,8 +54308,11 @@
       <c r="IL72" s="2" t="n">
         <v>26.93</v>
       </c>
-      <c r="IM72" t="n">
+      <c r="IM72" s="2" t="n">
         <v>24.87</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>24.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54840,8 +55056,11 @@
       <c r="IL73" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IM73" t="n">
+      <c r="IM73" s="2" t="n">
         <v>15.54</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>14.74</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55585,8 +55804,11 @@
       <c r="IL74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IM74" t="n">
+      <c r="IM74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56330,7 +56552,10 @@
       <c r="IL75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IM75" t="n">
+      <c r="IM75" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="IN75" t="n">
         <v>77</v>
       </c>
     </row>
@@ -57075,8 +57300,11 @@
       <c r="IL76" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IM76" t="n">
+      <c r="IM76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57820,7 +58048,10 @@
       <c r="IL77" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IM77" t="n">
+      <c r="IM77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IN77" t="n">
         <v>53</v>
       </c>
     </row>
@@ -58565,8 +58796,11 @@
       <c r="IL78" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="IM78" t="n">
+      <c r="IM78" s="2" t="n">
         <v>2.21</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59310,8 +59544,11 @@
       <c r="IL79" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="IM79" t="n">
+      <c r="IM79" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60055,8 +60292,11 @@
       <c r="IL80" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="IM80" t="n">
+      <c r="IM80" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60800,8 +61040,11 @@
       <c r="IL81" s="2" t="n">
         <v>21.5</v>
       </c>
-      <c r="IM81" t="n">
+      <c r="IM81" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61545,8 +61788,11 @@
       <c r="IL82" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="IM82" t="n">
+      <c r="IM82" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62290,8 +62536,11 @@
       <c r="IL83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IM83" t="n">
+      <c r="IM83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63035,8 +63284,11 @@
       <c r="IL84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IM84" t="n">
+      <c r="IM84" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63780,8 +64032,11 @@
       <c r="IL85" s="2" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="IM85" t="n">
+      <c r="IM85" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64525,8 +64780,11 @@
       <c r="IL86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM86" t="n">
+      <c r="IM86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65270,7 +65528,10 @@
       <c r="IL87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM87" t="n">
+      <c r="IM87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -66015,8 +66276,11 @@
       <c r="IL88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM88" t="n">
+      <c r="IM88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66760,8 +67024,11 @@
       <c r="IL89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM89" t="n">
+      <c r="IM89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67505,8 +67772,11 @@
       <c r="IL90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IM90" t="n">
+      <c r="IM90" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68250,8 +68520,11 @@
       <c r="IL91" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="IM91" t="n">
+      <c r="IM91" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68995,8 +69268,11 @@
       <c r="IL92" s="2" t="n">
         <v>279</v>
       </c>
-      <c r="IM92" t="n">
+      <c r="IM92" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69740,8 +70016,11 @@
       <c r="IL93" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IM93" t="n">
+      <c r="IM93" s="2" t="n">
         <v>71.8</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70485,7 +70764,10 @@
       <c r="IL94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IM94" t="n">
+      <c r="IM94" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="IN94" t="n">
         <v>77</v>
       </c>
     </row>
@@ -71230,8 +71512,11 @@
       <c r="IL95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM95" t="n">
+      <c r="IM95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71975,8 +72260,11 @@
       <c r="IL96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IM96" t="n">
+      <c r="IM96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72720,8 +73008,11 @@
       <c r="IL97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IM97" t="n">
+      <c r="IM97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73465,8 +73756,11 @@
       <c r="IL98" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IM98" t="n">
+      <c r="IM98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74210,8 +74504,11 @@
       <c r="IL99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IM99" t="n">
+      <c r="IM99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74955,8 +75252,11 @@
       <c r="IL100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM100" t="n">
+      <c r="IM100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -75700,8 +76000,11 @@
       <c r="IL101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM101" t="n">
+      <c r="IM101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76445,8 +76748,11 @@
       <c r="IL102" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IM102" t="n">
+      <c r="IM102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>81.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1203,8 +1203,11 @@
       <c r="IM1" s="2" t="n">
         <v>10577</v>
       </c>
-      <c r="IN1" t="n">
+      <c r="IN1" s="2" t="n">
         <v>10587</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>10597</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1951,7 +1954,10 @@
       <c r="IM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IO2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2699,8 +2705,11 @@
       <c r="IM3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IN3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3447,7 +3456,10 @@
       <c r="IM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4195,7 +4207,10 @@
       <c r="IM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN5" t="n">
+      <c r="IN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4943,8 +4958,11 @@
       <c r="IM6" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IN6" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5691,8 +5709,11 @@
       <c r="IM7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IN7" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6439,8 +6460,11 @@
       <c r="IM8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN8" t="n">
+      <c r="IN8" s="2" t="n">
         <v>-48</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7187,7 +7211,10 @@
       <c r="IM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN9" t="n">
+      <c r="IN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7935,8 +7962,11 @@
       <c r="IM10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN10" t="n">
+      <c r="IN10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8683,8 +8713,11 @@
       <c r="IM11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="IN11" t="n">
+      <c r="IN11" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9431,8 +9464,11 @@
       <c r="IM12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IN12" t="n">
+      <c r="IN12" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10179,8 +10215,11 @@
       <c r="IM13" s="2" t="n">
         <v>365</v>
       </c>
-      <c r="IN13" t="n">
+      <c r="IN13" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10927,8 +10966,11 @@
       <c r="IM14" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="IN14" t="n">
+      <c r="IN14" s="2" t="n">
         <v>1.12</v>
+      </c>
+      <c r="IO14" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11675,8 +11717,11 @@
       <c r="IM15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="IN15" t="n">
+      <c r="IN15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IO15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12423,8 +12468,11 @@
       <c r="IM16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IN16" t="n">
+      <c r="IN16" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13171,8 +13219,11 @@
       <c r="IM17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IN17" t="n">
+      <c r="IN17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13919,8 +13970,11 @@
       <c r="IM18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IN18" t="n">
+      <c r="IN18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IO18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14667,8 +14721,11 @@
       <c r="IM19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IN19" t="n">
+      <c r="IN19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IO19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15415,8 +15472,11 @@
       <c r="IM20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IN20" t="n">
+      <c r="IN20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16163,8 +16223,11 @@
       <c r="IM21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN21" t="n">
+      <c r="IN21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16911,8 +16974,11 @@
       <c r="IM22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IN22" t="n">
+      <c r="IN22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17659,8 +17725,11 @@
       <c r="IM23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN23" t="n">
+      <c r="IN23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18407,8 +18476,11 @@
       <c r="IM24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IN24" t="n">
+      <c r="IN24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19155,8 +19227,11 @@
       <c r="IM25" s="2" t="n">
         <v>53.6</v>
       </c>
-      <c r="IN25" t="n">
+      <c r="IN25" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19903,8 +19978,11 @@
       <c r="IM26" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="IN26" t="n">
+      <c r="IN26" s="2" t="n">
         <v>45.25</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20651,8 +20729,11 @@
       <c r="IM27" s="2" t="n">
         <v>13.04</v>
       </c>
-      <c r="IN27" t="n">
+      <c r="IN27" s="2" t="n">
         <v>19.05</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>17.59</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21399,8 +21480,11 @@
       <c r="IM28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN28" t="n">
+      <c r="IN28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22147,8 +22231,11 @@
       <c r="IM29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IN29" t="n">
+      <c r="IN29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IO29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22895,8 +22982,11 @@
       <c r="IM30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IN30" t="n">
+      <c r="IN30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IO30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23643,8 +23733,11 @@
       <c r="IM31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IN31" t="n">
+      <c r="IN31" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24391,8 +24484,11 @@
       <c r="IM32" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="IN32" t="n">
+      <c r="IN32" s="2" t="n">
         <v>2.16</v>
+      </c>
+      <c r="IO32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25139,8 +25235,11 @@
       <c r="IM33" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="IN33" t="n">
+      <c r="IN33" s="2" t="n">
         <v>5.12</v>
+      </c>
+      <c r="IO33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25887,8 +25986,11 @@
       <c r="IM34" s="2" t="n">
         <v>36.9</v>
       </c>
-      <c r="IN34" t="n">
+      <c r="IN34" s="2" t="n">
         <v>43.9</v>
+      </c>
+      <c r="IO34" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26635,8 +26737,11 @@
       <c r="IM35" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="IN35" t="n">
+      <c r="IN35" s="2" t="n">
         <v>19.5</v>
+      </c>
+      <c r="IO35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27383,8 +27488,11 @@
       <c r="IM36" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="IN36" t="n">
+      <c r="IN36" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IO36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28131,8 +28239,11 @@
       <c r="IM37" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="IN37" t="n">
+      <c r="IN37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IO37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28879,8 +28990,11 @@
       <c r="IM38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="IN38" t="n">
+      <c r="IN38" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="IO38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29627,8 +29741,11 @@
       <c r="IM39" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="IN39" t="n">
+      <c r="IN39" s="2" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="IO39" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30375,8 +30492,11 @@
       <c r="IM40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IN40" t="n">
+      <c r="IN40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31123,8 +31243,11 @@
       <c r="IM41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN41" t="n">
+      <c r="IN41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31871,7 +31994,10 @@
       <c r="IM42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IN42" t="n">
+      <c r="IN42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32619,8 +32745,11 @@
       <c r="IM43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN43" t="n">
+      <c r="IN43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IO43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33367,8 +33496,11 @@
       <c r="IM44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IN44" t="n">
+      <c r="IN44" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34115,8 +34247,11 @@
       <c r="IM45" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IN45" t="n">
+      <c r="IN45" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34863,8 +34998,11 @@
       <c r="IM46" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="IN46" t="n">
+      <c r="IN46" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IO46" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35611,8 +35749,11 @@
       <c r="IM47" s="2" t="n">
         <v>76.2</v>
       </c>
-      <c r="IN47" t="n">
+      <c r="IN47" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="IO47" t="n">
+        <v>79.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36359,8 +36500,11 @@
       <c r="IM48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IN48" t="n">
+      <c r="IN48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IO48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37107,8 +37251,11 @@
       <c r="IM49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN49" t="n">
+      <c r="IN49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37855,8 +38002,11 @@
       <c r="IM50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IN50" t="n">
+      <c r="IN50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38603,8 +38753,11 @@
       <c r="IM51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN51" t="n">
+      <c r="IN51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39351,8 +39504,11 @@
       <c r="IM52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IN52" t="n">
+      <c r="IN52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IO52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40099,8 +40255,11 @@
       <c r="IM53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IN53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IO53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40847,8 +41006,11 @@
       <c r="IM54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IN54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IO54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41595,8 +41757,11 @@
       <c r="IM55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN55" t="n">
+      <c r="IN55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42343,8 +42508,11 @@
       <c r="IM56" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IN56" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IO56" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43091,8 +43259,11 @@
       <c r="IM57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IN57" t="n">
+      <c r="IN57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IO57" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43839,8 +44010,11 @@
       <c r="IM58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="IN58" t="n">
+      <c r="IN58" s="2" t="n">
         <v>172</v>
+      </c>
+      <c r="IO58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44587,8 +44761,11 @@
       <c r="IM59" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="IN59" t="n">
+      <c r="IN59" s="2" t="n">
         <v>398</v>
+      </c>
+      <c r="IO59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45335,8 +45512,11 @@
       <c r="IM60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IN60" t="n">
+      <c r="IN60" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IO60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46083,7 +46263,10 @@
       <c r="IM61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IN61" t="n">
+      <c r="IN61" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="IO61" t="n">
         <v>105</v>
       </c>
     </row>
@@ -46831,8 +47014,11 @@
       <c r="IM62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IN62" t="n">
+      <c r="IN62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IO62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47579,8 +47765,11 @@
       <c r="IM63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IN63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IO63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48327,8 +48516,11 @@
       <c r="IM64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IN64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IO64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49075,8 +49267,11 @@
       <c r="IM65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IN65" t="n">
+      <c r="IN65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IO65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49823,8 +50018,11 @@
       <c r="IM66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IN66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50571,8 +50769,11 @@
       <c r="IM67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN67" t="n">
+      <c r="IN67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IO67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51319,8 +51520,11 @@
       <c r="IM68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN68" t="n">
+      <c r="IN68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52067,7 +52271,10 @@
       <c r="IM69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN69" t="n">
+      <c r="IN69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52815,8 +53022,11 @@
       <c r="IM70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IN70" t="n">
+      <c r="IN70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IO70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53563,8 +53773,11 @@
       <c r="IM71" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IN71" t="n">
+      <c r="IN71" s="2" t="n">
         <v>59.3</v>
+      </c>
+      <c r="IO71" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54311,8 +54524,11 @@
       <c r="IM72" s="2" t="n">
         <v>24.87</v>
       </c>
-      <c r="IN72" t="n">
+      <c r="IN72" s="2" t="n">
         <v>24.88</v>
+      </c>
+      <c r="IO72" t="n">
+        <v>22.53</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55059,8 +55275,11 @@
       <c r="IM73" s="2" t="n">
         <v>15.54</v>
       </c>
-      <c r="IN73" t="n">
+      <c r="IN73" s="2" t="n">
         <v>14.74</v>
+      </c>
+      <c r="IO73" t="n">
+        <v>18.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55807,8 +56026,11 @@
       <c r="IM74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IN74" t="n">
+      <c r="IN74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IO74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56555,8 +56777,11 @@
       <c r="IM75" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IN75" t="n">
+      <c r="IN75" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IO75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57303,8 +57528,11 @@
       <c r="IM76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN76" t="n">
+      <c r="IN76" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58051,8 +58279,11 @@
       <c r="IM77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN77" t="n">
+      <c r="IN77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IO77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58799,8 +59030,11 @@
       <c r="IM78" s="2" t="n">
         <v>2.21</v>
       </c>
-      <c r="IN78" t="n">
+      <c r="IN78" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IO78" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59547,8 +59781,11 @@
       <c r="IM79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="IN79" t="n">
+      <c r="IN79" s="2" t="n">
         <v>3.31</v>
+      </c>
+      <c r="IO79" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60295,8 +60532,11 @@
       <c r="IM80" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="IN80" t="n">
+      <c r="IN80" s="2" t="n">
         <v>49.1</v>
+      </c>
+      <c r="IO80" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61043,8 +61283,11 @@
       <c r="IM81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="IN81" t="n">
+      <c r="IN81" s="2" t="n">
         <v>30.2</v>
+      </c>
+      <c r="IO81" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61791,8 +62034,11 @@
       <c r="IM82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="IN82" t="n">
+      <c r="IN82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IO82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62539,7 +62785,10 @@
       <c r="IM83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IN83" t="n">
+      <c r="IN83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IO83" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -63287,7 +63536,10 @@
       <c r="IM84" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="IN84" t="n">
+      <c r="IN84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IO84" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -64035,8 +64287,11 @@
       <c r="IM85" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="IN85" t="n">
+      <c r="IN85" s="2" t="n">
         <v>79.5</v>
+      </c>
+      <c r="IO85" t="n">
+        <v>102.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64783,8 +65038,11 @@
       <c r="IM86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN86" t="n">
+      <c r="IN86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65531,7 +65789,10 @@
       <c r="IM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN87" t="n">
+      <c r="IN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -66279,8 +66540,11 @@
       <c r="IM88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN88" t="n">
+      <c r="IN88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67027,8 +67291,11 @@
       <c r="IM89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN89" t="n">
+      <c r="IN89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67775,8 +68042,11 @@
       <c r="IM90" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IN90" t="n">
+      <c r="IN90" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="IO90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68523,8 +68793,11 @@
       <c r="IM91" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="IN91" t="n">
+      <c r="IN91" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="IO91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69271,8 +69544,11 @@
       <c r="IM92" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="IN92" t="n">
+      <c r="IN92" s="2" t="n">
         <v>307</v>
+      </c>
+      <c r="IO92" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70019,8 +70295,11 @@
       <c r="IM93" s="2" t="n">
         <v>71.8</v>
       </c>
-      <c r="IN93" t="n">
+      <c r="IN93" s="2" t="n">
         <v>77.09999999999999</v>
+      </c>
+      <c r="IO93" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70767,8 +71046,11 @@
       <c r="IM94" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IN94" t="n">
+      <c r="IN94" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IO94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71515,8 +71797,11 @@
       <c r="IM95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN95" t="n">
+      <c r="IN95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72263,8 +72548,11 @@
       <c r="IM96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN96" t="n">
+      <c r="IN96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IO96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73011,8 +73299,11 @@
       <c r="IM97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IN97" t="n">
+      <c r="IN97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IO97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73759,8 +74050,11 @@
       <c r="IM98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN98" t="n">
+      <c r="IN98" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74507,8 +74801,11 @@
       <c r="IM99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN99" t="n">
+      <c r="IN99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IO99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75255,7 +75552,10 @@
       <c r="IM100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN100" t="n">
+      <c r="IN100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IO100" t="n">
         <v>10</v>
       </c>
     </row>
@@ -76003,8 +76303,11 @@
       <c r="IM101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN101" t="n">
+      <c r="IN101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IO101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76751,8 +77054,11 @@
       <c r="IM102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IN102" t="n">
+      <c r="IN102" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IO102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1206,8 +1206,14 @@
       <c r="IN1" s="2" t="n">
         <v>10587</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="2" t="n">
         <v>10597</v>
+      </c>
+      <c r="IP1" s="2" t="n">
+        <v>10605</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10612</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1957,7 +1963,13 @@
       <c r="IN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2708,8 +2720,14 @@
       <c r="IN3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3459,7 +3477,13 @@
       <c r="IN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4210,8 +4234,14 @@
       <c r="IN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4961,8 +4991,14 @@
       <c r="IN6" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IP6" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5712,8 +5748,14 @@
       <c r="IN7" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="IP7" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6463,8 +6505,14 @@
       <c r="IN8" s="2" t="n">
         <v>-48</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="2" t="n">
         <v>-11</v>
+      </c>
+      <c r="IP8" s="2" t="n">
+        <v>-32</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7214,8 +7262,14 @@
       <c r="IN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7965,8 +8019,14 @@
       <c r="IN10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8716,8 +8776,14 @@
       <c r="IN11" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IP11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9467,8 +9533,14 @@
       <c r="IN12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="IP12" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10218,8 +10290,14 @@
       <c r="IN13" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="2" t="n">
         <v>387</v>
+      </c>
+      <c r="IP13" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10969,8 +11047,14 @@
       <c r="IN14" s="2" t="n">
         <v>1.12</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="2" t="n">
         <v>1.02</v>
+      </c>
+      <c r="IP14" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11720,8 +11804,14 @@
       <c r="IN15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="IP15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12471,8 +12561,14 @@
       <c r="IN16" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13222,8 +13318,14 @@
       <c r="IN17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IP17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13973,8 +14075,14 @@
       <c r="IN18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IP18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14724,8 +14832,14 @@
       <c r="IN19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IP19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15475,8 +15589,14 @@
       <c r="IN20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16226,7 +16346,13 @@
       <c r="IN21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16977,8 +17103,14 @@
       <c r="IN22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17728,8 +17860,14 @@
       <c r="IN23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18479,8 +18617,14 @@
       <c r="IN24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IP24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19230,8 +19374,14 @@
       <c r="IN25" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IP25" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19981,8 +20131,14 @@
       <c r="IN26" s="2" t="n">
         <v>45.25</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="2" t="n">
         <v>32.25</v>
+      </c>
+      <c r="IP26" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20732,8 +20888,14 @@
       <c r="IN27" s="2" t="n">
         <v>19.05</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="2" t="n">
         <v>17.59</v>
+      </c>
+      <c r="IP27" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>12.57</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21483,8 +21645,14 @@
       <c r="IN28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IP28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22234,8 +22402,14 @@
       <c r="IN29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IP29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22985,8 +23159,14 @@
       <c r="IN30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IP30" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23736,8 +23916,14 @@
       <c r="IN31" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IP31" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24487,8 +24673,14 @@
       <c r="IN32" s="2" t="n">
         <v>2.16</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="IP32" s="2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25238,8 +25430,14 @@
       <c r="IN33" s="2" t="n">
         <v>5.12</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="IP33" s="2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25989,8 +26187,14 @@
       <c r="IN34" s="2" t="n">
         <v>43.9</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="2" t="n">
         <v>36.5</v>
+      </c>
+      <c r="IP34" s="2" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26740,8 +26944,14 @@
       <c r="IN35" s="2" t="n">
         <v>19.5</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="IP35" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27491,8 +27701,14 @@
       <c r="IN36" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IP36" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28242,8 +28458,14 @@
       <c r="IN37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IP37" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28993,8 +29215,14 @@
       <c r="IN38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="2" t="n">
         <v>24.24</v>
+      </c>
+      <c r="IP38" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29744,8 +29972,14 @@
       <c r="IN39" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="2" t="n">
         <v>69.8</v>
+      </c>
+      <c r="IP39" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30495,8 +30729,14 @@
       <c r="IN40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IQ40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31246,7 +31486,13 @@
       <c r="IN41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31997,7 +32243,13 @@
       <c r="IN42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32748,7 +33000,13 @@
       <c r="IN43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33499,8 +33757,14 @@
       <c r="IN44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IP44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34250,8 +34514,14 @@
       <c r="IN45" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="IP45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35001,8 +35271,14 @@
       <c r="IN46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="IP46" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="IQ46" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35752,8 +36028,14 @@
       <c r="IN47" s="2" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="2" t="n">
         <v>79.8</v>
+      </c>
+      <c r="IP47" s="2" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36503,8 +36785,14 @@
       <c r="IN48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IP48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37254,8 +37542,14 @@
       <c r="IN49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38005,8 +38299,14 @@
       <c r="IN50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IP50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38756,8 +39056,14 @@
       <c r="IN51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IP51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39507,8 +39813,14 @@
       <c r="IN52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IP52" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40258,8 +40570,14 @@
       <c r="IN53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IP53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41009,8 +41327,14 @@
       <c r="IN54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41760,7 +42084,13 @@
       <c r="IN55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -42511,8 +42841,14 @@
       <c r="IN56" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IP56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43262,8 +43598,14 @@
       <c r="IN57" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="IP57" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44013,8 +44355,14 @@
       <c r="IN58" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IP58" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44764,8 +45112,14 @@
       <c r="IN59" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="IP59" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45515,8 +45869,14 @@
       <c r="IN60" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="IP60" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46266,8 +46626,14 @@
       <c r="IN61" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="IP61" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47017,8 +47383,14 @@
       <c r="IN62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IP62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47768,8 +48140,14 @@
       <c r="IN63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IP63" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48519,8 +48897,14 @@
       <c r="IN64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IP64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49270,8 +49654,14 @@
       <c r="IN65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IP65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50021,8 +50411,14 @@
       <c r="IN66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IP66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50772,7 +51168,13 @@
       <c r="IN67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IP67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -51523,8 +51925,14 @@
       <c r="IN68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IP68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52274,7 +52682,13 @@
       <c r="IN69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53025,8 +53439,14 @@
       <c r="IN70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IP70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53776,8 +54196,14 @@
       <c r="IN71" s="2" t="n">
         <v>59.3</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IP71" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54527,8 +54953,14 @@
       <c r="IN72" s="2" t="n">
         <v>24.88</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="2" t="n">
         <v>22.53</v>
+      </c>
+      <c r="IP72" s="2" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>32.09</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55278,8 +55710,14 @@
       <c r="IN73" s="2" t="n">
         <v>14.74</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="2" t="n">
         <v>18.78</v>
+      </c>
+      <c r="IP73" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>13.58</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56029,8 +56467,14 @@
       <c r="IN74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IP74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56780,8 +57224,14 @@
       <c r="IN75" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IP75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57531,7 +57981,13 @@
       <c r="IN76" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IP76" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IQ76" t="n">
         <v>40</v>
       </c>
     </row>
@@ -58282,8 +58738,14 @@
       <c r="IN77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IP77" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59033,8 +59495,14 @@
       <c r="IN78" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="IP78" s="2" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59784,8 +60252,14 @@
       <c r="IN79" s="2" t="n">
         <v>3.31</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="IP79" s="2" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60535,8 +61009,14 @@
       <c r="IN80" s="2" t="n">
         <v>49.1</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="IP80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61286,8 +61766,14 @@
       <c r="IN81" s="2" t="n">
         <v>30.2</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IP81" s="2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62037,8 +62523,14 @@
       <c r="IN82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IP82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62788,8 +63280,14 @@
       <c r="IN83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IP83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63539,8 +64037,14 @@
       <c r="IN84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IP84" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64290,8 +64794,14 @@
       <c r="IN85" s="2" t="n">
         <v>79.5</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="2" t="n">
         <v>102.3</v>
+      </c>
+      <c r="IP85" s="2" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65041,8 +65551,14 @@
       <c r="IN86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65792,8 +66308,14 @@
       <c r="IN87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66543,8 +67065,14 @@
       <c r="IN88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67294,8 +67822,14 @@
       <c r="IN89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68045,8 +68579,14 @@
       <c r="IN90" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IP90" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68796,8 +69336,14 @@
       <c r="IN91" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IP91" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69547,8 +70093,14 @@
       <c r="IN92" s="2" t="n">
         <v>307</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="IP92" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70298,8 +70850,14 @@
       <c r="IN93" s="2" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IP93" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71049,8 +71607,14 @@
       <c r="IN94" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IP94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71800,8 +72364,14 @@
       <c r="IN95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72551,8 +73121,14 @@
       <c r="IN96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IP96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73302,8 +73878,14 @@
       <c r="IN97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IP97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74053,7 +74635,13 @@
       <c r="IN98" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IP98" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IQ98" t="n">
         <v>40</v>
       </c>
     </row>
@@ -74804,8 +75392,14 @@
       <c r="IN99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IQ99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75555,8 +76149,14 @@
       <c r="IN100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IP100" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76306,7 +76906,13 @@
       <c r="IN101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IP101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -77057,8 +77663,14 @@
       <c r="IN102" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IP102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1218,8 +1218,26 @@
       <c r="IR1" s="2" t="n">
         <v>10620</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="2" t="n">
         <v>10630</v>
+      </c>
+      <c r="IT1" s="2" t="n">
+        <v>10641</v>
+      </c>
+      <c r="IU1" s="2" t="n">
+        <v>10651</v>
+      </c>
+      <c r="IV1" s="2" t="n">
+        <v>10658</v>
+      </c>
+      <c r="IW1" s="2" t="n">
+        <v>10669</v>
+      </c>
+      <c r="IX1" s="2" t="n">
+        <v>10672</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>10679</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1981,7 +1999,25 @@
       <c r="IR2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2744,8 +2780,26 @@
       <c r="IR3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IU3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IV3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IW3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3507,7 +3561,25 @@
       <c r="IR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,8 +4342,26 @@
       <c r="IR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5033,8 +5123,26 @@
       <c r="IR6" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IT6" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IU6" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IV6" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="IW6" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="IX6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5796,8 +5904,26 @@
       <c r="IR7" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IT7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU7" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IV7" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="IW7" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="IX7" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6559,8 +6685,26 @@
       <c r="IR8" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="2" t="n">
         <v>-32</v>
+      </c>
+      <c r="IT8" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="IU8" s="2" t="n">
+        <v>-26</v>
+      </c>
+      <c r="IV8" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW8" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="IX8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7322,8 +7466,26 @@
       <c r="IR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8085,8 +8247,26 @@
       <c r="IR10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8848,8 +9028,26 @@
       <c r="IR11" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IT11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="IU11" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="IV11" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="IW11" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="IX11" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9611,8 +9809,26 @@
       <c r="IR12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="IT12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="IU12" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="IV12" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="IW12" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="IX12" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10374,8 +10590,26 @@
       <c r="IR13" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="IT13" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="IU13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="IV13" s="2" t="n">
+        <v>387</v>
+      </c>
+      <c r="IW13" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="IX13" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11137,8 +11371,26 @@
       <c r="IR14" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IT14" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="IU14" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="IV14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="IW14" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="IX14" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11900,8 +12152,26 @@
       <c r="IR15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IT15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="IU15" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IV15" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="IW15" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="IX15" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12663,8 +12933,26 @@
       <c r="IR16" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IT16" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IV16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IW16" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX16" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13426,8 +13714,26 @@
       <c r="IR17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IU17" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IV17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IW17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14189,8 +14495,26 @@
       <c r="IR18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IU18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IV18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14952,8 +15276,26 @@
       <c r="IR19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IU19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IV19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15715,8 +16057,26 @@
       <c r="IR20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16478,8 +16838,26 @@
       <c r="IR21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17241,8 +17619,26 @@
       <c r="IR22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IU22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18004,8 +18400,26 @@
       <c r="IR23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IT23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18767,8 +19181,26 @@
       <c r="IR24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IU24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV24" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IX24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19530,8 +19962,26 @@
       <c r="IR25" s="2" t="n">
         <v>35.3</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IT25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IU25" s="2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="IV25" s="2" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="IW25" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="IX25" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20293,8 +20743,26 @@
       <c r="IR26" s="2" t="n">
         <v>55.17</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="2" t="n">
         <v>50.86</v>
+      </c>
+      <c r="IT26" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IU26" s="2" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="IV26" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IW26" s="2" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="IX26" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>25.47</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21056,8 +21524,26 @@
       <c r="IR27" s="2" t="n">
         <v>19.47</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="2" t="n">
         <v>27.38</v>
+      </c>
+      <c r="IT27" s="2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="IU27" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="IV27" s="2" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="IW27" s="2" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="IX27" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21819,8 +22305,26 @@
       <c r="IR28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IT28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IV28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22582,8 +23086,26 @@
       <c r="IR29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IT29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IV29" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW29" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IX29" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23345,8 +23867,26 @@
       <c r="IR30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IU30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IV30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW30" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IX30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24108,8 +24648,26 @@
       <c r="IR31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IT31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IU31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IV31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW31" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IX31" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24871,8 +25429,26 @@
       <c r="IR32" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="IT32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="IU32" s="2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IV32" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="IW32" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="IX32" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25634,8 +26210,26 @@
       <c r="IR33" s="2" t="n">
         <v>8.17</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT33" s="2" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="IU33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="IV33" s="2" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="IW33" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="IX33" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26397,8 +26991,26 @@
       <c r="IR34" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="IT34" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU34" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="IV34" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="IW34" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="IX34" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27160,8 +27772,26 @@
       <c r="IR35" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="2" t="n">
         <v>14.3</v>
+      </c>
+      <c r="IT35" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IU35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="IV35" s="2" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="IW35" s="2" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="IX35" s="2" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="IY35" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27923,8 +28553,26 @@
       <c r="IR36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IT36" s="2" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="IU36" s="2" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="IV36" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IW36" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IX36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IY36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28686,8 +29334,26 @@
       <c r="IR37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="IT37" s="2" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="IU37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IV37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="IW37" s="2" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="IX37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IY37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29449,8 +30115,26 @@
       <c r="IR38" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="IT38" s="2" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IU38" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IV38" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="IW38" s="2" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="IX38" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="IY38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30212,8 +30896,26 @@
       <c r="IR39" s="2" t="n">
         <v>69.7</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="IT39" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IU39" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="IV39" s="2" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IW39" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="IX39" s="2" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="IY39" t="n">
+        <v>77.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30975,8 +31677,26 @@
       <c r="IR40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IU40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31738,8 +32458,26 @@
       <c r="IR41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32501,8 +33239,26 @@
       <c r="IR42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33264,7 +34020,25 @@
       <c r="IR43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34027,8 +34801,26 @@
       <c r="IR44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="IT44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="IU44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IV44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="IW44" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="IX44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34790,8 +35582,26 @@
       <c r="IR45" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IT45" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IU45" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="IV45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IW45" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="IX45" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35553,8 +36363,26 @@
       <c r="IR46" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="IT46" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="IU46" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="IV46" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="IW46" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="IX46" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="IY46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36316,8 +37144,26 @@
       <c r="IR47" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IT47" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="IU47" s="2" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IV47" s="2" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="IW47" s="2" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="IX47" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="IY47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37079,8 +37925,26 @@
       <c r="IR48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IT48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IV48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW48" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IX48" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IY48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37842,8 +38706,26 @@
       <c r="IR49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38605,8 +39487,26 @@
       <c r="IR50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IU50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IW50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39368,8 +40268,26 @@
       <c r="IR51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IT51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IV51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40131,8 +41049,26 @@
       <c r="IR52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IU52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IV52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW52" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IX52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40894,8 +41830,26 @@
       <c r="IR53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IT53" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IU53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IV53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IW53" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IX53" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41657,8 +42611,26 @@
       <c r="IR54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV54" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42420,8 +43392,26 @@
       <c r="IR55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43183,8 +44173,26 @@
       <c r="IR56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IT56" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="IU56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IV56" s="2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="IW56" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="IX56" s="2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="IY56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43946,8 +44954,26 @@
       <c r="IR57" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IT57" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="IU57" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="IV57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IW57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IX57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IY57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44709,8 +45735,26 @@
       <c r="IR58" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="IT58" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="IU58" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="IV58" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="IW58" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="IX58" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IY58" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45472,8 +46516,26 @@
       <c r="IR59" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="2" t="n">
         <v>395</v>
+      </c>
+      <c r="IT59" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="IU59" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="IV59" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="IW59" s="2" t="n">
+        <v>319</v>
+      </c>
+      <c r="IX59" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="IY59" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46235,8 +47297,26 @@
       <c r="IR60" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="IT60" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="IU60" s="2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="IV60" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="IW60" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="IX60" s="2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="IY60" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46998,8 +48078,26 @@
       <c r="IR61" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IT61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="IU61" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IV61" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="IW61" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="IX61" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="IY61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47761,8 +48859,26 @@
       <c r="IR62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IT62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IU62" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IV62" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IW62" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IY62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48524,8 +49640,26 @@
       <c r="IR63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IU63" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IV63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IW63" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IX63" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IY63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49287,8 +50421,26 @@
       <c r="IR64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IU64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IV64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX64" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IY64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50050,8 +51202,26 @@
       <c r="IR65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IU65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IV65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IY65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50813,8 +51983,26 @@
       <c r="IR66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IX66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IY66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51576,8 +52764,26 @@
       <c r="IR67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52339,8 +53545,26 @@
       <c r="IR68" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IU68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IY68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53102,8 +54326,26 @@
       <c r="IR69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53865,7 +55107,25 @@
       <c r="IR70" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IU70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IV70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IW70" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IX70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IY70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -54628,8 +55888,26 @@
       <c r="IR71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IT71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="IU71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IV71" s="2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IW71" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="IX71" s="2" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="IY71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55391,8 +56669,26 @@
       <c r="IR72" s="2" t="n">
         <v>28.14</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="2" t="n">
         <v>35.91</v>
+      </c>
+      <c r="IT72" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IU72" s="2" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="IV72" s="2" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="IW72" s="2" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="IX72" s="2" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="IY72" t="n">
+        <v>23.15</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56154,8 +57450,26 @@
       <c r="IR73" s="2" t="n">
         <v>11.26</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="2" t="n">
         <v>15.8</v>
+      </c>
+      <c r="IT73" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="IU73" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="IV73" s="2" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="IW73" s="2" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="IX73" s="2" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="IY73" t="n">
+        <v>12.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56917,8 +58231,26 @@
       <c r="IR74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IU74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IV74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IY74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57680,8 +59012,26 @@
       <c r="IR75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IT75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IV75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW75" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58443,8 +59793,26 @@
       <c r="IR76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IT76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IV76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IX76" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59206,8 +60574,26 @@
       <c r="IR77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IT77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IU77" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IV77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IX77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IY77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59969,8 +61355,26 @@
       <c r="IR78" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="2" t="n">
         <v>2.2</v>
+      </c>
+      <c r="IT78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU78" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="IV78" s="2" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="IW78" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="IX78" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="IY78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60732,8 +62136,26 @@
       <c r="IR79" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT79" s="2" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="IU79" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="IV79" s="2" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="IW79" s="2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="IX79" s="2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="IY79" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61495,8 +62917,26 @@
       <c r="IR80" s="2" t="n">
         <v>51.7</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IT80" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IU80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IV80" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="IW80" s="2" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="IX80" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="IY80" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62258,8 +63698,26 @@
       <c r="IR81" s="2" t="n">
         <v>23.3</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT81" s="2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="IU81" s="2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="IV81" s="2" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="IW81" s="2" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="IX81" s="2" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="IY81" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63021,8 +64479,26 @@
       <c r="IR82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="IT82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="IU82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IV82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="IW82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="IX82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="IY82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63784,8 +65260,26 @@
       <c r="IR83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="IT83" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="IU83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="IV83" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="IW83" s="2" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="IX83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="IY83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64547,8 +66041,26 @@
       <c r="IR84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="IT84" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="IU84" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IV84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="IW84" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="IX84" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="IY84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65310,8 +66822,26 @@
       <c r="IR85" s="2" t="n">
         <v>108.2</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="2" t="n">
         <v>139.4</v>
+      </c>
+      <c r="IT85" s="2" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="IU85" s="2" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="IV85" s="2" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="IW85" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="IX85" s="2" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="IY85" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66073,8 +67603,26 @@
       <c r="IR86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66836,8 +68384,26 @@
       <c r="IR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67599,8 +69165,26 @@
       <c r="IR88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68362,8 +69946,26 @@
       <c r="IR89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69125,8 +70727,26 @@
       <c r="IR90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IT90" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="IU90" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="IV90" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="IW90" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IX90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="IY90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69888,8 +71508,26 @@
       <c r="IR91" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="IT91" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="IU91" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="IV91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="IW91" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="IX91" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="IY91" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70651,8 +72289,26 @@
       <c r="IR92" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="IT92" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="IU92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="IV92" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="IW92" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="IX92" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="IY92" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71414,8 +73070,26 @@
       <c r="IR93" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="IT93" s="2" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="IU93" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IV93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="IW93" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="IX93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="IY93" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72177,8 +73851,26 @@
       <c r="IR94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IT94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IV94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW94" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72940,8 +74632,26 @@
       <c r="IR95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IT95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IW95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73703,8 +75413,26 @@
       <c r="IR96" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IU96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IV96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW96" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX96" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74466,8 +76194,26 @@
       <c r="IR97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IU97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IV97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IY97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75229,8 +76975,26 @@
       <c r="IR98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IT98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IU98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IV98" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IX98" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IY98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75992,8 +77756,26 @@
       <c r="IR99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IT99" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IV99" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IW99" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IX99" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IY99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76755,8 +78537,26 @@
       <c r="IR100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV100" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IW100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77518,8 +79318,26 @@
       <c r="IR101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78281,8 +80099,26 @@
       <c r="IR102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IT102" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="IU102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IV102" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="IW102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IX102" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="IY102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Essendon_stats.xlsx
+++ b/django_AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1236,8 +1236,32 @@
       <c r="IX1" s="2" t="n">
         <v>10672</v>
       </c>
-      <c r="IY1" t="n">
+      <c r="IY1" s="2" t="n">
         <v>10679</v>
+      </c>
+      <c r="IZ1" s="2" t="n">
+        <v>10689</v>
+      </c>
+      <c r="JA1" s="2" t="n">
+        <v>10689</v>
+      </c>
+      <c r="JB1" s="2" t="n">
+        <v>10689</v>
+      </c>
+      <c r="JC1" s="2" t="n">
+        <v>10699</v>
+      </c>
+      <c r="JD1" s="2" t="n">
+        <v>10707</v>
+      </c>
+      <c r="JE1" s="2" t="n">
+        <v>10717</v>
+      </c>
+      <c r="JF1" s="2" t="n">
+        <v>10724</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>10735</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2017,7 +2041,31 @@
       <c r="IX2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2798,8 +2846,32 @@
       <c r="IX3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IY3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IZ3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JA3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JD3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JE3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JF3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3579,8 +3651,32 @@
       <c r="IX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IY4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4360,7 +4456,31 @@
       <c r="IX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IY5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,8 +5261,32 @@
       <c r="IX6" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IY6" t="n">
+      <c r="IY6" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IZ6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JA6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JB6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JC6" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JD6" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="JE6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JF6" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5922,8 +6066,32 @@
       <c r="IX7" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IY7" t="n">
+      <c r="IY7" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IZ7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JA7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JB7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JC7" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JD7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JE7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JF7" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6703,8 +6871,32 @@
       <c r="IX8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY8" t="n">
+      <c r="IY8" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JA8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JB8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JC8" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JD8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JE8" s="2" t="n">
+        <v>-27</v>
+      </c>
+      <c r="JF8" s="2" t="n">
+        <v>-84</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>-66</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7484,8 +7676,32 @@
       <c r="IX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY9" t="n">
+      <c r="IY9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8265,8 +8481,32 @@
       <c r="IX10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IY10" t="n">
+      <c r="IY10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IZ10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JE10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9046,8 +9286,32 @@
       <c r="IX11" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IY11" t="n">
+      <c r="IY11" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="IZ11" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JA11" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JB11" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JC11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JD11" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="JE11" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JF11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9827,8 +10091,32 @@
       <c r="IX12" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="IY12" t="n">
+      <c r="IY12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IZ12" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JA12" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JB12" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JC12" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JD12" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="JE12" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JF12" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10608,8 +10896,32 @@
       <c r="IX13" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="IY13" t="n">
+      <c r="IY13" s="2" t="n">
         <v>382</v>
+      </c>
+      <c r="IZ13" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="JA13" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="JB13" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="JC13" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="JD13" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="JE13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JF13" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11389,8 +11701,32 @@
       <c r="IX14" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="IY14" t="n">
+      <c r="IY14" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IZ14" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JA14" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JB14" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JC14" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="JD14" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="JE14" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="JF14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12170,8 +12506,32 @@
       <c r="IX15" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IY15" t="n">
+      <c r="IY15" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="IZ15" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JA15" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JB15" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JC15" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JD15" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JE15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JF15" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12951,8 +13311,32 @@
       <c r="IX16" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IY16" t="n">
+      <c r="IY16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IZ16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JA16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JB16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JC16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JD16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JE16" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JF16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13732,8 +14116,32 @@
       <c r="IX17" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IY17" t="n">
+      <c r="IY17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IZ17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JB17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JD17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE17" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14513,8 +14921,32 @@
       <c r="IX18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IY18" t="n">
+      <c r="IY18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JA18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JB18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JC18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JD18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JF18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15294,8 +15726,32 @@
       <c r="IX19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IY19" t="n">
+      <c r="IY19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JB19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JD19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JF19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JG19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16075,8 +16531,32 @@
       <c r="IX20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IY20" t="n">
+      <c r="IY20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JA20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JB20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JE20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16856,8 +17336,32 @@
       <c r="IX21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY21" t="n">
+      <c r="IY21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JD21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17637,8 +18141,32 @@
       <c r="IX22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY22" t="n">
+      <c r="IY22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JB22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JC22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18418,8 +18946,32 @@
       <c r="IX23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IY23" t="n">
+      <c r="IY23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -19199,8 +19751,32 @@
       <c r="IX24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IY24" t="n">
+      <c r="IY24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IZ24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JB24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JC24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JD24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JE24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JF24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19980,8 +20556,32 @@
       <c r="IX25" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IY25" t="n">
+      <c r="IY25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IZ25" s="2" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="JA25" s="2" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="JB25" s="2" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="JC25" s="2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="JD25" s="2" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="JE25" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JF25" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20761,8 +21361,32 @@
       <c r="IX26" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IY26" t="n">
+      <c r="IY26" s="2" t="n">
         <v>25.47</v>
+      </c>
+      <c r="IZ26" s="2" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="JA26" s="2" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="JB26" s="2" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="JC26" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="JD26" s="2" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="JE26" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JF26" s="2" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>29.91</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21542,8 +22166,32 @@
       <c r="IX27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IY27" t="n">
+      <c r="IY27" s="2" t="n">
         <v>15.28</v>
+      </c>
+      <c r="IZ27" s="2" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="JA27" s="2" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="JB27" s="2" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="JC27" s="2" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="JD27" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="JE27" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="JF27" s="2" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>16.45</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22323,8 +22971,32 @@
       <c r="IX28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY28" t="n">
+      <c r="IY28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IZ28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JB28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC28" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JD28" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JE28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JF28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23104,7 +23776,31 @@
       <c r="IX29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IY29" t="n">
+      <c r="IY29" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IZ29" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JA29" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JB29" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JC29" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JD29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JG29" t="n">
         <v>60</v>
       </c>
     </row>
@@ -23885,8 +24581,32 @@
       <c r="IX30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IY30" t="n">
+      <c r="IY30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JB30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JC30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JD30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24666,8 +25386,32 @@
       <c r="IX31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IY31" t="n">
+      <c r="IY31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IZ31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JA31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JB31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JC31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JD31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JE31" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF31" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25447,8 +26191,32 @@
       <c r="IX32" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="IY32" t="n">
+      <c r="IY32" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IZ32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JA32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JB32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JC32" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JD32" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JE32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF32" s="2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -26228,8 +26996,32 @@
       <c r="IX33" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="IY33" t="n">
+      <c r="IY33" s="2" t="n">
         <v>3.73</v>
+      </c>
+      <c r="IZ33" s="2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="JA33" s="2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="JB33" s="2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="JC33" s="2" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="JD33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JE33" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="JF33" s="2" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -27009,8 +27801,32 @@
       <c r="IX34" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="IY34" t="n">
+      <c r="IY34" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IZ34" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="JA34" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="JB34" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="JC34" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JD34" s="2" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="JE34" s="2" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="JF34" s="2" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27790,8 +28606,32 @@
       <c r="IX35" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="IY35" t="n">
+      <c r="IY35" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IZ35" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="JA35" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="JB35" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="JC35" s="2" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="JD35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JE35" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="JF35" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="JG35" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28571,8 +29411,32 @@
       <c r="IX36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="IY36" t="n">
+      <c r="IY36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IZ36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JA36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JB36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JC36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JD36" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JE36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JF36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JG36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29352,8 +30216,32 @@
       <c r="IX37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IY37" t="n">
+      <c r="IY37" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="IZ37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JA37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JB37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JC37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JD37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JE37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JF37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JG37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -30133,7 +31021,31 @@
       <c r="IX38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IY38" t="n">
+      <c r="IY38" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IZ38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JA38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JB38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JC38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JD38" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="JE38" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JF38" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JG38" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -30914,8 +31826,32 @@
       <c r="IX39" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="IY39" t="n">
+      <c r="IY39" s="2" t="n">
         <v>77.2</v>
+      </c>
+      <c r="IZ39" s="2" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="JA39" s="2" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="JB39" s="2" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="JC39" s="2" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="JD39" s="2" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="JE39" s="2" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="JF39" s="2" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="JG39" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31695,8 +32631,32 @@
       <c r="IX40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY40" t="n">
+      <c r="IY40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JC40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JD40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -32476,7 +33436,31 @@
       <c r="IX41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY41" t="n">
+      <c r="IY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33257,7 +34241,31 @@
       <c r="IX42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY42" t="n">
+      <c r="IY42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34038,8 +35046,32 @@
       <c r="IX43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY43" t="n">
+      <c r="IY43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JF43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34819,8 +35851,32 @@
       <c r="IX44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IY44" t="n">
+      <c r="IY44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="IZ44" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JA44" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JB44" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JC44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JD44" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JE44" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="JF44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35600,8 +36656,32 @@
       <c r="IX45" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="IY45" t="n">
+      <c r="IY45" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="IZ45" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="JA45" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="JB45" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="JC45" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JD45" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JE45" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="JF45" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -36381,8 +37461,32 @@
       <c r="IX46" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="IY46" t="n">
+      <c r="IY46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="IZ46" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="JA46" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="JB46" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="JC46" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="JD46" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="JE46" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="JF46" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JG46" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -37162,8 +38266,32 @@
       <c r="IX47" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="IY47" t="n">
+      <c r="IY47" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="IZ47" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JA47" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JB47" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JC47" s="2" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JD47" s="2" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="JE47" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JF47" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JG47" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37943,7 +39071,31 @@
       <c r="IX48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IY48" t="n">
+      <c r="IY48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IZ48" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JA48" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JB48" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JC48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JD48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JG48" t="n">
         <v>60</v>
       </c>
     </row>
@@ -38724,8 +39876,32 @@
       <c r="IX49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY49" t="n">
+      <c r="IY49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JB49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JC49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JD49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39505,8 +40681,32 @@
       <c r="IX50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY50" t="n">
+      <c r="IY50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JB50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -40286,8 +41486,32 @@
       <c r="IX51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY51" t="n">
+      <c r="IY51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IZ51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JB51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC51" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JD51" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JE51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JF51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -41067,8 +42291,32 @@
       <c r="IX52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IY52" t="n">
+      <c r="IY52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JB52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JC52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JD52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41848,8 +43096,32 @@
       <c r="IX53" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IY53" t="n">
+      <c r="IY53" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JA53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JB53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JC53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JD53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JE53" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JF53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42629,8 +43901,32 @@
       <c r="IX54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY54" t="n">
+      <c r="IY54" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IZ54" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JA54" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB54" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JC54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JF54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -43410,8 +44706,32 @@
       <c r="IX55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY55" t="n">
+      <c r="IY55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JD55" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -44191,8 +45511,32 @@
       <c r="IX56" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="IY56" t="n">
+      <c r="IY56" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IZ56" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JA56" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JB56" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JC56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JD56" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="JE56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JF56" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="JG56" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44972,8 +46316,32 @@
       <c r="IX57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IY57" t="n">
+      <c r="IY57" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IZ57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JA57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JB57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JC57" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="JD57" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="JE57" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="JF57" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JG57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45753,8 +47121,32 @@
       <c r="IX58" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IY58" t="n">
+      <c r="IY58" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="IZ58" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="JA58" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="JB58" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="JC58" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="JD58" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="JE58" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="JF58" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JG58" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46534,8 +47926,32 @@
       <c r="IX59" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="IY59" t="n">
+      <c r="IY59" s="2" t="n">
         <v>301</v>
+      </c>
+      <c r="IZ59" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="JA59" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="JB59" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="JC59" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JD59" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JE59" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="JF59" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="JG59" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -47315,8 +48731,32 @@
       <c r="IX60" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="IY60" t="n">
+      <c r="IY60" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="IZ60" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="JA60" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="JB60" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="JC60" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JD60" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="JE60" s="2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="JF60" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="JG60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -48096,8 +49536,32 @@
       <c r="IX61" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IY61" t="n">
+      <c r="IY61" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IZ61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JA61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JB61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JC61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JD61" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JE61" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JF61" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JG61" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48877,8 +50341,32 @@
       <c r="IX62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IY62" t="n">
+      <c r="IY62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IZ62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JA62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JB62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JC62" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JD62" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JF62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JG62" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49658,8 +51146,32 @@
       <c r="IX63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IY63" t="n">
+      <c r="IY63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IZ63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JB63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JC63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JD63" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JE63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF63" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -50439,8 +51951,32 @@
       <c r="IX64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IY64" t="n">
+      <c r="IY64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JB64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JD64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JF64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JG64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -51220,8 +52756,32 @@
       <c r="IX65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IY65" t="n">
+      <c r="IY65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JA65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JB65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JC65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JD65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JE65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JF65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -52001,8 +53561,32 @@
       <c r="IX66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IY66" t="n">
+      <c r="IY66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IZ66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JF66" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52782,8 +54366,32 @@
       <c r="IX67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY67" t="n">
+      <c r="IY67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF67" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -53563,8 +55171,32 @@
       <c r="IX68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IY68" t="n">
+      <c r="IY68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JB68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JC68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -54344,8 +55976,32 @@
       <c r="IX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IY69" t="n">
+      <c r="IY69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IZ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -55125,8 +56781,32 @@
       <c r="IX70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IY70" t="n">
+      <c r="IY70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IZ70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JB70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JC70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JD70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JE70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JF70" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JG70" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55906,8 +57586,32 @@
       <c r="IX71" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IY71" t="n">
+      <c r="IY71" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IZ71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JA71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JB71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JC71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JD71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JE71" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="JF71" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JG71" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56687,8 +58391,32 @@
       <c r="IX72" s="2" t="n">
         <v>24.83</v>
       </c>
-      <c r="IY72" t="n">
+      <c r="IY72" s="2" t="n">
         <v>23.15</v>
+      </c>
+      <c r="IZ72" s="2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="JA72" s="2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="JB72" s="2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="JC72" s="2" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="JD72" s="2" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="JE72" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="JF72" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="JG72" t="n">
+        <v>17.48</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -57468,8 +59196,32 @@
       <c r="IX73" s="2" t="n">
         <v>11.46</v>
       </c>
-      <c r="IY73" t="n">
+      <c r="IY73" s="2" t="n">
         <v>12.04</v>
+      </c>
+      <c r="IZ73" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="JA73" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="JB73" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="JC73" s="2" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="JD73" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="JE73" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="JF73" s="2" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="JG73" t="n">
+        <v>10.19</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -58249,8 +60001,32 @@
       <c r="IX74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IY74" t="n">
+      <c r="IY74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IZ74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JA74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JB74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC74" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JD74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JF74" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -59030,8 +60806,32 @@
       <c r="IX75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY75" t="n">
+      <c r="IY75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IZ75" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JA75" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JB75" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JC75" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JD75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JE75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JF75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JG75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59811,8 +61611,32 @@
       <c r="IX76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IY76" t="n">
+      <c r="IY76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IZ76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JC76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JD76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE76" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -60592,8 +62416,32 @@
       <c r="IX77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IY77" t="n">
+      <c r="IY77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IZ77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JC77" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JD77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JE77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JF77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JG77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -61373,8 +63221,32 @@
       <c r="IX78" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="IY78" t="n">
+      <c r="IY78" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IZ78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC78" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="JD78" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JE78" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JF78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JG78" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -62154,8 +64026,32 @@
       <c r="IX79" s="2" t="n">
         <v>4.75</v>
       </c>
-      <c r="IY79" t="n">
+      <c r="IY79" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="IZ79" s="2" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="JA79" s="2" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="JB79" s="2" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="JC79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="JD79" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="JE79" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JF79" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JG79" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62935,8 +64831,32 @@
       <c r="IX80" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="IY80" t="n">
+      <c r="IY80" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="IZ80" s="2" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JA80" s="2" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JB80" s="2" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JC80" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="JD80" s="2" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="JE80" s="2" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="JF80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JG80" t="n">
+        <v>56.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -63716,8 +65636,32 @@
       <c r="IX81" s="2" t="n">
         <v>21.1</v>
       </c>
-      <c r="IY81" t="n">
+      <c r="IY81" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="IZ81" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="JA81" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="JB81" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="JC81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="JD81" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="JE81" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JF81" s="2" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="JG81" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -64497,8 +66441,32 @@
       <c r="IX82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="IY82" t="n">
+      <c r="IY82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="IZ82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JA82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JB82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JC82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JD82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JE82" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="JF82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JG82" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -65278,8 +67246,32 @@
       <c r="IX83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="IY83" t="n">
+      <c r="IY83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IZ83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JA83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JB83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JC83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JD83" s="2" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="JE83" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="JF83" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JG83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -66059,8 +68051,32 @@
       <c r="IX84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IY84" t="n">
+      <c r="IY84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IZ84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JA84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JB84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JC84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JD84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JE84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JF84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JG84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66840,8 +68856,32 @@
       <c r="IX85" s="2" t="n">
         <v>106.2</v>
       </c>
-      <c r="IY85" t="n">
+      <c r="IY85" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="IZ85" s="2" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="JA85" s="2" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="JB85" s="2" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="JC85" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="JD85" s="2" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="JE85" s="2" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="JF85" s="2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="JG85" t="n">
+        <v>124.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -67621,8 +69661,32 @@
       <c r="IX86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY86" t="n">
+      <c r="IY86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -68402,8 +70466,32 @@
       <c r="IX87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY87" t="n">
+      <c r="IY87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -69183,8 +71271,32 @@
       <c r="IX88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY88" t="n">
+      <c r="IY88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -69964,8 +72076,32 @@
       <c r="IX89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY89" t="n">
+      <c r="IY89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IZ89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JD89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -70745,8 +72881,32 @@
       <c r="IX90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IY90" t="n">
+      <c r="IY90" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IZ90" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JA90" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JB90" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JC90" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="JD90" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="JE90" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JF90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JG90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -71526,8 +73686,32 @@
       <c r="IX91" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="IY91" t="n">
+      <c r="IY91" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="IZ91" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JA91" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JB91" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JC91" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="JD91" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="JE91" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="JF91" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JG91" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -72307,8 +74491,32 @@
       <c r="IX92" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IY92" t="n">
+      <c r="IY92" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="IZ92" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JA92" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JB92" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JC92" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="JD92" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="JE92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JF92" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JG92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -73088,8 +75296,32 @@
       <c r="IX93" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="IY93" t="n">
+      <c r="IY93" s="2" t="n">
         <v>65.40000000000001</v>
+      </c>
+      <c r="IZ93" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JA93" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JB93" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JC93" s="2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="JD93" s="2" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="JE93" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="JF93" s="2" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="JG93" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73869,8 +76101,32 @@
       <c r="IX94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY94" t="n">
+      <c r="IY94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IZ94" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JA94" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JB94" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JC94" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JD94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JE94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JF94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JG94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -74650,8 +76906,32 @@
       <c r="IX95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY95" t="n">
+      <c r="IY95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IZ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JF95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JG95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -75431,8 +77711,32 @@
       <c r="IX96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IY96" t="n">
+      <c r="IY96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF96" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG96" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -76212,8 +78516,32 @@
       <c r="IX97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IY97" t="n">
+      <c r="IY97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IZ97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JA97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JB97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC97" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JD97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JF97" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76993,8 +79321,32 @@
       <c r="IX98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IY98" t="n">
+      <c r="IY98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IZ98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JC98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JD98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE98" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JG98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -77774,8 +80126,32 @@
       <c r="IX99" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IY99" t="n">
+      <c r="IY99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IZ99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JB99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JC99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JD99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JE99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JF99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JG99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -78555,8 +80931,32 @@
       <c r="IX100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY100" t="n">
+      <c r="IY100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IZ100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JC100" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -79336,8 +81736,32 @@
       <c r="IX101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY101" t="n">
+      <c r="IY101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF101" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -80117,8 +82541,32 @@
       <c r="IX102" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="IY102" t="n">
+      <c r="IY102" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IZ102" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="JA102" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="JB102" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="JC102" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="JD102" s="2" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="JE102" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JF102" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JG102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>
